--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Projects/100 Behaviour Change/BCIO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775F92DD-7071-314C-97D4-72F44A13D7EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCEC2E7-0272-F244-BB3A-641C1CCBA4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18620" yWindow="460" windowWidth="18580" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassDefs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="175">
   <si>
     <t>Definition</t>
   </si>
@@ -300,9 +300,6 @@
     <t xml:space="preserve">Research study (SEPIO)/Process </t>
   </si>
   <si>
-    <t>Need to explain what we mean by positive and negative. Needs examples.</t>
-  </si>
-  <si>
     <t>Intervention outcome</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>Parent class/ BFO class</t>
   </si>
   <si>
-    <t>Elaboration</t>
-  </si>
-  <si>
     <t>An intervention evaluation study of a BCI scenario.</t>
   </si>
   <si>
@@ -538,6 +532,24 @@
   </si>
   <si>
     <t>Environmental system (ENVO)/Continuant</t>
+  </si>
+  <si>
+    <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
+  </si>
+  <si>
+    <t>Behaviour change intervention style of delivery (BCI style of delivery)</t>
+  </si>
+  <si>
+    <t>An attribute of a BCI delivery that encompasses the characteristics of how a BCI is communicated.</t>
+  </si>
+  <si>
+    <t>An example is cold and distant vs. warm and accepting.</t>
+  </si>
+  <si>
+    <t>BCIO:044000</t>
+  </si>
+  <si>
+    <t>Examples</t>
   </si>
 </sst>
 </file>
@@ -934,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -956,19 +968,19 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="4"/>
@@ -977,7 +989,7 @@
     </row>
     <row r="2" spans="1:17" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -986,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>4</v>
@@ -1005,7 +1017,7 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -1034,7 +1046,7 @@
     </row>
     <row r="4" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1059,7 +1071,7 @@
     </row>
     <row r="5" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1068,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>15</v>
@@ -1084,7 +1096,7 @@
     </row>
     <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
@@ -1107,7 +1119,7 @@
     </row>
     <row r="7" spans="1:17" ht="160" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
@@ -1132,7 +1144,7 @@
     </row>
     <row r="8" spans="1:17" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>22</v>
@@ -1157,16 +1169,16 @@
     </row>
     <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>27</v>
@@ -1182,16 +1194,16 @@
     </row>
     <row r="10" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1205,7 +1217,7 @@
     </row>
     <row r="11" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>29</v>
@@ -1214,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>31</v>
@@ -1230,16 +1242,16 @@
     </row>
     <row r="12" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1253,7 +1265,7 @@
     </row>
     <row r="13" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>33</v>
@@ -1276,7 +1288,7 @@
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>36</v>
@@ -1285,7 +1297,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1313,7 +1325,7 @@
     </row>
     <row r="16" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>38</v>
@@ -1336,7 +1348,7 @@
     </row>
     <row r="17" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>41</v>
@@ -1359,7 +1371,7 @@
     </row>
     <row r="18" spans="1:17" s="3" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>43</v>
@@ -1387,7 +1399,7 @@
     </row>
     <row r="19" spans="1:17" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>47</v>
@@ -1396,7 +1408,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1413,7 +1425,7 @@
     </row>
     <row r="20" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>49</v>
@@ -1422,7 +1434,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1436,10 +1448,10 @@
     </row>
     <row r="21" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>51</v>
@@ -1459,7 +1471,7 @@
     </row>
     <row r="22" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
@@ -1482,7 +1494,7 @@
     </row>
     <row r="23" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>56</v>
@@ -1504,7 +1516,7 @@
     </row>
     <row r="24" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>59</v>
@@ -1528,7 +1540,7 @@
     </row>
     <row r="25" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>62</v>
@@ -1537,7 +1549,7 @@
         <v>63</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>64</v>
@@ -1552,7 +1564,7 @@
     </row>
     <row r="26" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>65</v>
@@ -1561,7 +1573,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1574,16 +1586,16 @@
     </row>
     <row r="27" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>68</v>
@@ -1598,16 +1610,16 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1615,210 +1627,227 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>90</v>
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E39" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCEC2E7-0272-F244-BB3A-641C1CCBA4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B741D4-9A61-2149-BFE8-A526FDDBB002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassDefs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="174">
   <si>
     <t>Definition</t>
   </si>
@@ -69,18 +69,12 @@
     <t>Behaviour change intervention context (BCI context)</t>
   </si>
   <si>
-    <t>An aggregate of entities that are independent of the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
-  </si>
-  <si>
     <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
   </si>
   <si>
     <t>Behaviour change intervention delivery (BCI delivery)</t>
   </si>
   <si>
-    <t xml:space="preserve">A part of a BCI that is the means by which BCI content is provided. </t>
-  </si>
-  <si>
     <t>Behaviour change intervention dose (BCI dose)</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Process attribute/Process</t>
   </si>
   <si>
-    <t>This is a disjunctive class that is not currently fully defined because specific instances may represent intensity and amount in different ways with different weightings applied to create a metric. It requires an ‘is about’ link with an information content entity to clarify its meaning in a given context.</t>
-  </si>
-  <si>
     <t>Behaviour change intervention effect estimate (BCI effect estimate)</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>A plan specification for a BCI evaluation study.</t>
   </si>
   <si>
-    <t>Plan Specification (IAO)/Generically dependent continuant</t>
-  </si>
-  <si>
     <t>Behaviour change intervention evaluation study risk of bias or error (BCI study risk of bias or error)</t>
   </si>
   <si>
@@ -198,12 +186,6 @@
     <t>Behaviour change intervention scenario plan (BCI scenario plan)</t>
   </si>
   <si>
-    <t>A plan specification that represents an intended or hypothetical BCI scenario.</t>
-  </si>
-  <si>
-    <t>Plan specification (OBI)/Generically dependent continuant</t>
-  </si>
-  <si>
     <t xml:space="preserve">Behaviour change intervention schedule of delivery (BCI schedule of delivery) </t>
   </si>
   <si>
@@ -312,9 +294,6 @@
     <t>A process that is produced by a person.</t>
   </si>
   <si>
-    <t>Includes individual human behaviour, mental activity and physiological activity.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intervention/Process </t>
   </si>
   <si>
@@ -540,9 +519,6 @@
     <t>Behaviour change intervention style of delivery (BCI style of delivery)</t>
   </si>
   <si>
-    <t>An attribute of a BCI delivery that encompasses the characteristics of how a BCI is communicated.</t>
-  </si>
-  <si>
     <t>An example is cold and distant vs. warm and accepting.</t>
   </si>
   <si>
@@ -550,6 +526,27 @@
   </si>
   <si>
     <t>Examples</t>
+  </si>
+  <si>
+    <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
+  </si>
+  <si>
+    <t>A part of a BCI that is the process by which BCI content is delivered.</t>
+  </si>
+  <si>
+    <t>This is a disjunctive class that is not currently fully defined because specific BCI content instances may vary in intensity and amount in different ways.</t>
+  </si>
+  <si>
+    <t>A plan that is realized in a BCI scenario process.</t>
+  </si>
+  <si>
+    <t>Plan (OBI)/Generically dependent continuant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+  </si>
+  <si>
+    <t>An attribute of BCI delivery that encompasses the characteristics of how BCI content is communicated.</t>
   </si>
 </sst>
 </file>
@@ -948,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -968,19 +965,19 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="4"/>
@@ -989,7 +986,7 @@
     </row>
     <row r="2" spans="1:17" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -998,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>4</v>
@@ -1017,7 +1014,7 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -1046,7 +1043,7 @@
     </row>
     <row r="4" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1071,19 +1068,19 @@
     </row>
     <row r="5" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1096,13 +1093,13 @@
     </row>
     <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
@@ -1117,21 +1114,21 @@
       <c r="L6" s="5"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" ht="160" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1144,19 +1141,19 @@
     </row>
     <row r="8" spans="1:17" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1169,19 +1166,19 @@
     </row>
     <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1194,16 +1191,16 @@
     </row>
     <row r="10" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1217,19 +1214,19 @@
     </row>
     <row r="11" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1242,16 +1239,16 @@
     </row>
     <row r="12" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1265,16 +1262,16 @@
     </row>
     <row r="13" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1288,16 +1285,16 @@
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1325,16 +1322,16 @@
     </row>
     <row r="16" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1348,16 +1345,16 @@
     </row>
     <row r="17" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1371,19 +1368,19 @@
     </row>
     <row r="18" spans="1:17" s="3" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1399,16 +1396,16 @@
     </row>
     <row r="19" spans="1:17" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1425,16 +1422,16 @@
     </row>
     <row r="20" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1448,16 +1445,16 @@
     </row>
     <row r="21" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1471,16 +1468,16 @@
     </row>
     <row r="22" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1492,18 +1489,18 @@
       <c r="L22" s="5"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1516,19 +1513,19 @@
     </row>
     <row r="24" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -1540,19 +1537,19 @@
     </row>
     <row r="25" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1564,16 +1561,16 @@
     </row>
     <row r="26" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1586,19 +1583,19 @@
     </row>
     <row r="27" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1610,78 +1607,78 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
@@ -1689,165 +1686,165 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1861,21 +1858,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC046B428994B048B5D1607E2BC0A9EE" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c982ac5c4de0dface3be1600b86e8827">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa734e6e-2dd8-4275-9b08-04e206339f53" xmlns:ns3="ac97e7bc-1267-463a-8e0a-d8030d117d70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="947eed00a4b594265278c622143e660f" ns2:_="" ns3:_="">
     <xsd:import namespace="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
@@ -2078,24 +2060,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9454A1-A395-40F6-B8A5-B468B9176A79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F469C38F-E02B-4811-BC50-AB2CCD2039A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52F32E0B-E7AA-4D03-B39B-CF76A50E8739}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2112,4 +2092,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F469C38F-E02B-4811-BC50-AB2CCD2039A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9454A1-A395-40F6-B8A5-B468B9176A79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B741D4-9A61-2149-BFE8-A526FDDBB002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9F2858-2EA1-374F-9163-9355C5A40894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Behaviour change intervention evaluation study plan (BCI evaluation study plan)</t>
   </si>
   <si>
-    <t>A plan specification for a BCI evaluation study.</t>
-  </si>
-  <si>
     <t>Behaviour change intervention evaluation study risk of bias or error (BCI study risk of bias or error)</t>
   </si>
   <si>
@@ -547,6 +544,9 @@
   </si>
   <si>
     <t>An attribute of BCI delivery that encompasses the characteristics of how BCI content is communicated.</t>
+  </si>
+  <si>
+    <t>A plan for a BCI evaluation study.</t>
   </si>
 </sst>
 </file>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -965,19 +965,19 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="4"/>
@@ -986,7 +986,7 @@
     </row>
     <row r="2" spans="1:17" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>4</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="4" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1068,16 +1068,16 @@
     </row>
     <row r="5" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="7" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>16</v>
@@ -1128,7 +1128,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="8" spans="1:17" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>19</v>
@@ -1166,16 +1166,16 @@
     </row>
     <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>24</v>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="10" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="11" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>26</v>
@@ -1223,7 +1223,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>28</v>
@@ -1239,16 +1239,16 @@
     </row>
     <row r="12" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="13" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1285,16 +1285,16 @@
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1322,16 +1322,16 @@
     </row>
     <row r="16" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="17" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>18</v>
@@ -1368,19 +1368,19 @@
     </row>
     <row r="18" spans="1:17" s="3" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="19" spans="1:17" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1422,16 +1422,16 @@
     </row>
     <row r="20" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1445,16 +1445,16 @@
     </row>
     <row r="21" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="22" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1491,16 +1491,16 @@
     </row>
     <row r="23" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1513,19 +1513,19 @@
     </row>
     <row r="24" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -1537,19 +1537,19 @@
     </row>
     <row r="25" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1561,16 +1561,16 @@
     </row>
     <row r="26" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1583,19 +1583,19 @@
     </row>
     <row r="27" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1607,78 +1607,78 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
@@ -1686,165 +1686,165 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9F2858-2EA1-374F-9163-9355C5A40894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF35A4D-4683-4244-9F65-AF887FFF2606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassDefs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="180">
   <si>
     <t>Definition</t>
   </si>
@@ -547,6 +547,24 @@
   </si>
   <si>
     <t>A plan for a BCI evaluation study.</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Curator</t>
+  </si>
+  <si>
+    <t>Curation status</t>
+  </si>
+  <si>
+    <t>To be reviewed by</t>
+  </si>
+  <si>
+    <t>Reviewer query</t>
+  </si>
+  <si>
+    <t>Discussed</t>
   </si>
 </sst>
 </file>
@@ -945,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -979,6 +997,21 @@
       <c r="E1" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="M1" s="9"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1002,7 +1035,9 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1030,7 +1065,9 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1059,7 +1096,9 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1084,7 +1123,9 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1107,7 +1148,9 @@
       <c r="E6" s="7"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1132,7 +1175,9 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1157,7 +1202,9 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1182,7 +1229,9 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1205,7 +1254,9 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1230,7 +1281,9 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1253,7 +1306,9 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1276,7 +1331,9 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1299,21 +1356,25 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1336,7 +1397,9 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1359,7 +1422,9 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1384,7 +1449,9 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1410,7 +1477,9 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1436,7 +1505,9 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1459,7 +1530,9 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1482,7 +1555,9 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1505,7 +1580,9 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1529,7 +1606,9 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1553,7 +1632,9 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1575,7 +1656,9 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1599,13 +1682,15 @@
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>143</v>
       </c>
@@ -1621,8 +1706,11 @@
       <c r="E28" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H28" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>144</v>
       </c>
@@ -1635,8 +1723,11 @@
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H29" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>164</v>
       </c>
@@ -1652,8 +1743,11 @@
       <c r="E30" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H30" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>145</v>
       </c>
@@ -1669,8 +1763,11 @@
       <c r="E31" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H31" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>146</v>
       </c>
@@ -1683,8 +1780,11 @@
       <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H32" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>118</v>
       </c>
@@ -1697,8 +1797,11 @@
       <c r="D33" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H33" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>147</v>
       </c>
@@ -1711,8 +1814,11 @@
       <c r="D34" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H34" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>148</v>
       </c>
@@ -1728,8 +1834,11 @@
       <c r="E35" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H35" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>149</v>
       </c>
@@ -1742,8 +1851,11 @@
       <c r="D36" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H36" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>150</v>
       </c>
@@ -1759,8 +1871,11 @@
       <c r="E37" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H37" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>151</v>
       </c>
@@ -1773,8 +1888,11 @@
       <c r="D38" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H38" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>152</v>
       </c>
@@ -1790,8 +1908,11 @@
       <c r="E39" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H39" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>153</v>
       </c>
@@ -1804,8 +1925,11 @@
       <c r="D40" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H40" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>154</v>
       </c>
@@ -1818,8 +1942,11 @@
       <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H41" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>155</v>
       </c>
@@ -1832,8 +1959,11 @@
       <c r="D42" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H42" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>156</v>
       </c>
@@ -1845,6 +1975,9 @@
       </c>
       <c r="D43" s="2" t="s">
         <v>111</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1858,6 +1991,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC046B428994B048B5D1607E2BC0A9EE" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c982ac5c4de0dface3be1600b86e8827">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa734e6e-2dd8-4275-9b08-04e206339f53" xmlns:ns3="ac97e7bc-1267-463a-8e0a-d8030d117d70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="947eed00a4b594265278c622143e660f" ns2:_="" ns3:_="">
     <xsd:import namespace="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
@@ -2060,12 +2199,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2076,6 +2209,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F469C38F-E02B-4811-BC50-AB2CCD2039A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52F32E0B-E7AA-4D03-B39B-CF76A50E8739}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2094,15 +2236,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F469C38F-E02B-4811-BC50-AB2CCD2039A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9454A1-A395-40F6-B8A5-B468B9176A79}">
   <ds:schemaRefs>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -574,7 +574,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Planned process (OBI)/Process </t>
+          <t>Planned process (OBI)/Process</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Planned process (OBI)/Process </t>
+          <t>Planned process (OBI)/Process</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\ontologies\Upper Level BCIO\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A551D2-C3E9-46FA-84AD-0A6E2D4C21D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C6ED9F-8897-417B-B2FA-09F7E49A2DAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -914,13 +914,16 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51.140625" customWidth="1"/>
     <col min="3" max="3" width="79.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\ontologies\Upper Level BCIO\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C6ED9F-8897-417B-B2FA-09F7E49A2DAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94412A76-9D7F-7543-9D12-8F23C5EC9471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11720" yWindow="-21140" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="184">
   <si>
     <t>ID</t>
   </si>
@@ -55,15 +55,9 @@
     <t>BCIO:003000</t>
   </si>
   <si>
-    <t>Behaviour change intervention (BCI)</t>
-  </si>
-  <si>
     <t>An intervention that has the aim of influencing human behaviour.</t>
   </si>
   <si>
-    <t xml:space="preserve">Intervention/Process </t>
-  </si>
-  <si>
     <t>Involves use of products, services, activities, rules or environmental objects.</t>
   </si>
   <si>
@@ -73,261 +67,147 @@
     <t>BCIO:016000</t>
   </si>
   <si>
-    <t>Behaviour change intervention comparison evaluation study (BCI comparison evaluation study)</t>
-  </si>
-  <si>
     <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
   </si>
   <si>
-    <t xml:space="preserve">Behaviour change intervention evaluation study/Process </t>
-  </si>
-  <si>
     <t>Comparison involves identifying differences between the entities in the scenarios.</t>
   </si>
   <si>
     <t>BCIO:007000</t>
   </si>
   <si>
-    <t>Behaviour change intervention content (BCI content)</t>
-  </si>
-  <si>
     <t>A planned process that is part of a BCI and is intended to be causally active in influencing the outcome behaviour.</t>
   </si>
   <si>
-    <t>Planned process (OBI)/Process</t>
-  </si>
-  <si>
     <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
   </si>
   <si>
     <t>BCIO:005000</t>
   </si>
   <si>
-    <t>Behaviour change intervention context (BCI context)</t>
-  </si>
-  <si>
     <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
   </si>
   <si>
-    <t>Object aggregate/Object aggregate</t>
-  </si>
-  <si>
     <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
   </si>
   <si>
     <t>BCIO:008000</t>
   </si>
   <si>
-    <t>Behaviour change intervention delivery (BCI delivery)</t>
-  </si>
-  <si>
-    <t>A part of a BCI that is the process by which BCI content is delivered.</t>
-  </si>
-  <si>
     <t>BCIO:022000</t>
   </si>
   <si>
-    <t>Behaviour change intervention dose (BCI dose)</t>
-  </si>
-  <si>
     <t>An attribute of BCI content that is its amount or intensity.</t>
   </si>
   <si>
-    <t>Process attribute/Process</t>
-  </si>
-  <si>
     <t>This is a disjunctive class that is not currently fully defined because specific BCI content instances may vary in intensity and amount in different ways.</t>
   </si>
   <si>
     <t>BCIO:017000</t>
   </si>
   <si>
-    <t>Behaviour change intervention effect estimate (BCI effect estimate)</t>
-  </si>
-  <si>
     <t xml:space="preserve">A BCI evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
   </si>
   <si>
-    <t>BCI evaluation finding/Generically dependent continuant</t>
-  </si>
-  <si>
     <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
   </si>
   <si>
     <t>BCIO:013000</t>
   </si>
   <si>
-    <t>Behaviour change intervention engagement (BCI engagement)</t>
-  </si>
-  <si>
     <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
   </si>
   <si>
-    <t xml:space="preserve">Individual human activity/Process </t>
-  </si>
-  <si>
     <t>Includes mental activities and behaviours.</t>
   </si>
   <si>
     <t>BCIO:023000</t>
   </si>
   <si>
-    <t>Behaviour change intervention evaluation finding (BCI evaluation finding)</t>
-  </si>
-  <si>
     <t>An evaluation finding that is the output of a BCI evaluation study.</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaluation finding/Process </t>
-  </si>
-  <si>
     <t>BCIO:021000</t>
   </si>
   <si>
-    <t>Behaviour change intervention evaluation report (BCI evaluation report)</t>
-  </si>
-  <si>
     <t>A report that is a description of a BCI evaluation study.</t>
   </si>
   <si>
-    <t xml:space="preserve">Report (IAO)/Generically dependent continuant </t>
-  </si>
-  <si>
     <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
   </si>
   <si>
     <t>BCIO:018000</t>
   </si>
   <si>
-    <t>Behaviour change intervention evaluation study (BCI evaluation study)</t>
-  </si>
-  <si>
     <t>An intervention evaluation study of a BCI scenario.</t>
   </si>
   <si>
-    <t xml:space="preserve">Intervention evaluation study/Process </t>
-  </si>
-  <si>
     <t>BCIO:024000</t>
   </si>
   <si>
-    <t>Behaviour change intervention evaluation study plan (BCI evaluation study plan)</t>
-  </si>
-  <si>
     <t>A plan for a BCI evaluation study.</t>
   </si>
   <si>
-    <t>Plan (OBI)/Generically dependent continuant</t>
-  </si>
-  <si>
     <t>BCIO:020000</t>
   </si>
   <si>
-    <t>Behaviour change intervention evaluation study risk of bias or error (BCI study risk of bias or error)</t>
-  </si>
-  <si>
     <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
   </si>
   <si>
-    <t>Information content entity (IAO)/Generically dependent continuant</t>
-  </si>
-  <si>
     <t>BCIO:006000</t>
   </si>
   <si>
-    <t>Behaviour change intervention mechanism of action (BCI mechanism of action)</t>
-  </si>
-  <si>
     <t xml:space="preserve">A process that is causally active in the relationship between a BCI and its outcome behaviour. </t>
   </si>
   <si>
-    <t xml:space="preserve">Process/Process </t>
-  </si>
-  <si>
     <t>BCIO:011000</t>
   </si>
   <si>
-    <t>Behaviour change intervention mode of delivery (BCI mode of delivery)</t>
-  </si>
-  <si>
     <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
   </si>
   <si>
     <t>BCIO:025000</t>
   </si>
   <si>
-    <t>Behaviour change intervention outcome estimate (BCI outcome estimate)</t>
-  </si>
-  <si>
     <t>A BCI evaluation finding that is about an outcome behaviour.</t>
   </si>
   <si>
-    <t>Behaviour change intervention evaluation finding/Generically dependent continuant</t>
-  </si>
-  <si>
     <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
   </si>
   <si>
     <t>BCIO:026000</t>
   </si>
   <si>
-    <t>Behaviour change intervention physical setting (BCI physical setting)</t>
-  </si>
-  <si>
     <t>A physical environment in which a BCI is delivered.</t>
   </si>
   <si>
-    <t>Environmental system (ENVO)/Continuant</t>
-  </si>
-  <si>
     <t>BCIO:015000</t>
   </si>
   <si>
-    <t>Behaviour change intervention population (BCI population)</t>
-  </si>
-  <si>
     <t xml:space="preserve">An aggregate of people who are exposed to a BCI. </t>
   </si>
   <si>
-    <t xml:space="preserve">Human population/Object aggregate </t>
-  </si>
-  <si>
     <t>BCIO:027000</t>
   </si>
   <si>
-    <t>Behaviour change intervention scenario report (BCI scenario report)</t>
-  </si>
-  <si>
     <t>A report that describes a BCI scenario.</t>
   </si>
   <si>
-    <t>Report (IAO)/Generically dependent continuant</t>
-  </si>
-  <si>
     <t>BCIO:001000</t>
   </si>
   <si>
-    <t>Behaviour change intervention scenario (BCI scenario)</t>
-  </si>
-  <si>
     <t>A process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
   </si>
   <si>
     <t>BCIO:028000</t>
   </si>
   <si>
-    <t>Behaviour change intervention scenario plan (BCI scenario plan)</t>
-  </si>
-  <si>
     <t>A plan that is realized in a BCI scenario process.</t>
   </si>
   <si>
     <t>BCIO:009000</t>
   </si>
   <si>
-    <t xml:space="preserve">Behaviour change intervention schedule of delivery (BCI schedule of delivery) </t>
-  </si>
-  <si>
     <t>An attribute of a BCI that involves its temporal organisation.</t>
   </si>
   <si>
@@ -337,9 +217,6 @@
     <t>BCIO:014000</t>
   </si>
   <si>
-    <t>Behaviour change intervention setting (BCI setting)</t>
-  </si>
-  <si>
     <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
   </si>
   <si>
@@ -349,63 +226,36 @@
     <t>BCIO:029000</t>
   </si>
   <si>
-    <t>Behaviour change intervention social setting (BCI social setting)</t>
-  </si>
-  <si>
     <t>An aggregate of people with whom a BCI population interacts.</t>
   </si>
   <si>
-    <t>Human population/Continuant</t>
-  </si>
-  <si>
     <t>BCIO:010000</t>
   </si>
   <si>
-    <t>Behaviour change intervention source (BCI source)</t>
-  </si>
-  <si>
     <t>A role played by a person, population or organisation that provides a BCI.</t>
   </si>
   <si>
-    <t xml:space="preserve">Role/Role </t>
-  </si>
-  <si>
     <t>This includes individual people, groups of people, and organisations.</t>
   </si>
   <si>
     <t>BCIO:030000</t>
   </si>
   <si>
-    <t>Behaviour change intervention study investigator (BCI study investigator)</t>
-  </si>
-  <si>
     <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
   </si>
   <si>
-    <t>Role/Role</t>
-  </si>
-  <si>
     <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
   </si>
   <si>
     <t>BCIO:031000</t>
   </si>
   <si>
-    <t>Behaviour change intervention study sample (BCI study sample)</t>
-  </si>
-  <si>
     <t>A population whose behaviour is studied in a BCI evaluation study.</t>
   </si>
   <si>
-    <t>Human population/Object aggregate</t>
-  </si>
-  <si>
     <t>BCIO:044000</t>
   </si>
   <si>
-    <t>Behaviour change intervention style of delivery (BCI style of delivery)</t>
-  </si>
-  <si>
     <t>An attribute of BCI delivery that encompasses the characteristics of how BCI content is communicated.</t>
   </si>
   <si>
@@ -415,84 +265,48 @@
     <t>BCIO:032000</t>
   </si>
   <si>
-    <t>Behaviour change intervention tailoring (BCI tailoring)</t>
-  </si>
-  <si>
     <t>An attribute of a BCI that relates to selection or modification of the BCI according to attributes of members of the BCI population or BCI context.</t>
   </si>
   <si>
-    <t xml:space="preserve">Process attribute/Process </t>
-  </si>
-  <si>
     <t>It includes static tailoring that is based on characteristics of a member of a BCI population or BCI context at a single point in time and dynamic tailoring that can change as a function of characteristics assessed at multiple time points.</t>
   </si>
   <si>
     <t>BCIO:033000</t>
   </si>
   <si>
-    <t>Behaviour change technique (BCT)</t>
-  </si>
-  <si>
     <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
   </si>
   <si>
-    <t xml:space="preserve">Planned process (OBI)/Process </t>
-  </si>
-  <si>
     <t>BCIO:002000</t>
   </si>
   <si>
-    <t>Outcome behaviour</t>
-  </si>
-  <si>
     <t>Human behavior that is an intervention outcome.</t>
   </si>
   <si>
-    <t xml:space="preserve">Human behaviour/Process </t>
-  </si>
-  <si>
     <t>BCIO:034000</t>
   </si>
   <si>
-    <t>Population behaviour</t>
-  </si>
-  <si>
     <t>An aggregate of individual human behaviours of members of a population.</t>
   </si>
   <si>
-    <t>Process/Process</t>
-  </si>
-  <si>
     <t>BCIO:035000</t>
   </si>
   <si>
-    <t>Evaluation finding</t>
-  </si>
-  <si>
     <t>A data item that is the output of an intervention evaluation study.</t>
   </si>
   <si>
-    <t xml:space="preserve">Data item (IAO)/Continuant </t>
-  </si>
-  <si>
     <t>Also referred to in definitions as human behaviour or just behaviour.</t>
   </si>
   <si>
     <t>BCIO:036000</t>
   </si>
   <si>
-    <t>Individual human behaviour</t>
-  </si>
-  <si>
     <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
   </si>
   <si>
     <t>BCIO:037000</t>
   </si>
   <si>
-    <t>Intervention</t>
-  </si>
-  <si>
     <t>A planned process that has the aim of influencing an outcome.</t>
   </si>
   <si>
@@ -502,21 +316,12 @@
     <t>BCIO:038000</t>
   </si>
   <si>
-    <t>Intervention evaluation study</t>
-  </si>
-  <si>
     <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
   </si>
   <si>
-    <t xml:space="preserve">Research study (SEPIO)/Process </t>
-  </si>
-  <si>
     <t>BCIO:039000</t>
   </si>
   <si>
-    <t>Intervention outcome</t>
-  </si>
-  <si>
     <t>A process that is influenced by an intervention.</t>
   </si>
   <si>
@@ -526,40 +331,247 @@
     <t>BCIO:040000</t>
   </si>
   <si>
-    <t>Individual human activity</t>
-  </si>
-  <si>
     <t>A process that is produced by a person.</t>
   </si>
   <si>
     <t>BCIO:041000</t>
   </si>
   <si>
-    <t>Human population</t>
-  </si>
-  <si>
     <t>An aggregate of people</t>
   </si>
   <si>
     <t>BCIO:042000</t>
   </si>
   <si>
-    <t>Human behaviour</t>
-  </si>
-  <si>
     <t>Individual human behaviour or population behaviour</t>
   </si>
   <si>
     <t>BCIO:043000</t>
   </si>
   <si>
-    <t>Process attribute</t>
-  </si>
-  <si>
     <t>An attribute of a process</t>
   </si>
   <si>
-    <t>Process profile/Process profile</t>
+    <t>behaviour change intervention (BCI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intervention/process </t>
+  </si>
+  <si>
+    <t>behaviour change intervention comparison evaluation study (BCI comparison evaluation study)</t>
+  </si>
+  <si>
+    <t>behaviour change intervention content (BCI content)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behaviour change intervention evaluation study/process </t>
+  </si>
+  <si>
+    <t>planned process (OBI)/process</t>
+  </si>
+  <si>
+    <t>behaviour change intervention context (BCI context)</t>
+  </si>
+  <si>
+    <t>object aggregate/object aggregate</t>
+  </si>
+  <si>
+    <t>behaviour change intervention delivery (BCI delivery)</t>
+  </si>
+  <si>
+    <t>behaviour change intervention dose (BCI dose)</t>
+  </si>
+  <si>
+    <t>process attribute/process</t>
+  </si>
+  <si>
+    <t>behaviour change intervention effect estimate (BCI effect estimate)</t>
+  </si>
+  <si>
+    <t>BCI evaluation finding/generically dependent continuant</t>
+  </si>
+  <si>
+    <t>behaviour change intervention engagement (BCI engagement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">individual human activity/process </t>
+  </si>
+  <si>
+    <t>behaviour change intervention evaluation finding (BCI evaluation finding)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluation finding/process </t>
+  </si>
+  <si>
+    <t>behaviour change intervention evaluation report (BCI evaluation report)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report (IAO)/generically dependent continuant </t>
+  </si>
+  <si>
+    <t>behaviour change intervention evaluation study (BCI evaluation study)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intervention evaluation study/process </t>
+  </si>
+  <si>
+    <t>behaviour change intervention evaluation study plan (BCI evaluation study plan)</t>
+  </si>
+  <si>
+    <t>plan (OBI)/generically dependent continuant</t>
+  </si>
+  <si>
+    <t>behaviour change intervention evaluation study risk of bias or error (BCI study risk of bias or error)</t>
+  </si>
+  <si>
+    <t>information content entity (IAO)/generically dependent continuant</t>
+  </si>
+  <si>
+    <t>behaviour change intervention mechanism of action (BCI mechanism of action)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process/process </t>
+  </si>
+  <si>
+    <t>behaviour change intervention mode of delivery (BCI mode of delivery)</t>
+  </si>
+  <si>
+    <t>behaviour change intervention outcome estimate (BCI outcome estimate)</t>
+  </si>
+  <si>
+    <t>behaviour change intervention evaluation finding/generically dependent continuant</t>
+  </si>
+  <si>
+    <t>behaviour change intervention physical setting (BCI physical setting)</t>
+  </si>
+  <si>
+    <t>environmental system (ENVO)/continuant</t>
+  </si>
+  <si>
+    <t>behaviour change intervention population (BCI population)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human population/object aggregate </t>
+  </si>
+  <si>
+    <t>behaviour change intervention scenario report (BCI scenario report)</t>
+  </si>
+  <si>
+    <t>report (IAO)/generically dependent continuant</t>
+  </si>
+  <si>
+    <t>behaviour change intervention scenario (BCI scenario)</t>
+  </si>
+  <si>
+    <t>behaviour change intervention scenario plan (BCI scenario plan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behaviour change intervention schedule of delivery (BCI schedule of delivery) </t>
+  </si>
+  <si>
+    <t>behaviour change intervention setting (BCI setting)</t>
+  </si>
+  <si>
+    <t>behaviour change intervention social setting (BCI social setting)</t>
+  </si>
+  <si>
+    <t>human population/continuant</t>
+  </si>
+  <si>
+    <t>behaviour change intervention source (BCI source)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role/role </t>
+  </si>
+  <si>
+    <t>behaviour change intervention study investigator (BCI study investigator)</t>
+  </si>
+  <si>
+    <t>role/role</t>
+  </si>
+  <si>
+    <t>behaviour change intervention study sample (BCI study sample)</t>
+  </si>
+  <si>
+    <t>human population/object aggregate</t>
+  </si>
+  <si>
+    <t>behaviour change intervention style of delivery (BCI style of delivery)</t>
+  </si>
+  <si>
+    <t>behaviour change intervention tailoring (BCI tailoring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process attribute/process </t>
+  </si>
+  <si>
+    <t>behaviour change technique (BCT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planned process (OBI)/process </t>
+  </si>
+  <si>
+    <t>outcome behaviour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human behaviour/process </t>
+  </si>
+  <si>
+    <t>population behaviour</t>
+  </si>
+  <si>
+    <t>process/process</t>
+  </si>
+  <si>
+    <t>evaluation finding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data item (IAO)/continuant </t>
+  </si>
+  <si>
+    <t>individual human behaviour</t>
+  </si>
+  <si>
+    <t>intervention</t>
+  </si>
+  <si>
+    <t>intervention evaluation study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research study (SEPIO)/process </t>
+  </si>
+  <si>
+    <t>intervention outcome</t>
+  </si>
+  <si>
+    <t>individual human activity</t>
+  </si>
+  <si>
+    <t>human population</t>
+  </si>
+  <si>
+    <t>human behaviour</t>
+  </si>
+  <si>
+    <t>process attribute</t>
+  </si>
+  <si>
+    <t>process profile/process profile</t>
+  </si>
+  <si>
+    <t>intervention delivery</t>
+  </si>
+  <si>
+    <t>A process by which intervention content is delivered.</t>
+  </si>
+  <si>
+    <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+  </si>
+  <si>
+    <t>('indivdiual human behaviour' or 'population behaviour')</t>
+  </si>
+  <si>
+    <t>Obsolete</t>
   </si>
 </sst>
 </file>
@@ -911,22 +923,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,943 +971,960 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94412A76-9D7F-7543-9D12-8F23C5EC9471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8919D153-1145-BB4F-BB99-40345B7F1CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="-21140" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="187">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Label (synonym)</t>
-  </si>
-  <si>
     <t>Definition</t>
   </si>
   <si>
@@ -572,6 +569,18 @@
   </si>
   <si>
     <t>Obsolete</t>
+  </si>
+  <si>
+    <t>intervention content</t>
+  </si>
+  <si>
+    <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
+  </si>
+  <si>
+    <t>To Be Discussed</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
 </sst>
 </file>
@@ -923,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -944,986 +953,1000 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
         <v>179</v>
       </c>
-      <c r="C43" t="s">
-        <v>180</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8919D153-1145-BB4F-BB99-40345B7F1CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A967EE4E-F0FC-A94C-BD7A-889B7F5D0039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Parent class/ BFO class</t>
-  </si>
-  <si>
     <t>Examples</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>BCIO:007000</t>
   </si>
   <si>
-    <t>A planned process that is part of a BCI and is intended to be causally active in influencing the outcome behaviour.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
   </si>
   <si>
@@ -581,6 +575,12 @@
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>An intervention content that is part of a behaviour change intervention.</t>
   </si>
 </sst>
 </file>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -953,1000 +953,1000 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A967EE4E-F0FC-A94C-BD7A-889B7F5D0039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75296BE6-7BCC-A742-8EC3-6D8044F0C4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="189">
   <si>
     <t>ID</t>
   </si>
@@ -581,6 +581,12 @@
   </si>
   <si>
     <t>An intervention content that is part of a behaviour change intervention.</t>
+  </si>
+  <si>
+    <t>BCIO:045000</t>
+  </si>
+  <si>
+    <t>BCIO:046000</t>
   </si>
 </sst>
 </file>
@@ -934,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1922,6 +1928,9 @@
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>176</v>
       </c>
@@ -1932,10 +1941,13 @@
         <v>112</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="B44" s="2" t="s">
         <v>181</v>
       </c>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75296BE6-7BCC-A742-8EC3-6D8044F0C4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3BDC42-1892-DA45-9852-AF38EECF0C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -346,42 +346,24 @@
     <t>behaviour change intervention (BCI)</t>
   </si>
   <si>
-    <t xml:space="preserve">intervention/process </t>
-  </si>
-  <si>
     <t>behaviour change intervention comparison evaluation study (BCI comparison evaluation study)</t>
   </si>
   <si>
     <t>behaviour change intervention content (BCI content)</t>
   </si>
   <si>
-    <t xml:space="preserve">behaviour change intervention evaluation study/process </t>
-  </si>
-  <si>
-    <t>planned process (OBI)/process</t>
-  </si>
-  <si>
     <t>behaviour change intervention context (BCI context)</t>
   </si>
   <si>
-    <t>object aggregate/object aggregate</t>
-  </si>
-  <si>
     <t>behaviour change intervention delivery (BCI delivery)</t>
   </si>
   <si>
     <t>behaviour change intervention dose (BCI dose)</t>
   </si>
   <si>
-    <t>process attribute/process</t>
-  </si>
-  <si>
     <t>behaviour change intervention effect estimate (BCI effect estimate)</t>
   </si>
   <si>
-    <t>BCI evaluation finding/generically dependent continuant</t>
-  </si>
-  <si>
     <t>behaviour change intervention engagement (BCI engagement)</t>
   </si>
   <si>
@@ -391,66 +373,36 @@
     <t>behaviour change intervention evaluation finding (BCI evaluation finding)</t>
   </si>
   <si>
-    <t xml:space="preserve">evaluation finding/process </t>
-  </si>
-  <si>
     <t>behaviour change intervention evaluation report (BCI evaluation report)</t>
   </si>
   <si>
-    <t xml:space="preserve">report (IAO)/generically dependent continuant </t>
-  </si>
-  <si>
     <t>behaviour change intervention evaluation study (BCI evaluation study)</t>
   </si>
   <si>
-    <t xml:space="preserve">intervention evaluation study/process </t>
-  </si>
-  <si>
     <t>behaviour change intervention evaluation study plan (BCI evaluation study plan)</t>
   </si>
   <si>
-    <t>plan (OBI)/generically dependent continuant</t>
-  </si>
-  <si>
     <t>behaviour change intervention evaluation study risk of bias or error (BCI study risk of bias or error)</t>
   </si>
   <si>
-    <t>information content entity (IAO)/generically dependent continuant</t>
-  </si>
-  <si>
     <t>behaviour change intervention mechanism of action (BCI mechanism of action)</t>
   </si>
   <si>
-    <t xml:space="preserve">process/process </t>
-  </si>
-  <si>
     <t>behaviour change intervention mode of delivery (BCI mode of delivery)</t>
   </si>
   <si>
     <t>behaviour change intervention outcome estimate (BCI outcome estimate)</t>
   </si>
   <si>
-    <t>behaviour change intervention evaluation finding/generically dependent continuant</t>
-  </si>
-  <si>
     <t>behaviour change intervention physical setting (BCI physical setting)</t>
   </si>
   <si>
-    <t>environmental system (ENVO)/continuant</t>
-  </si>
-  <si>
     <t>behaviour change intervention population (BCI population)</t>
   </si>
   <si>
-    <t xml:space="preserve">human population/object aggregate </t>
-  </si>
-  <si>
     <t>behaviour change intervention scenario report (BCI scenario report)</t>
   </si>
   <si>
-    <t>report (IAO)/generically dependent continuant</t>
-  </si>
-  <si>
     <t>behaviour change intervention scenario (BCI scenario)</t>
   </si>
   <si>
@@ -466,60 +418,33 @@
     <t>behaviour change intervention social setting (BCI social setting)</t>
   </si>
   <si>
-    <t>human population/continuant</t>
-  </si>
-  <si>
     <t>behaviour change intervention source (BCI source)</t>
   </si>
   <si>
-    <t xml:space="preserve">role/role </t>
-  </si>
-  <si>
     <t>behaviour change intervention study investigator (BCI study investigator)</t>
   </si>
   <si>
-    <t>role/role</t>
-  </si>
-  <si>
     <t>behaviour change intervention study sample (BCI study sample)</t>
   </si>
   <si>
-    <t>human population/object aggregate</t>
-  </si>
-  <si>
     <t>behaviour change intervention style of delivery (BCI style of delivery)</t>
   </si>
   <si>
     <t>behaviour change intervention tailoring (BCI tailoring)</t>
   </si>
   <si>
-    <t xml:space="preserve">process attribute/process </t>
-  </si>
-  <si>
     <t>behaviour change technique (BCT)</t>
   </si>
   <si>
-    <t xml:space="preserve">planned process (OBI)/process </t>
-  </si>
-  <si>
     <t>outcome behaviour</t>
   </si>
   <si>
-    <t xml:space="preserve">human behaviour/process </t>
-  </si>
-  <si>
     <t>population behaviour</t>
   </si>
   <si>
-    <t>process/process</t>
-  </si>
-  <si>
     <t>evaluation finding</t>
   </si>
   <si>
-    <t xml:space="preserve">data item (IAO)/continuant </t>
-  </si>
-  <si>
     <t>individual human behaviour</t>
   </si>
   <si>
@@ -529,9 +454,6 @@
     <t>intervention evaluation study</t>
   </si>
   <si>
-    <t xml:space="preserve">research study (SEPIO)/process </t>
-  </si>
-  <si>
     <t>intervention outcome</t>
   </si>
   <si>
@@ -547,9 +469,6 @@
     <t>process attribute</t>
   </si>
   <si>
-    <t>process profile/process profile</t>
-  </si>
-  <si>
     <t>intervention delivery</t>
   </si>
   <si>
@@ -559,9 +478,6 @@
     <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
   </si>
   <si>
-    <t>('indivdiual human behaviour' or 'population behaviour')</t>
-  </si>
-  <si>
     <t>Obsolete</t>
   </si>
   <si>
@@ -587,6 +503,51 @@
   </si>
   <si>
     <t>BCIO:046000</t>
+  </si>
+  <si>
+    <t>behaviour change intervention evaluation study</t>
+  </si>
+  <si>
+    <t>report (IAO)</t>
+  </si>
+  <si>
+    <t>object aggregate</t>
+  </si>
+  <si>
+    <t>BCI evaluation finding</t>
+  </si>
+  <si>
+    <t>plan (OBI)</t>
+  </si>
+  <si>
+    <t>information content entity (IAO)</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>behaviour change intervention evaluation finding</t>
+  </si>
+  <si>
+    <t>environmental system (ENVO)</t>
+  </si>
+  <si>
+    <t>planned process (OBI)</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>data item (IAO)</t>
+  </si>
+  <si>
+    <t>research study (SEPIO)</t>
+  </si>
+  <si>
+    <t>('individual human behaviour' or 'population behaviour')</t>
+  </si>
+  <si>
+    <t>process profile</t>
   </si>
 </sst>
 </file>
@@ -938,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -959,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -997,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -1015,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -1039,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -1053,7 +1014,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1063,13 +1024,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1087,13 +1048,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1109,13 +1070,13 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1133,13 +1094,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -1157,13 +1118,13 @@
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
@@ -1181,13 +1142,13 @@
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1203,13 +1164,13 @@
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
@@ -1227,13 +1188,13 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1249,13 +1210,13 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1271,13 +1232,13 @@
         <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1293,13 +1254,13 @@
         <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1315,13 +1276,13 @@
         <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1337,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -1361,13 +1322,13 @@
         <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1383,13 +1344,13 @@
         <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1405,13 +1366,13 @@
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1427,13 +1388,13 @@
         <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1449,13 +1410,13 @@
         <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1471,13 +1432,13 @@
         <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1495,13 +1456,13 @@
         <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>63</v>
@@ -1519,13 +1480,13 @@
         <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1541,13 +1502,13 @@
         <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>68</v>
@@ -1565,13 +1526,13 @@
         <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>71</v>
@@ -1589,13 +1550,13 @@
         <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1611,13 +1572,13 @@
         <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>76</v>
@@ -1635,13 +1596,13 @@
         <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>79</v>
@@ -1659,13 +1620,13 @@
         <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1681,13 +1642,13 @@
         <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1703,17 +1664,17 @@
         <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
@@ -1727,13 +1688,13 @@
         <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1748,19 +1709,19 @@
         <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
@@ -1774,13 +1735,13 @@
         <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>93</v>
@@ -1798,13 +1759,13 @@
         <v>94</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1820,13 +1781,13 @@
         <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>98</v>
@@ -1844,13 +1805,13 @@
         <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1866,13 +1827,13 @@
         <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1888,19 +1849,19 @@
         <v>103</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -1910,7 +1871,7 @@
         <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>106</v>
@@ -1929,37 +1890,40 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -39,7 +39,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
     <fill>
@@ -523,10 +523,14 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr"/>
@@ -559,10 +563,14 @@
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr"/>
@@ -631,10 +639,14 @@
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr"/>
@@ -663,10 +675,14 @@
       </c>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
@@ -699,10 +715,14 @@
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
@@ -735,10 +755,14 @@
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
@@ -771,10 +795,14 @@
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
@@ -803,10 +831,14 @@
       </c>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
@@ -839,10 +871,14 @@
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr"/>
@@ -871,10 +907,14 @@
       </c>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
@@ -903,10 +943,14 @@
       </c>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr"/>
@@ -935,10 +979,14 @@
       </c>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr"/>
@@ -969,12 +1017,12 @@
       <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; JH</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr"/>
@@ -1003,10 +1051,14 @@
       </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr"/>
@@ -1039,10 +1091,14 @@
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr"/>
@@ -1071,10 +1127,14 @@
       </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr"/>
@@ -1103,10 +1163,14 @@
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr"/>
@@ -1135,10 +1199,14 @@
       </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr"/>
@@ -1167,10 +1235,14 @@
       </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr"/>
@@ -1199,10 +1271,14 @@
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr"/>
@@ -1235,10 +1311,14 @@
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr"/>
@@ -1271,10 +1351,14 @@
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr"/>
@@ -1303,10 +1387,14 @@
       </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr"/>
@@ -1339,10 +1427,14 @@
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr"/>
@@ -1375,10 +1467,14 @@
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr"/>
@@ -1407,10 +1503,14 @@
       </c>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr"/>
@@ -1443,10 +1543,14 @@
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr"/>
@@ -1479,10 +1583,14 @@
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr"/>
@@ -1511,10 +1619,14 @@
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr"/>
@@ -1543,10 +1655,14 @@
       </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr"/>
@@ -1607,10 +1723,14 @@
       </c>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr"/>
@@ -1639,10 +1759,14 @@
       </c>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr"/>
@@ -1679,10 +1803,14 @@
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr"/>
@@ -1715,10 +1843,14 @@
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr"/>
@@ -1811,10 +1943,14 @@
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr"/>
@@ -1847,10 +1983,14 @@
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr"/>
@@ -1879,10 +2019,14 @@
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr"/>
@@ -1915,10 +2059,14 @@
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr"/>
@@ -1947,10 +2095,14 @@
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1597,60 +1597,60 @@
       <c r="J30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:033000</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change technique (BCT)</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>planned process (OBI)</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050311</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention temporal context (BCI temporal context)</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr"/>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:035000</t>
+          <t>BCIO:033000</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>evaluation finding</t>
+          <t>behaviour change technique (BCT)</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the output of an intervention evaluation study.</t>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>data item (IAO)</t>
+          <t>planned process (OBI)</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
@@ -1669,92 +1669,92 @@
       <c r="J32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:035000</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>evaluation finding</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is the output of an intervention evaluation study.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>data item (IAO)</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Individual human behaviour or population behaviour</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>('individual human behaviour' or 'population behaviour')</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr"/>
-      <c r="F33" s="4" t="inlineStr"/>
-      <c r="G33" s="4" t="inlineStr"/>
-      <c r="H33" s="4" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr"/>
+      <c r="F34" s="4" t="inlineStr"/>
+      <c r="G34" s="4" t="inlineStr"/>
+      <c r="H34" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr"/>
-      <c r="J33" s="4" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:041000</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>human population</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of people</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
+      <c r="I34" s="4" t="inlineStr"/>
+      <c r="J34" s="4" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
+          <t>BCIO:041000</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A process that is produced by a person.</t>
+          <t>An aggregate of people</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
@@ -1775,34 +1775,26 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A process that is produced by a person.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1819,30 +1811,34 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>planned process (OBI)</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr"/>
+          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1857,51 +1853,59 @@
       <c r="J37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:046000</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>intervention content</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037000</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>A planned process that has the aim of influencing an outcome.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>planned process (OBI)</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="3" t="inlineStr"/>
-      <c r="G38" s="3" t="inlineStr"/>
-      <c r="H38" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="I38" s="3" t="inlineStr"/>
-      <c r="J38" s="3" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:046000</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>A process by which intervention content is delivered.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -1921,67 +1925,59 @@
       <c r="J39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:038000</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>intervention evaluation study</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>research study (SEPIO)</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:045000</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>A process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>planned process (OBI)</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr"/>
+      <c r="G40" s="3" t="inlineStr"/>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr"/>
+      <c r="J40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention evaluation study</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
-        </is>
-      </c>
+          <t>research study (SEPIO)</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
@@ -1999,25 +1995,29 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>outcome behaviour</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Human behavior that is an intervention outcome.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr"/>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
@@ -2035,30 +2035,26 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>outcome behaviour</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>Human behavior that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+      <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -2075,26 +2071,30 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a process</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>process</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -2107,6 +2107,42 @@
       </c>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a process</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1599,7 +1599,7 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
+          <t>BCIO:047000</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
@@ -1633,60 +1633,60 @@
       <c r="J31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:033000</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change technique (BCT)</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>planned process (OBI)</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:047001</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention temporal context event</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention temporal context</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:035000</t>
+          <t>BCIO:033000</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>evaluation finding</t>
+          <t>behaviour change technique (BCT)</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the output of an intervention evaluation study.</t>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>data item (IAO)</t>
+          <t>planned process (OBI)</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -1705,92 +1705,92 @@
       <c r="J33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:035000</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>evaluation finding</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is the output of an intervention evaluation study.</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>data item (IAO)</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Individual human behaviour or population behaviour</t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>('individual human behaviour' or 'population behaviour')</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr"/>
-      <c r="F34" s="4" t="inlineStr"/>
-      <c r="G34" s="4" t="inlineStr"/>
-      <c r="H34" s="4" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr"/>
+      <c r="H35" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="I34" s="4" t="inlineStr"/>
-      <c r="J34" s="4" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:041000</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>human population</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of people</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
+      <c r="I35" s="4" t="inlineStr"/>
+      <c r="J35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
+          <t>BCIO:041000</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>A process that is produced by a person.</t>
+          <t>An aggregate of people</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr"/>
@@ -1811,34 +1811,26 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A process that is produced by a person.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1855,30 +1847,34 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>planned process (OBI)</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr"/>
+          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1893,51 +1889,59 @@
       <c r="J38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:046000</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>intervention content</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037000</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>A planned process that has the aim of influencing an outcome.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>planned process (OBI)</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
-      <c r="G39" s="3" t="inlineStr"/>
-      <c r="H39" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="I39" s="3" t="inlineStr"/>
-      <c r="J39" s="3" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:046000</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>A process by which intervention content is delivered.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1957,67 +1961,59 @@
       <c r="J40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:038000</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>intervention evaluation study</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>research study (SEPIO)</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:045000</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>A process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>planned process (OBI)</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr"/>
+      <c r="G41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="I41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention evaluation study</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
-        </is>
-      </c>
+          <t>research study (SEPIO)</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
@@ -2035,25 +2031,29 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>outcome behaviour</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Human behavior that is an intervention outcome.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr"/>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
@@ -2071,30 +2071,26 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>outcome behaviour</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>Human behavior that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+      <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -2111,26 +2107,30 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a process</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>process</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -2143,6 +2143,42 @@
       </c>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a process</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context event</t>
+          <t>behaviour change intervention temporal context event (BCI temporal context event)</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1564,12 +1564,12 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention tailoring (BCI tailoring)</t>
+          <t>behaviour change intervention tailoring</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI that relates to selection or modification of the BCI according to attributes of members of the BCI population or BCI context.</t>
+          <t>A process attribute of a behaviour change intervention or part of a behaviour change intervention in which the content or delivery of the intervention for a given member of the BCI population varies according to their characteristics or setting.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -1579,13 +1579,17 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>It includes static tailoring that is based on characteristics of a member of a BCI population or BCI context at a single point in time and dynamic tailoring that can change as a function of characteristics assessed at multiple time points.</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr"/>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>BCI tailoring</t>
+        </is>
+      </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -601,50 +595,50 @@
       <c r="L3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>BCIO:007000</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention content</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>BCI content</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr"/>
-      <c r="L4" s="3" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -1695,80 +1689,80 @@
       <c r="L30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>BCIO:047000</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context (BCI temporal context)</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr"/>
-      <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="4" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr"/>
+      <c r="G31" s="3" t="inlineStr"/>
+      <c r="H31" s="3" t="inlineStr"/>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="K31" s="4" t="inlineStr"/>
-      <c r="L31" s="4" t="inlineStr"/>
+      <c r="K31" s="3" t="inlineStr"/>
+      <c r="L31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>BCIO:047001</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context event (BCI temporal context event)</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr"/>
-      <c r="F32" s="4" t="inlineStr"/>
-      <c r="G32" s="4" t="inlineStr"/>
-      <c r="H32" s="4" t="inlineStr"/>
-      <c r="I32" s="4" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr"/>
+      <c r="H32" s="3" t="inlineStr"/>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="K32" s="4" t="inlineStr"/>
-      <c r="L32" s="4" t="inlineStr"/>
+      <c r="K32" s="3" t="inlineStr"/>
+      <c r="L32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -1847,38 +1841,38 @@
       <c r="L34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Individual human behaviour or population behaviour</t>
         </is>
       </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>('individual human behaviour' or 'population behaviour')</t>
         </is>
       </c>
-      <c r="E35" s="5" t="inlineStr"/>
-      <c r="F35" s="5" t="inlineStr"/>
-      <c r="G35" s="5" t="inlineStr"/>
-      <c r="H35" s="5" t="inlineStr"/>
-      <c r="I35" s="5" t="inlineStr"/>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr"/>
+      <c r="H35" s="4" t="inlineStr"/>
+      <c r="I35" s="4" t="inlineStr"/>
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="K35" s="5" t="inlineStr"/>
-      <c r="L35" s="5" t="inlineStr"/>
+      <c r="K35" s="4" t="inlineStr"/>
+      <c r="L35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2045,72 +2039,72 @@
       <c r="L39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>BCIO:046000</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>planned process (OBI)</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr"/>
-      <c r="F40" s="4" t="inlineStr"/>
-      <c r="G40" s="4" t="inlineStr"/>
-      <c r="H40" s="4" t="inlineStr"/>
-      <c r="I40" s="4" t="inlineStr"/>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr"/>
+      <c r="G40" s="3" t="inlineStr"/>
+      <c r="H40" s="3" t="inlineStr"/>
+      <c r="I40" s="3" t="inlineStr"/>
+      <c r="J40" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
+      <c r="K40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>BCIO:045000</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>A process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>planned process (OBI)</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="4" t="inlineStr"/>
-      <c r="G41" s="4" t="inlineStr"/>
-      <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="4" t="inlineStr"/>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr"/>
+      <c r="G41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="inlineStr"/>
+      <c r="I41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="K41" s="4" t="inlineStr"/>
-      <c r="L41" s="4" t="inlineStr"/>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -560,7 +566,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention comparison evaluation study (BCI comparison evaluation study)</t>
+          <t>behaviour change intervention comparison evaluation study</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -580,10 +586,14 @@
           <t>Comparison involves identifying differences between the entities in the scenarios.</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>BCI comparison evaluation study</t>
+        </is>
+      </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -648,7 +658,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention context (BCI context)</t>
+          <t>behaviour change intervention context</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -668,10 +678,14 @@
           <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCI context</t>
+        </is>
+      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -690,7 +704,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention delivery (BCI delivery)</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -706,10 +720,14 @@
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCI delivery</t>
+        </is>
+      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -728,7 +746,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention dose (BCI dose)</t>
+          <t>behaviour change intervention dose</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -748,10 +766,14 @@
           <t>This is a disjunctive class that is not currently fully defined because specific BCI content instances may vary in intensity and amount in different ways.</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCI dose</t>
+        </is>
+      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -770,7 +792,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention effect estimate (BCI effect estimate)</t>
+          <t>behaviour change intervention effect estimate</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -790,10 +812,14 @@
           <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCI effect estimate</t>
+        </is>
+      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -812,7 +838,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement (BCI engagement)</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -835,7 +861,7 @@
       <c r="H9" s="2" t="inlineStr"/>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -854,7 +880,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding (BCI evaluation finding)</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -873,7 +899,7 @@
       <c r="H10" s="2" t="inlineStr"/>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -892,7 +918,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation report (BCI evaluation report)</t>
+          <t>behaviour change intervention evaluation report</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -915,7 +941,7 @@
       <c r="H11" s="2" t="inlineStr"/>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -934,7 +960,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study (BCI evaluation study)</t>
+          <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -953,7 +979,7 @@
       <c r="H12" s="2" t="inlineStr"/>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -972,7 +998,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study plan (BCI evaluation study plan)</t>
+          <t>behaviour change intervention evaluation study plan</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -991,7 +1017,7 @@
       <c r="H13" s="2" t="inlineStr"/>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1010,7 +1036,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study risk of bias or error (BCI study risk of bias or error)</t>
+          <t>behaviour change intervention evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1029,7 +1055,7 @@
       <c r="H14" s="2" t="inlineStr"/>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1048,7 +1074,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mechanism of action (BCI mechanism of action)</t>
+          <t>behaviour change intervention mechanism of action</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1067,7 +1093,7 @@
       <c r="H15" s="2" t="inlineStr"/>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>PS; JH</t>
+          <t>PS; JH; RW</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1086,7 +1112,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery (BCI mode of delivery)</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1105,7 +1131,7 @@
       <c r="H16" s="2" t="inlineStr"/>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1124,7 +1150,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention outcome estimate (BCI outcome estimate)</t>
+          <t>behaviour change intervention outcome estimate</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1147,7 +1173,7 @@
       <c r="H17" s="2" t="inlineStr"/>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1166,7 +1192,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention physical setting (BCI physical setting)</t>
+          <t>behaviour change intervention physical setting</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1185,7 +1211,7 @@
       <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1204,7 +1230,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention population (BCI population)</t>
+          <t>behaviour change intervention population</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1223,7 +1249,7 @@
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1242,7 +1268,7 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario (BCI scenario)</t>
+          <t>behaviour change intervention scenario</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1261,7 +1287,7 @@
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -1280,7 +1306,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario plan (BCI scenario plan)</t>
+          <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1299,7 +1325,7 @@
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1318,7 +1344,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario report (BCI scenario report)</t>
+          <t>behaviour change intervention scenario report</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1337,7 +1363,7 @@
       <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -1356,7 +1382,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">behaviour change intervention schedule of delivery (BCI schedule of delivery) </t>
+          <t>behaviour change intervention schedule of delivery</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1379,7 +1405,7 @@
       <c r="H23" s="2" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1398,7 +1424,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention setting (BCI setting)</t>
+          <t>behaviour change intervention setting</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1421,7 +1447,7 @@
       <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -1440,7 +1466,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention social setting (BCI social setting)</t>
+          <t>behaviour change intervention social setting</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1459,7 +1485,7 @@
       <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -1478,7 +1504,7 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention source (BCI source)</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1501,7 +1527,7 @@
       <c r="H26" s="2" t="inlineStr"/>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -1520,7 +1546,7 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention study investigator (BCI study investigator)</t>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1543,7 +1569,7 @@
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -1562,7 +1588,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention study sample (BCI study sample)</t>
+          <t>behaviour change intervention study sample</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1581,7 +1607,7 @@
       <c r="H28" s="2" t="inlineStr"/>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -1600,7 +1626,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention style of delivery (BCI style of delivery)</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1623,7 +1649,7 @@
       <c r="H29" s="2" t="inlineStr"/>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -1696,7 +1722,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context (BCI temporal context)</t>
+          <t xml:space="preserve">behaviour change intervention temporal context </t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1715,7 +1741,7 @@
       <c r="H31" s="3" t="inlineStr"/>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1734,7 +1760,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context event (BCI temporal context event)</t>
+          <t>behaviour change intervention temporal context event</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1753,7 +1779,7 @@
       <c r="H32" s="3" t="inlineStr"/>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1772,7 +1798,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique (BCT)</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1791,7 +1817,7 @@
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -2039,72 +2065,80 @@
       <c r="L39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>BCIO:046000</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>planned process (OBI)</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="3" t="inlineStr"/>
-      <c r="G40" s="3" t="inlineStr"/>
-      <c r="H40" s="3" t="inlineStr"/>
-      <c r="I40" s="3" t="inlineStr"/>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr"/>
+      <c r="E40" s="5" t="inlineStr"/>
+      <c r="F40" s="5" t="inlineStr"/>
+      <c r="G40" s="5" t="inlineStr"/>
+      <c r="H40" s="5" t="inlineStr"/>
+      <c r="I40" s="5" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K40" s="5" t="inlineStr"/>
+      <c r="L40" s="5" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>BCIO:045000</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>A process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>planned process (OBI)</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="3" t="inlineStr"/>
-      <c r="G41" s="3" t="inlineStr"/>
-      <c r="H41" s="3" t="inlineStr"/>
-      <c r="I41" s="3" t="inlineStr"/>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr"/>
+      <c r="E41" s="5" t="inlineStr"/>
+      <c r="F41" s="5" t="inlineStr"/>
+      <c r="G41" s="5" t="inlineStr"/>
+      <c r="H41" s="5" t="inlineStr"/>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K41" s="5" t="inlineStr"/>
+      <c r="L41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -44,17 +44,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eee8aa"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="002f4f4f"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1746,7 +1740,7 @@
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="K31" s="3" t="inlineStr"/>
@@ -1784,7 +1778,7 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="K32" s="3" t="inlineStr"/>
@@ -2065,80 +2059,80 @@
       <c r="L39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>BCIO:046000</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>planned process (OBI)</t>
         </is>
       </c>
-      <c r="E40" s="5" t="inlineStr"/>
-      <c r="F40" s="5" t="inlineStr"/>
-      <c r="G40" s="5" t="inlineStr"/>
-      <c r="H40" s="5" t="inlineStr"/>
-      <c r="I40" s="5" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K40" s="5" t="inlineStr"/>
-      <c r="L40" s="5" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>BCIO:045000</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>A process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D41" s="5" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>planned process (OBI)</t>
         </is>
       </c>
-      <c r="E41" s="5" t="inlineStr"/>
-      <c r="F41" s="5" t="inlineStr"/>
-      <c r="G41" s="5" t="inlineStr"/>
-      <c r="H41" s="5" t="inlineStr"/>
-      <c r="I41" s="5" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J41" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K41" s="5" t="inlineStr"/>
-      <c r="L41" s="5" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1709,80 +1703,80 @@
       <c r="L30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>BCIO:047000</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">behaviour change intervention temporal context </t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="3" t="inlineStr"/>
-      <c r="G31" s="3" t="inlineStr"/>
-      <c r="H31" s="3" t="inlineStr"/>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K31" s="3" t="inlineStr"/>
-      <c r="L31" s="3" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>BCIO:047001</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context event</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="3" t="inlineStr"/>
-      <c r="G32" s="3" t="inlineStr"/>
-      <c r="H32" s="3" t="inlineStr"/>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K32" s="3" t="inlineStr"/>
-      <c r="L32" s="3" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -1861,38 +1855,38 @@
       <c r="L34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>Individual human behaviour or population behaviour</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>('individual human behaviour' or 'population behaviour')</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="4" t="inlineStr"/>
-      <c r="G35" s="4" t="inlineStr"/>
-      <c r="H35" s="4" t="inlineStr"/>
-      <c r="I35" s="4" t="inlineStr"/>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr"/>
+      <c r="G35" s="3" t="inlineStr"/>
+      <c r="H35" s="3" t="inlineStr"/>
+      <c r="I35" s="3" t="inlineStr"/>
+      <c r="J35" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="K35" s="4" t="inlineStr"/>
-      <c r="L35" s="4" t="inlineStr"/>
+      <c r="K35" s="3" t="inlineStr"/>
+      <c r="L35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">individual human activity/process </t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr"/>
@@ -916,7 +916,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>report (IAO)</t>
+          <t>report</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
@@ -996,7 +996,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>plan (OBI)</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>information content entity (IAO)</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>environmental system (ENVO)</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>planned process (OBI)</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>plan (OBI)</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>report (IAO)</t>
+          <t>report</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>planned process (OBI)</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>data item (IAO)</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
@@ -1843,7 +1843,7 @@
       <c r="H34" s="2" t="inlineStr"/>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>planned process (OBI)</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
@@ -2041,7 +2041,7 @@
       <c r="H39" s="2" t="inlineStr"/>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>planned process (OBI)</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>planned process (OBI)</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>research study (SEPIO)</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
@@ -2155,7 +2155,7 @@
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -846,7 +846,11 @@
           <t>Includes mental activities and behaviours.</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>BCI intervention engagement</t>
+        </is>
+      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -884,7 +888,11 @@
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>BCI evaluation finding</t>
+        </is>
+      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -926,7 +934,11 @@
           <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>BCI evaluation report</t>
+        </is>
+      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -964,7 +976,11 @@
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>BCI evaluation study</t>
+        </is>
+      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1002,7 +1018,11 @@
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>BCI evaluation study plan</t>
+        </is>
+      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1040,7 +1060,11 @@
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>BCI evaluation study risk of bias or error</t>
+        </is>
+      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1078,7 +1102,11 @@
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>BCI mechanism of action; MOA; BCI MOA</t>
+        </is>
+      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
           <t>PS; JH; RW</t>
@@ -1116,7 +1144,11 @@
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>BCI mode of delivery; BCI MOD; MOD</t>
+        </is>
+      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1158,7 +1190,11 @@
           <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>BCI outcome estimate</t>
+        </is>
+      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1196,7 +1232,11 @@
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>BCI physical setting</t>
+        </is>
+      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1234,7 +1274,11 @@
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>BCI population</t>
+        </is>
+      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1272,7 +1316,11 @@
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>BCI scenario</t>
+        </is>
+      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1310,7 +1358,11 @@
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>BCI scenario plan</t>
+        </is>
+      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1348,7 +1400,11 @@
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>BCI scenario report</t>
+        </is>
+      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1390,7 +1446,11 @@
           <t>Includes the start and end of the BCI and its parts.</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1432,7 +1492,11 @@
           <t>Includes as parts social setting and physical setting.</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>BCI setting</t>
+        </is>
+      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1470,7 +1534,11 @@
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>BCI social setting</t>
+        </is>
+      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1512,7 +1580,11 @@
           <t>This includes individual people, groups of people, and organisations.</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>BCI source</t>
+        </is>
+      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1554,7 +1626,11 @@
           <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>BCI study investigator</t>
+        </is>
+      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1592,7 +1668,11 @@
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>BCI study sample</t>
+        </is>
+      </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1634,7 +1714,11 @@
           <t>An example is cold and distant vs. warm and accepting.</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>BCI style of delivery</t>
+        </is>
+      </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1726,7 +1810,11 @@
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal context</t>
+        </is>
+      </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1764,7 +1852,11 @@
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal context event</t>
+        </is>
+      </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1802,7 +1894,11 @@
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -748,10 +748,14 @@
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
+        </is>
+      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>This is a disjunctive class that is not currently fully defined because specific BCI content instances may vary in intensity and amount in different ways.</t>
+          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,12 +30,17 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,1936 +509,1982 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
+          <t>BCIO:050315</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing human behaviour.</t>
+          <t>A process attribute whose bearer is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr"/>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour change intervention.</t>
+        </is>
+      </c>
       <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Involves use of products, services, activities, rules or environmental objects.</t>
-        </is>
-      </c>
+      <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>behaviour change intervention attribute</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:003000</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>An intervention that has the aim of influencing human behaviour.</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Involves use of products, services, activities, rules or environmental objects.</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>BCIO:016000</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention comparison evaluation study</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>Comparison involves identifying differences between the entities in the scenarios.</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>BCI comparison evaluation study</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>BCIO:007000</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention content</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>BCI content</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>BCIO:005000</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention context</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>BCIO:008000</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention delivery</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>BCIO:022000</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention dose</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>An attribute of BCI content that is its amount.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr"/>
+      <c r="L8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>BCIO:017000</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention effect estimate</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation finding</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr"/>
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>BCIO:013000</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr"/>
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>Includes mental activities and behaviours.</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>BCI intervention engagement</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr"/>
+      <c r="L10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>BCIO:023000</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>evaluation finding</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr"/>
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation finding</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr"/>
+      <c r="L11" s="3" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>BCIO:021000</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation report</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr"/>
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation report</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr"/>
+      <c r="L12" s="3" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>BCIO:018000</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>An intervention evaluation study of a BCI scenario.</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>intervention evaluation study</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr"/>
+      <c r="G13" s="3" t="inlineStr"/>
+      <c r="H13" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation study</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr"/>
+      <c r="L13" s="3" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>BCIO:024000</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study plan</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>A plan for a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr"/>
+      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation study plan</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr"/>
+      <c r="L14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>BCIO:020000</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr"/>
+      <c r="G15" s="3" t="inlineStr"/>
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
+      <c r="L15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>BCIO:006000</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention mechanism of action</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr"/>
+      <c r="H16" s="3" t="inlineStr">
         <is>
           <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>PS; JH; RW</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr"/>
+      <c r="L16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>BCIO:011000</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
+      <c r="G17" s="3" t="inlineStr"/>
+      <c r="H17" s="3" t="inlineStr">
         <is>
           <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>BCIO:025000</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention outcome estimate</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>A BCI evaluation finding that is about an outcome behaviour.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H18" s="3" t="inlineStr">
         <is>
           <t>BCI outcome estimate</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr"/>
+      <c r="L18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>BCIO:026000</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention physical setting</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr"/>
+      <c r="H19" s="3" t="inlineStr">
         <is>
           <t>BCI physical setting</t>
         </is>
       </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr"/>
+      <c r="L19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>BCIO:015000</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention population</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An aggregate of people who are exposed to a BCI. </t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr"/>
+      <c r="G20" s="3" t="inlineStr"/>
+      <c r="H20" s="3" t="inlineStr">
         <is>
           <t>BCI population</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
+      <c r="L20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>BCIO:001000</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention scenario</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>A process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr"/>
+      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>BCI scenario</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
+      <c r="L21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>BCIO:028000</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr"/>
+      <c r="H22" s="3" t="inlineStr">
         <is>
           <t>BCI scenario plan</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+      <c r="L22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>BCIO:027000</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention scenario report</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="inlineStr"/>
+      <c r="H23" s="3" t="inlineStr">
         <is>
           <t>BCI scenario report</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
+      <c r="L23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>BCIO:009000</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention schedule of delivery</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>An attribute of a BCI that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr">
         <is>
           <t>Includes the start and end of the BCI and its parts.</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="H24" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr"/>
+      <c r="L24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>BCIO:014000</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention setting</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr"/>
+      <c r="F25" s="3" t="inlineStr"/>
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>Includes as parts social setting and physical setting.</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="H25" s="3" t="inlineStr">
         <is>
           <t>BCI setting</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+      <c r="L25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>BCIO:029000</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention social setting</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr"/>
+      <c r="H26" s="3" t="inlineStr">
         <is>
           <t>BCI social setting</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>BCIO:010000</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention source</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr"/>
+      <c r="G27" s="3" t="inlineStr">
         <is>
           <t>This includes individual people, groups of people, and organisations.</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="H27" s="3" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
+      <c r="L27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>BCIO:030000</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention study investigator</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr"/>
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>BCI study investigator</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr"/>
+      <c r="L28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>BCIO:031000</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention study sample</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>A population whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr"/>
+      <c r="G29" s="3" t="inlineStr"/>
+      <c r="H29" s="3" t="inlineStr">
         <is>
           <t>BCI study sample</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr"/>
+      <c r="L29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>BCIO:044000</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>An attribute of BCI delivery that encompasses the characteristics of how BCI content is communicated.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr"/>
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>An example is cold and distant vs. warm and accepting.</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
+      <c r="H30" s="3" t="inlineStr">
         <is>
           <t>BCI style of delivery</t>
         </is>
       </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr"/>
+      <c r="L30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>BCIO:032000</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention tailoring</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>A process attribute of a behaviour change intervention or part of a behaviour change intervention in which the content or delivery of the intervention for a given member of the BCI population varies according to their characteristics or setting.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="G31" s="3" t="inlineStr">
         <is>
           <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
+      <c r="H31" s="3" t="inlineStr">
         <is>
           <t>BCI tailoring</t>
         </is>
       </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr"/>
+      <c r="L31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>BCIO:047000</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">behaviour change intervention temporal context </t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr"/>
+      <c r="H32" s="3" t="inlineStr">
         <is>
           <t>BCI temporal context</t>
         </is>
       </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr"/>
+      <c r="L32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>BCIO:047001</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context event</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" s="3" t="inlineStr"/>
+      <c r="H33" s="3" t="inlineStr">
         <is>
           <t>BCI temporal context event</t>
         </is>
       </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr"/>
+      <c r="L33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>BCIO:033000</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="inlineStr">
         <is>
           <t>BCT</t>
         </is>
       </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:035000</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>evaluation finding</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is the output of an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
+      <c r="L34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:035000</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour or population behaviour</t>
+          <t>A data item that is the output of an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>('individual human behaviour' or 'population behaviour')</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr"/>
       <c r="H35" s="3" t="inlineStr"/>
-      <c r="I35" s="3" t="inlineStr"/>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>Obsolete</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
       <c r="L35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Individual human behaviour or population behaviour</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>('individual human behaviour' or 'population behaviour')</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr"/>
+      <c r="G36" s="4" t="inlineStr"/>
+      <c r="H36" s="4" t="inlineStr"/>
+      <c r="I36" s="4" t="inlineStr"/>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K36" s="4" t="inlineStr"/>
+      <c r="L36" s="4" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>BCIO:041000</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>An aggregate of people</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr"/>
+      <c r="H37" s="3" t="inlineStr"/>
+      <c r="I37" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr"/>
+      <c r="L37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>BCIO:040000</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>A process that is produced by a person.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr"/>
+      <c r="F38" s="3" t="inlineStr"/>
+      <c r="G38" s="3" t="inlineStr"/>
+      <c r="H38" s="3" t="inlineStr"/>
+      <c r="I38" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>BCIO:036000</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
+      <c r="G39" s="3" t="inlineStr">
         <is>
           <t>Also referred to in definitions as human behaviour or just behaviour.</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
+      <c r="H39" s="3" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="I38" s="2" t="inlineStr">
+      <c r="I39" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>BCIO:037000</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr"/>
+      <c r="G40" s="3" t="inlineStr">
         <is>
           <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="H40" s="3" t="inlineStr"/>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>BCIO:046000</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr"/>
+      <c r="G41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="inlineStr"/>
+      <c r="I41" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>BCIO:045000</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>A process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr"/>
+      <c r="G42" s="3" t="inlineStr"/>
+      <c r="H42" s="3" t="inlineStr"/>
+      <c r="I42" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>BCIO:038000</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>intervention evaluation study</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="inlineStr"/>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>BCIO:039000</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>intervention outcome</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
         </is>
       </c>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr">
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>BCIO:002000</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>outcome behaviour</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>Human behavior that is an intervention outcome.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr"/>
+      <c r="H45" s="3" t="inlineStr"/>
+      <c r="I45" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K45" s="3" t="inlineStr"/>
+      <c r="L45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>BCIO:034000</t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>population behaviour</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr"/>
+      <c r="G46" s="3" t="inlineStr"/>
+      <c r="H46" s="3" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="I45" s="2" t="inlineStr">
+      <c r="I46" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr"/>
+      <c r="L46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>BCIO:043000</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>An attribute of a process.</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr">
         <is>
           <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr">
+      <c r="H47" s="3" t="inlineStr"/>
+      <c r="I47" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr"/>
+      <c r="L47" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,1938 +559,1972 @@
       <c r="L2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:003000</t>
-        </is>
-      </c>
+      <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>BCI selection criterion</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing human behaviour.</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr"/>
+          <t>A criterion that is a characteristics of some population or setting that is used to include them in the BCI population.</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>A criterion for selecting people for a BCI population.</t>
+        </is>
+      </c>
       <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>Involves use of products, services, activities, rules or environmental objects.</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>Published</t>
+          <t>Proposed</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:003000</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>An intervention that has the aim of influencing human behaviour.</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>Involves use of products, services, activities, rules or environmental objects.</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr"/>
+      <c r="L4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>BCIO:016000</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention comparison evaluation study</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Comparison involves identifying differences between the entities in the scenarios.</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>BCI comparison evaluation study</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr"/>
-      <c r="L4" s="3" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr"/>
+      <c r="L5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>BCIO:007000</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention content</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>BCI content</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr"/>
+      <c r="L6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>BCIO:005000</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention context</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr"/>
-      <c r="L6" s="3" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr"/>
+      <c r="L7" s="4" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>BCIO:008000</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention delivery</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr"/>
-      <c r="F7" s="3" t="inlineStr"/>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr"/>
-      <c r="L7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr"/>
+      <c r="L8" s="4" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>BCIO:022000</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention dose</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>An attribute of BCI content that is its amount.</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr"/>
-      <c r="L8" s="3" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr"/>
+      <c r="L9" s="4" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>BCIO:017000</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention effect estimate</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>BCI evaluation finding</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="3" t="inlineStr"/>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr"/>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr"/>
+      <c r="L10" s="4" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>BCIO:013000</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>Includes mental activities and behaviours.</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>BCI intervention engagement</t>
         </is>
       </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr"/>
-      <c r="L10" s="3" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>BCIO:023000</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>evaluation finding</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr"/>
+      <c r="G12" s="4" t="inlineStr"/>
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>BCI evaluation finding</t>
         </is>
       </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr"/>
-      <c r="L11" s="3" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr"/>
+      <c r="L12" s="4" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>BCIO:021000</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation report</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>BCI evaluation report</t>
         </is>
       </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr"/>
+      <c r="L13" s="4" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>BCIO:018000</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>An intervention evaluation study of a BCI scenario.</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>intervention evaluation study</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
+      <c r="G14" s="4" t="inlineStr"/>
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>BCI evaluation study</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr"/>
-      <c r="L13" s="3" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr"/>
+      <c r="L14" s="4" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>BCIO:024000</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study plan</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>A plan for a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>BCI evaluation study plan</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr"/>
-      <c r="L14" s="3" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>BCIO:020000</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr"/>
-      <c r="G15" s="3" t="inlineStr"/>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr"/>
-      <c r="L15" s="3" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>BCIO:006000</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention mechanism of action</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr"/>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr"/>
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="I17" s="4" t="inlineStr">
         <is>
           <t>PS; JH; RW</t>
         </is>
       </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr"/>
+      <c r="L17" s="4" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>BCIO:011000</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr"/>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr">
         <is>
           <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>BCIO:025000</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention outcome estimate</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>A BCI evaluation finding that is about an outcome behaviour.</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr"/>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>BCI outcome estimate</t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr"/>
-      <c r="L18" s="3" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>BCIO:026000</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention physical setting</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr">
         <is>
           <t>BCI physical setting</t>
         </is>
       </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="4" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>BCIO:015000</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention population</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An aggregate of people who are exposed to a BCI. </t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr"/>
-      <c r="G20" s="3" t="inlineStr"/>
-      <c r="H20" s="3" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>BCI population</t>
         </is>
       </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="inlineStr"/>
-      <c r="L20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>BCIO:001000</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention scenario</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>A process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr"/>
-      <c r="H21" s="3" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>BCI scenario</t>
         </is>
       </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr"/>
+      <c r="L22" s="4" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>BCIO:028000</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr"/>
-      <c r="G22" s="3" t="inlineStr"/>
-      <c r="H22" s="3" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr"/>
+      <c r="G23" s="4" t="inlineStr"/>
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>BCI scenario plan</t>
         </is>
       </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
-      <c r="L22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr"/>
+      <c r="L23" s="4" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>BCIO:027000</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention scenario report</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr"/>
-      <c r="G23" s="3" t="inlineStr"/>
-      <c r="H23" s="3" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr"/>
+      <c r="G24" s="4" t="inlineStr"/>
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>BCI scenario report</t>
         </is>
       </c>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K23" s="3" t="inlineStr"/>
-      <c r="L23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr"/>
+      <c r="L24" s="4" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>BCIO:009000</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention schedule of delivery</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>An attribute of a BCI that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>Includes the start and end of the BCI and its parts.</t>
         </is>
       </c>
-      <c r="H24" s="3" t="inlineStr">
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="inlineStr"/>
-      <c r="L24" s="3" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>BCIO:014000</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention setting</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr"/>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>Includes as parts social setting and physical setting.</t>
         </is>
       </c>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="H26" s="4" t="inlineStr">
         <is>
           <t>BCI setting</t>
         </is>
       </c>
-      <c r="I25" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="inlineStr"/>
-      <c r="L25" s="3" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr"/>
+      <c r="L26" s="4" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>BCIO:029000</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention social setting</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr"/>
-      <c r="F26" s="3" t="inlineStr"/>
-      <c r="G26" s="3" t="inlineStr"/>
-      <c r="H26" s="3" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="4" t="inlineStr"/>
+      <c r="H27" s="4" t="inlineStr">
         <is>
           <t>BCI social setting</t>
         </is>
       </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="inlineStr"/>
-      <c r="L26" s="3" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr"/>
+      <c r="L27" s="4" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>BCIO:010000</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention source</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr"/>
-      <c r="G27" s="3" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>This includes individual people, groups of people, and organisations.</t>
         </is>
       </c>
-      <c r="H27" s="3" t="inlineStr">
+      <c r="H28" s="4" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K27" s="3" t="inlineStr"/>
-      <c r="L27" s="3" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K28" s="4" t="inlineStr"/>
+      <c r="L28" s="4" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>BCIO:030000</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention study investigator</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="3" t="inlineStr"/>
-      <c r="G28" s="3" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
         </is>
       </c>
-      <c r="H28" s="3" t="inlineStr">
+      <c r="H29" s="4" t="inlineStr">
         <is>
           <t>BCI study investigator</t>
         </is>
       </c>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K28" s="3" t="inlineStr"/>
-      <c r="L28" s="3" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr"/>
+      <c r="L29" s="4" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>BCIO:031000</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention study sample</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>A population whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3" t="inlineStr"/>
-      <c r="G29" s="3" t="inlineStr"/>
-      <c r="H29" s="3" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
+      <c r="G30" s="4" t="inlineStr"/>
+      <c r="H30" s="4" t="inlineStr">
         <is>
           <t>BCI study sample</t>
         </is>
       </c>
-      <c r="I29" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K29" s="3" t="inlineStr"/>
-      <c r="L29" s="3" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K30" s="4" t="inlineStr"/>
+      <c r="L30" s="4" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>BCIO:044000</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>An attribute of BCI delivery that encompasses the characteristics of how BCI content is communicated.</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3" t="inlineStr"/>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>An example is cold and distant vs. warm and accepting.</t>
         </is>
       </c>
-      <c r="H30" s="3" t="inlineStr">
+      <c r="H31" s="4" t="inlineStr">
         <is>
           <t>BCI style of delivery</t>
         </is>
       </c>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K31" s="4" t="inlineStr"/>
+      <c r="L31" s="4" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>BCIO:032000</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention tailoring</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>A process attribute of a behaviour change intervention or part of a behaviour change intervention in which the content or delivery of the intervention for a given member of the BCI population varies according to their characteristics or setting.</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
         </is>
       </c>
-      <c r="G31" s="3" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
         </is>
       </c>
-      <c r="H31" s="3" t="inlineStr">
+      <c r="H32" s="4" t="inlineStr">
         <is>
           <t>BCI tailoring</t>
         </is>
       </c>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K31" s="3" t="inlineStr"/>
-      <c r="L31" s="3" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K32" s="4" t="inlineStr"/>
+      <c r="L32" s="4" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>BCIO:047000</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">behaviour change intervention temporal context </t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="3" t="inlineStr"/>
-      <c r="G32" s="3" t="inlineStr"/>
-      <c r="H32" s="3" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr"/>
+      <c r="G33" s="4" t="inlineStr"/>
+      <c r="H33" s="4" t="inlineStr">
         <is>
           <t>BCI temporal context</t>
         </is>
       </c>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K32" s="3" t="inlineStr"/>
-      <c r="L32" s="3" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr"/>
+      <c r="L33" s="4" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>BCIO:047001</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context event</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr"/>
-      <c r="H33" s="3" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr"/>
+      <c r="F34" s="4" t="inlineStr"/>
+      <c r="G34" s="4" t="inlineStr"/>
+      <c r="H34" s="4" t="inlineStr">
         <is>
           <t>BCI temporal context event</t>
         </is>
       </c>
-      <c r="I33" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K33" s="3" t="inlineStr"/>
-      <c r="L33" s="3" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr"/>
+      <c r="L34" s="4" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>BCIO:033000</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr"/>
+      <c r="H35" s="4" t="inlineStr">
         <is>
           <t>BCT</t>
         </is>
       </c>
-      <c r="I34" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr"/>
-      <c r="L34" s="3" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:035000</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>evaluation finding</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>A data item that is the output of an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="3" t="inlineStr"/>
-      <c r="G35" s="3" t="inlineStr"/>
-      <c r="H35" s="3" t="inlineStr"/>
-      <c r="I35" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr"/>
-      <c r="L35" s="3" t="inlineStr"/>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr"/>
+      <c r="L35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:035000</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Individual human behaviour or population behaviour</t>
+          <t>A data item that is the output of an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>('individual human behaviour' or 'population behaviour')</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr"/>
       <c r="F36" s="4" t="inlineStr"/>
       <c r="G36" s="4" t="inlineStr"/>
       <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="4" t="inlineStr"/>
+      <c r="I36" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>Obsolete</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr"/>
       <c r="L36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>Individual human behaviour or population behaviour</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>('individual human behaviour' or 'population behaviour')</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr"/>
+      <c r="F37" s="5" t="inlineStr"/>
+      <c r="G37" s="5" t="inlineStr"/>
+      <c r="H37" s="5" t="inlineStr"/>
+      <c r="I37" s="5" t="inlineStr"/>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr"/>
+      <c r="L37" s="5" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>BCIO:041000</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>An aggregate of people</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="3" t="inlineStr"/>
-      <c r="G37" s="3" t="inlineStr"/>
-      <c r="H37" s="3" t="inlineStr"/>
-      <c r="I37" s="3" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr"/>
+      <c r="I38" s="4" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="inlineStr"/>
-      <c r="L37" s="3" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr"/>
+      <c r="L38" s="4" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>BCIO:040000</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>A process that is produced by a person.</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="3" t="inlineStr"/>
-      <c r="G38" s="3" t="inlineStr"/>
-      <c r="H38" s="3" t="inlineStr"/>
-      <c r="I38" s="3" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr"/>
-      <c r="L38" s="3" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>BCIO:036000</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr">
         <is>
           <t>Also referred to in definitions as human behaviour or just behaviour.</t>
         </is>
       </c>
-      <c r="H39" s="3" t="inlineStr">
+      <c r="H40" s="4" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="I39" s="3" t="inlineStr">
+      <c r="I40" s="4" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K39" s="3" t="inlineStr"/>
-      <c r="L39" s="3" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>BCIO:037000</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="3" t="inlineStr"/>
-      <c r="G40" s="3" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
         </is>
       </c>
-      <c r="H40" s="3" t="inlineStr"/>
-      <c r="I40" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="H41" s="4" t="inlineStr"/>
+      <c r="I41" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr"/>
+      <c r="L41" s="4" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>BCIO:046000</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="3" t="inlineStr"/>
-      <c r="G41" s="3" t="inlineStr"/>
-      <c r="H41" s="3" t="inlineStr"/>
-      <c r="I41" s="3" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="4" t="inlineStr"/>
+      <c r="G42" s="4" t="inlineStr"/>
+      <c r="H42" s="4" t="inlineStr"/>
+      <c r="I42" s="4" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K42" s="4" t="inlineStr"/>
+      <c r="L42" s="4" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>BCIO:045000</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>A process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3" t="inlineStr"/>
-      <c r="G42" s="3" t="inlineStr"/>
-      <c r="H42" s="3" t="inlineStr"/>
-      <c r="I42" s="3" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr"/>
+      <c r="F43" s="4" t="inlineStr"/>
+      <c r="G43" s="4" t="inlineStr"/>
+      <c r="H43" s="4" t="inlineStr"/>
+      <c r="I43" s="4" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K43" s="4" t="inlineStr"/>
+      <c r="L43" s="4" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>BCIO:038000</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>intervention evaluation study</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="inlineStr"/>
-      <c r="I43" s="3" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
+      <c r="G44" s="4" t="inlineStr"/>
+      <c r="H44" s="4" t="inlineStr"/>
+      <c r="I44" s="4" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K44" s="4" t="inlineStr"/>
+      <c r="L44" s="4" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>BCIO:039000</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>intervention outcome</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
         </is>
       </c>
-      <c r="H44" s="3" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr">
+      <c r="H45" s="4" t="inlineStr"/>
+      <c r="I45" s="4" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K44" s="3" t="inlineStr"/>
-      <c r="L44" s="3" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr"/>
+      <c r="L45" s="4" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>BCIO:002000</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>outcome behaviour</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>Human behavior that is an intervention outcome.</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr"/>
-      <c r="H45" s="3" t="inlineStr"/>
-      <c r="I45" s="3" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr"/>
+      <c r="H46" s="4" t="inlineStr"/>
+      <c r="I46" s="4" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K45" s="3" t="inlineStr"/>
-      <c r="L45" s="3" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K46" s="4" t="inlineStr"/>
+      <c r="L46" s="4" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>BCIO:034000</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>population behaviour</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr"/>
-      <c r="H46" s="3" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr"/>
+      <c r="H47" s="4" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="I46" s="3" t="inlineStr">
+      <c r="I47" s="4" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K46" s="3" t="inlineStr"/>
-      <c r="L46" s="3" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K47" s="4" t="inlineStr"/>
+      <c r="L47" s="4" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>BCIO:043000</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>An attribute of a process.</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr">
         <is>
           <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
         </is>
       </c>
-      <c r="H47" s="3" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr">
+      <c r="H48" s="4" t="inlineStr"/>
+      <c r="I48" s="4" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K47" s="3" t="inlineStr"/>
-      <c r="L47" s="3" t="inlineStr"/>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K48" s="4" t="inlineStr"/>
+      <c r="L48" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -559,1972 +553,1980 @@
       <c r="L2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050316</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>BCI selection criterion</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>A criterion that is a characteristics of some population or setting that is used to include them in the BCI population.</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>criterion</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>A criterion for selecting people for a BCI population.</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>BCIO:003000</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>An intervention that has the aim of influencing human behaviour.</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>Involves use of products, services, activities, rules or environmental objects.</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>BCI</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="inlineStr"/>
-      <c r="L4" s="4" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>BCIO:016000</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention comparison evaluation study</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>Comparison involves identifying differences between the entities in the scenarios.</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>BCI comparison evaluation study</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="inlineStr"/>
-      <c r="L5" s="4" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>BCIO:007000</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention content</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>BCI content</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr"/>
-      <c r="L6" s="4" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>BCIO:005000</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention context</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr"/>
-      <c r="L7" s="4" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>BCIO:008000</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention delivery</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr"/>
-      <c r="G8" s="4" t="inlineStr"/>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr"/>
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="inlineStr"/>
-      <c r="L8" s="4" t="inlineStr"/>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr"/>
+      <c r="L8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>BCIO:022000</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention dose</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>An attribute of BCI content that is its amount.</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J9" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="4" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>BCIO:017000</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention effect estimate</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation finding</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr"/>
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K10" s="4" t="inlineStr"/>
-      <c r="L10" s="4" t="inlineStr"/>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr"/>
+      <c r="L10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>BCIO:013000</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>Includes mental activities and behaviours.</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>BCI intervention engagement</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr"/>
+      <c r="L11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>BCIO:023000</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>evaluation finding</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr"/>
-      <c r="F12" s="4" t="inlineStr"/>
-      <c r="G12" s="4" t="inlineStr"/>
-      <c r="H12" s="4" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr"/>
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr"/>
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation finding</t>
         </is>
       </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="inlineStr"/>
-      <c r="L12" s="4" t="inlineStr"/>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr"/>
+      <c r="L12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>BCIO:021000</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation report</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr"/>
-      <c r="F13" s="4" t="inlineStr"/>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr"/>
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="H13" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation report</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K13" s="4" t="inlineStr"/>
-      <c r="L13" s="4" t="inlineStr"/>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr"/>
+      <c r="L13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>BCIO:018000</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>An intervention evaluation study of a BCI scenario.</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>intervention evaluation study</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr"/>
-      <c r="F14" s="4" t="inlineStr"/>
-      <c r="G14" s="4" t="inlineStr"/>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr"/>
+      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation study</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K14" s="4" t="inlineStr"/>
-      <c r="L14" s="4" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr"/>
+      <c r="L14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>BCIO:024000</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study plan</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>A plan for a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr"/>
+      <c r="G15" s="3" t="inlineStr"/>
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation study plan</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
+      <c r="L15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>BCIO:020000</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr"/>
-      <c r="F16" s="4" t="inlineStr"/>
-      <c r="G16" s="4" t="inlineStr"/>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr"/>
+      <c r="H16" s="3" t="inlineStr">
         <is>
           <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="I16" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K16" s="4" t="inlineStr"/>
-      <c r="L16" s="4" t="inlineStr"/>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr"/>
+      <c r="L16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>BCIO:006000</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention mechanism of action</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
+      <c r="G17" s="3" t="inlineStr"/>
+      <c r="H17" s="3" t="inlineStr">
         <is>
           <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>PS; JH; RW</t>
         </is>
       </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K17" s="4" t="inlineStr"/>
-      <c r="L17" s="4" t="inlineStr"/>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>BCIO:011000</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr"/>
+      <c r="H18" s="3" t="inlineStr">
         <is>
           <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
-      <c r="I18" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K18" s="4" t="inlineStr"/>
-      <c r="L18" s="4" t="inlineStr"/>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr"/>
+      <c r="L18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>BCIO:025000</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention outcome estimate</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>A BCI evaluation finding that is about an outcome behaviour.</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="H19" s="3" t="inlineStr">
         <is>
           <t>BCI outcome estimate</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K19" s="4" t="inlineStr"/>
-      <c r="L19" s="4" t="inlineStr"/>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr"/>
+      <c r="L19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>BCIO:026000</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention physical setting</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
-      <c r="H20" s="4" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr"/>
+      <c r="G20" s="3" t="inlineStr"/>
+      <c r="H20" s="3" t="inlineStr">
         <is>
           <t>BCI physical setting</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K20" s="4" t="inlineStr"/>
-      <c r="L20" s="4" t="inlineStr"/>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
+      <c r="L20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>BCIO:015000</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention population</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An aggregate of people who are exposed to a BCI. </t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr"/>
+      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>BCI population</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr"/>
-      <c r="L21" s="4" t="inlineStr"/>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
+      <c r="L21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>BCIO:001000</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention scenario</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>A process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr"/>
-      <c r="F22" s="4" t="inlineStr"/>
-      <c r="G22" s="4" t="inlineStr"/>
-      <c r="H22" s="4" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr"/>
+      <c r="H22" s="3" t="inlineStr">
         <is>
           <t>BCI scenario</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr"/>
-      <c r="L22" s="4" t="inlineStr"/>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+      <c r="L22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>BCIO:028000</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr"/>
-      <c r="F23" s="4" t="inlineStr"/>
-      <c r="G23" s="4" t="inlineStr"/>
-      <c r="H23" s="4" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="inlineStr"/>
+      <c r="H23" s="3" t="inlineStr">
         <is>
           <t>BCI scenario plan</t>
         </is>
       </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr"/>
-      <c r="L23" s="4" t="inlineStr"/>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
+      <c r="L23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>BCIO:027000</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention scenario report</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr"/>
-      <c r="F24" s="4" t="inlineStr"/>
-      <c r="G24" s="4" t="inlineStr"/>
-      <c r="H24" s="4" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
+      <c r="H24" s="3" t="inlineStr">
         <is>
           <t>BCI scenario report</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr"/>
-      <c r="L24" s="4" t="inlineStr"/>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr"/>
+      <c r="L24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>BCIO:009000</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention schedule of delivery</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>An attribute of a BCI that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr"/>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr"/>
+      <c r="F25" s="3" t="inlineStr"/>
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>Includes the start and end of the BCI and its parts.</t>
         </is>
       </c>
-      <c r="H25" s="4" t="inlineStr">
+      <c r="H25" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr"/>
-      <c r="L25" s="4" t="inlineStr"/>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+      <c r="L25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>BCIO:014000</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention setting</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="4" t="inlineStr"/>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>Includes as parts social setting and physical setting.</t>
         </is>
       </c>
-      <c r="H26" s="4" t="inlineStr">
+      <c r="H26" s="3" t="inlineStr">
         <is>
           <t>BCI setting</t>
         </is>
       </c>
-      <c r="I26" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K26" s="4" t="inlineStr"/>
-      <c r="L26" s="4" t="inlineStr"/>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>BCIO:029000</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention social setting</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr"/>
-      <c r="F27" s="4" t="inlineStr"/>
-      <c r="G27" s="4" t="inlineStr"/>
-      <c r="H27" s="4" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr"/>
+      <c r="G27" s="3" t="inlineStr"/>
+      <c r="H27" s="3" t="inlineStr">
         <is>
           <t>BCI social setting</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K27" s="4" t="inlineStr"/>
-      <c r="L27" s="4" t="inlineStr"/>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
+      <c r="L27" s="3" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>BCIO:010000</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention source</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr"/>
-      <c r="F28" s="4" t="inlineStr"/>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr"/>
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>This includes individual people, groups of people, and organisations.</t>
         </is>
       </c>
-      <c r="H28" s="4" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="I28" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J28" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K28" s="4" t="inlineStr"/>
-      <c r="L28" s="4" t="inlineStr"/>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr"/>
+      <c r="L28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>BCIO:030000</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention study investigator</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr"/>
+      <c r="G29" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="H29" s="3" t="inlineStr">
         <is>
           <t>BCI study investigator</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K29" s="4" t="inlineStr"/>
-      <c r="L29" s="4" t="inlineStr"/>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr"/>
+      <c r="L29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>BCIO:031000</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention study sample</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>A population whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr"/>
-      <c r="F30" s="4" t="inlineStr"/>
-      <c r="G30" s="4" t="inlineStr"/>
-      <c r="H30" s="4" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr"/>
+      <c r="G30" s="3" t="inlineStr"/>
+      <c r="H30" s="3" t="inlineStr">
         <is>
           <t>BCI study sample</t>
         </is>
       </c>
-      <c r="I30" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K30" s="4" t="inlineStr"/>
-      <c r="L30" s="4" t="inlineStr"/>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr"/>
+      <c r="L30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>BCIO:044000</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>An attribute of BCI delivery that encompasses the characteristics of how BCI content is communicated.</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr"/>
+      <c r="G31" s="3" t="inlineStr">
         <is>
           <t>An example is cold and distant vs. warm and accepting.</t>
         </is>
       </c>
-      <c r="H31" s="4" t="inlineStr">
+      <c r="H31" s="3" t="inlineStr">
         <is>
           <t>BCI style of delivery</t>
         </is>
       </c>
-      <c r="I31" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J31" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K31" s="4" t="inlineStr"/>
-      <c r="L31" s="4" t="inlineStr"/>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr"/>
+      <c r="L31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>BCIO:032000</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention tailoring</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>A process attribute of a behaviour change intervention or part of a behaviour change intervention in which the content or delivery of the intervention for a given member of the BCI population varies according to their characteristics or setting.</t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="3" t="inlineStr">
         <is>
           <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
         </is>
       </c>
-      <c r="H32" s="4" t="inlineStr">
+      <c r="H32" s="3" t="inlineStr">
         <is>
           <t>BCI tailoring</t>
         </is>
       </c>
-      <c r="I32" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K32" s="4" t="inlineStr"/>
-      <c r="L32" s="4" t="inlineStr"/>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr"/>
+      <c r="L32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>BCIO:047000</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">behaviour change intervention temporal context </t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr"/>
-      <c r="F33" s="4" t="inlineStr"/>
-      <c r="G33" s="4" t="inlineStr"/>
-      <c r="H33" s="4" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" s="3" t="inlineStr"/>
+      <c r="H33" s="3" t="inlineStr">
         <is>
           <t>BCI temporal context</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J33" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K33" s="4" t="inlineStr"/>
-      <c r="L33" s="4" t="inlineStr"/>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr"/>
+      <c r="L33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>BCIO:047001</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context event</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr"/>
-      <c r="F34" s="4" t="inlineStr"/>
-      <c r="G34" s="4" t="inlineStr"/>
-      <c r="H34" s="4" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="inlineStr">
         <is>
           <t>BCI temporal context event</t>
         </is>
       </c>
-      <c r="I34" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J34" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr"/>
-      <c r="L34" s="4" t="inlineStr"/>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
+      <c r="L34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>BCIO:033000</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="4" t="inlineStr"/>
-      <c r="G35" s="4" t="inlineStr"/>
-      <c r="H35" s="4" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr"/>
+      <c r="G35" s="3" t="inlineStr"/>
+      <c r="H35" s="3" t="inlineStr">
         <is>
           <t>BCT</t>
         </is>
       </c>
-      <c r="I35" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr"/>
-      <c r="L35" s="4" t="inlineStr"/>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr"/>
+      <c r="L35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>BCIO:035000</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>evaluation finding</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>A data item that is the output of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D36" s="4" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr"/>
-      <c r="F36" s="4" t="inlineStr"/>
-      <c r="G36" s="4" t="inlineStr"/>
-      <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J36" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K36" s="4" t="inlineStr"/>
-      <c r="L36" s="4" t="inlineStr"/>
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr"/>
+      <c r="H36" s="3" t="inlineStr"/>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr"/>
+      <c r="L36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>Individual human behaviour or population behaviour</t>
         </is>
       </c>
-      <c r="D37" s="5" t="inlineStr">
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t>('individual human behaviour' or 'population behaviour')</t>
         </is>
       </c>
-      <c r="E37" s="5" t="inlineStr"/>
-      <c r="F37" s="5" t="inlineStr"/>
-      <c r="G37" s="5" t="inlineStr"/>
-      <c r="H37" s="5" t="inlineStr"/>
-      <c r="I37" s="5" t="inlineStr"/>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
+      <c r="G37" s="4" t="inlineStr"/>
+      <c r="H37" s="4" t="inlineStr"/>
+      <c r="I37" s="4" t="inlineStr"/>
+      <c r="J37" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="K37" s="5" t="inlineStr"/>
-      <c r="L37" s="5" t="inlineStr"/>
+      <c r="K37" s="4" t="inlineStr"/>
+      <c r="L37" s="4" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>BCIO:041000</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>An aggregate of people</t>
         </is>
       </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr"/>
-      <c r="F38" s="4" t="inlineStr"/>
-      <c r="G38" s="4" t="inlineStr"/>
-      <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="4" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr"/>
+      <c r="F38" s="3" t="inlineStr"/>
+      <c r="G38" s="3" t="inlineStr"/>
+      <c r="H38" s="3" t="inlineStr"/>
+      <c r="I38" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K38" s="4" t="inlineStr"/>
-      <c r="L38" s="4" t="inlineStr"/>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>BCIO:040000</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>A process that is produced by a person.</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr"/>
-      <c r="F39" s="4" t="inlineStr"/>
-      <c r="G39" s="4" t="inlineStr"/>
-      <c r="H39" s="4" t="inlineStr"/>
-      <c r="I39" s="4" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
+      <c r="G39" s="3" t="inlineStr"/>
+      <c r="H39" s="3" t="inlineStr"/>
+      <c r="I39" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr"/>
-      <c r="L39" s="4" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>BCIO:036000</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr"/>
-      <c r="F40" s="4" t="inlineStr"/>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr"/>
+      <c r="G40" s="3" t="inlineStr">
         <is>
           <t>Also referred to in definitions as human behaviour or just behaviour.</t>
         </is>
       </c>
-      <c r="H40" s="4" t="inlineStr">
+      <c r="H40" s="3" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="I40" s="4" t="inlineStr">
+      <c r="I40" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>BCIO:037000</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="4" t="inlineStr"/>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr"/>
+      <c r="G41" s="3" t="inlineStr">
         <is>
           <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
         </is>
       </c>
-      <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J41" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr"/>
-      <c r="L41" s="4" t="inlineStr"/>
+      <c r="H41" s="3" t="inlineStr"/>
+      <c r="I41" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>BCIO:046000</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr"/>
-      <c r="F42" s="4" t="inlineStr"/>
-      <c r="G42" s="4" t="inlineStr"/>
-      <c r="H42" s="4" t="inlineStr"/>
-      <c r="I42" s="4" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr"/>
+      <c r="G42" s="3" t="inlineStr"/>
+      <c r="H42" s="3" t="inlineStr"/>
+      <c r="I42" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J42" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K42" s="4" t="inlineStr"/>
-      <c r="L42" s="4" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>BCIO:045000</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>A process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr"/>
-      <c r="F43" s="4" t="inlineStr"/>
-      <c r="G43" s="4" t="inlineStr"/>
-      <c r="H43" s="4" t="inlineStr"/>
-      <c r="I43" s="4" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="inlineStr"/>
+      <c r="I43" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J43" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K43" s="4" t="inlineStr"/>
-      <c r="L43" s="4" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>BCIO:038000</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>intervention evaluation study</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
-      <c r="D44" s="4" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr"/>
-      <c r="F44" s="4" t="inlineStr"/>
-      <c r="G44" s="4" t="inlineStr"/>
-      <c r="H44" s="4" t="inlineStr"/>
-      <c r="I44" s="4" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="J44" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K44" s="4" t="inlineStr"/>
-      <c r="L44" s="4" t="inlineStr"/>
+      <c r="E44" s="3" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>BCIO:039000</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>intervention outcome</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr"/>
-      <c r="F45" s="4" t="inlineStr"/>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
         </is>
       </c>
-      <c r="H45" s="4" t="inlineStr"/>
-      <c r="I45" s="4" t="inlineStr">
+      <c r="H45" s="3" t="inlineStr"/>
+      <c r="I45" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J45" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K45" s="4" t="inlineStr"/>
-      <c r="L45" s="4" t="inlineStr"/>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K45" s="3" t="inlineStr"/>
+      <c r="L45" s="3" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>BCIO:002000</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>outcome behaviour</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>Human behavior that is an intervention outcome.</t>
         </is>
       </c>
-      <c r="D46" s="4" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr"/>
-      <c r="F46" s="4" t="inlineStr"/>
-      <c r="G46" s="4" t="inlineStr"/>
-      <c r="H46" s="4" t="inlineStr"/>
-      <c r="I46" s="4" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr"/>
+      <c r="G46" s="3" t="inlineStr"/>
+      <c r="H46" s="3" t="inlineStr"/>
+      <c r="I46" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J46" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K46" s="4" t="inlineStr"/>
-      <c r="L46" s="4" t="inlineStr"/>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr"/>
+      <c r="L46" s="3" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>BCIO:034000</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>population behaviour</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
-      <c r="D47" s="4" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr"/>
-      <c r="F47" s="4" t="inlineStr"/>
-      <c r="G47" s="4" t="inlineStr"/>
-      <c r="H47" s="4" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr"/>
+      <c r="H47" s="3" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="I47" s="4" t="inlineStr">
+      <c r="I47" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J47" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K47" s="4" t="inlineStr"/>
-      <c r="L47" s="4" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr"/>
+      <c r="L47" s="3" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>BCIO:043000</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>An attribute of a process.</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr"/>
-      <c r="G48" s="4" t="inlineStr">
+      <c r="F48" s="3" t="inlineStr"/>
+      <c r="G48" s="3" t="inlineStr">
         <is>
           <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
         </is>
       </c>
-      <c r="H48" s="4" t="inlineStr"/>
-      <c r="I48" s="4" t="inlineStr">
+      <c r="H48" s="3" t="inlineStr"/>
+      <c r="I48" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="K48" s="4" t="inlineStr"/>
-      <c r="L48" s="4" t="inlineStr"/>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="inlineStr"/>
+      <c r="L48" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\ontologies\Upper Level BCIO\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FD39D6-5B05-4B35-8725-3E59D8D58CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A4E304-EFCE-4674-8E8B-C2F0D5656E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1123,7 +1123,8 @@
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1407,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
@@ -1526,7 +1527,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="345" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
@@ -1644,7 +1645,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>79</v>
       </c>
@@ -1874,7 +1875,7 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>109</v>
       </c>
@@ -2132,7 +2133,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>142</v>
       </c>
@@ -2206,7 +2207,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>151</v>
       </c>
@@ -2244,7 +2245,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>157</v>
       </c>
@@ -2640,7 +2641,7 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>203</v>
       </c>
@@ -2678,7 +2679,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>207</v>
       </c>
@@ -2816,7 +2817,7 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>217</v>
       </c>
@@ -2922,7 +2923,7 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
     </row>
-    <row r="48" spans="1:20" ht="255" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>227</v>
       </c>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\ontologies\Upper Level BCIO\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A4E304-EFCE-4674-8E8B-C2F0D5656E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A24F496-79F2-4F42-9B37-6742958B3170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="243">
   <si>
     <t>ID</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>generally dependent continuant</t>
+  </si>
+  <si>
+    <t>Upper level</t>
   </si>
 </sst>
 </file>
@@ -1122,9 +1125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1290,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1306,7 +1309,9 @@
       <c r="H4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
         <v>30</v>
@@ -1327,7 +1332,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1346,7 +1351,9 @@
       <c r="H5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>38</v>
@@ -1367,7 +1374,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1386,7 +1393,9 @@
       <c r="H6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
         <v>45</v>
@@ -1426,7 +1435,9 @@
       <c r="H7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
         <v>51</v>
@@ -1466,7 +1477,9 @@
       <c r="H8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
         <v>56</v>
@@ -1485,7 +1498,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -1504,7 +1517,9 @@
       <c r="H9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
         <v>62</v>
@@ -1546,7 +1561,9 @@
       <c r="H10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
         <v>68</v>
@@ -1586,7 +1603,9 @@
       <c r="H11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
         <v>74</v>
@@ -1626,7 +1645,9 @@
       <c r="H12" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
         <v>66</v>
@@ -1664,7 +1685,9 @@
       <c r="H13" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
         <v>84</v>
@@ -1704,7 +1727,9 @@
       <c r="H14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
         <v>88</v>
@@ -1742,7 +1767,9 @@
       <c r="H15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
         <v>93</v>
@@ -1780,7 +1807,9 @@
       <c r="H16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
         <v>98</v>
@@ -1818,7 +1847,9 @@
       <c r="H17" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
         <v>103</v>
@@ -1856,7 +1887,9 @@
       <c r="H18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
         <v>108</v>
@@ -1894,7 +1927,9 @@
       <c r="H19" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
         <v>113</v>
@@ -1932,7 +1967,9 @@
         <v>117</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
         <v>118</v>
@@ -1968,7 +2005,9 @@
         <v>122</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
         <v>123</v>
@@ -2004,7 +2043,9 @@
         <v>127</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
         <v>128</v>
@@ -2040,7 +2081,9 @@
         <v>92</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
         <v>132</v>
@@ -2076,7 +2119,9 @@
         <v>82</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
         <v>136</v>
@@ -2112,7 +2157,9 @@
         <v>15</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
         <v>141</v>
@@ -2150,7 +2197,9 @@
         <v>49</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
         <v>146</v>
@@ -2188,7 +2237,9 @@
         <v>122</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
         <v>150</v>
@@ -2224,7 +2275,9 @@
         <v>154</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
         <v>156</v>
@@ -2262,7 +2315,9 @@
         <v>154</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
         <v>161</v>
@@ -2300,7 +2355,9 @@
         <v>122</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
         <v>165</v>
@@ -2336,7 +2393,9 @@
         <v>15</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
         <v>170</v>
@@ -2376,7 +2435,9 @@
         <v>15</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
         <v>177</v>
@@ -2416,7 +2477,9 @@
         <v>102</v>
       </c>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
         <v>181</v>
@@ -2452,7 +2515,9 @@
         <v>185</v>
       </c>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
         <v>186</v>
@@ -2488,7 +2553,9 @@
         <v>127</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
         <v>190</v>
@@ -2524,7 +2591,9 @@
         <v>193</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -2558,7 +2627,9 @@
         <v>197</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="I37" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -2590,7 +2661,9 @@
         <v>49</v>
       </c>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -2624,7 +2697,9 @@
         <v>102</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -2658,7 +2733,9 @@
         <v>72</v>
       </c>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
         <v>195</v>
@@ -2696,7 +2773,9 @@
         <v>127</v>
       </c>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -2732,7 +2811,9 @@
         <v>127</v>
       </c>
       <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -2766,7 +2847,9 @@
         <v>127</v>
       </c>
       <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2800,7 +2883,9 @@
         <v>216</v>
       </c>
       <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2834,7 +2919,9 @@
         <v>102</v>
       </c>
       <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="I45" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -2870,7 +2957,9 @@
         <v>195</v>
       </c>
       <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="I46" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -2904,7 +2993,9 @@
         <v>102</v>
       </c>
       <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="I47" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
         <v>195</v>
@@ -2942,7 +3033,9 @@
         <v>229</v>
       </c>
       <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="I48" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\ontologies\Upper Level BCIO\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A24F496-79F2-4F42-9B37-6742958B3170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD328F0-80B5-4A42-9772-CC937376162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="245">
   <si>
     <t>ID</t>
   </si>
@@ -718,9 +718,6 @@
     <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
   </si>
   <si>
-    <t>Logical defifnition</t>
-  </si>
-  <si>
     <t>Definition source</t>
   </si>
   <si>
@@ -749,6 +746,15 @@
   </si>
   <si>
     <t>Upper level</t>
+  </si>
+  <si>
+    <t>REL 'has process part'</t>
+  </si>
+  <si>
+    <t>behaviour change intervention content; behaviour change intervention engagement; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
+  </si>
+  <si>
+    <t>Logical definition</t>
   </si>
 </sst>
 </file>
@@ -767,6 +773,7 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1123,34 +1130,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="2" customWidth="1"/>
     <col min="5" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" style="2" customWidth="1"/>
-    <col min="8" max="10" width="27" style="2" customWidth="1"/>
-    <col min="11" max="12" width="22" style="2" customWidth="1"/>
-    <col min="13" max="13" width="34" style="2" customWidth="1"/>
-    <col min="14" max="14" width="60.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16" width="24.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="33.5" style="2" customWidth="1"/>
+    <col min="8" max="11" width="27" style="2" customWidth="1"/>
+    <col min="12" max="13" width="22" style="2" customWidth="1"/>
+    <col min="14" max="14" width="34" style="2" customWidth="1"/>
+    <col min="15" max="15" width="60.6640625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="24.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.83203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="19.5" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,55 +1171,58 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1235,24 +1245,25 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1281,16 +1292,17 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1310,29 +1322,32 @@
         <v>102</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1352,29 +1367,30 @@
         <v>102</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1394,29 +1410,30 @@
         <v>102</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
@@ -1436,29 +1453,30 @@
         <v>49</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -1478,27 +1496,28 @@
         <v>102</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -1518,31 +1537,32 @@
         <v>102</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
@@ -1562,29 +1582,30 @@
         <v>97</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
@@ -1604,29 +1625,30 @@
         <v>102</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>75</v>
       </c>
@@ -1643,30 +1665,31 @@
         <v>78</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>79</v>
       </c>
@@ -1683,32 +1706,33 @@
         <v>82</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>85</v>
       </c>
@@ -1728,27 +1752,28 @@
         <v>102</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="4"/>
+      <c r="S14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>89</v>
       </c>
@@ -1768,27 +1793,28 @@
         <v>97</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="4"/>
+      <c r="S15" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>94</v>
       </c>
@@ -1808,27 +1834,28 @@
         <v>97</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="4"/>
+      <c r="S16" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>99</v>
       </c>
@@ -1848,27 +1875,28 @@
         <v>102</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="4"/>
+      <c r="S17" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>105</v>
       </c>
@@ -1888,27 +1916,28 @@
         <v>102</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="4"/>
+      <c r="S18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>109</v>
       </c>
@@ -1925,32 +1954,33 @@
         <v>76</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" s="4"/>
+      <c r="S19" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>114</v>
       </c>
@@ -1968,27 +1998,28 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="4"/>
+      <c r="S20" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>119</v>
       </c>
@@ -2006,27 +2037,28 @@
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="4"/>
+      <c r="S21" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>124</v>
       </c>
@@ -2044,27 +2076,28 @@
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" s="4"/>
+      <c r="S22" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>129</v>
       </c>
@@ -2082,27 +2115,28 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="4"/>
+      <c r="S23" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T23" s="4"/>
-    </row>
-    <row r="24" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>133</v>
       </c>
@@ -2120,27 +2154,28 @@
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="4"/>
+      <c r="S24" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>137</v>
       </c>
@@ -2158,29 +2193,30 @@
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S25" s="4"/>
+      <c r="S25" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>142</v>
       </c>
@@ -2198,29 +2234,30 @@
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="4"/>
+      <c r="S26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T26" s="4"/>
-    </row>
-    <row r="27" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>147</v>
       </c>
@@ -2238,27 +2275,28 @@
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S27" s="4"/>
+      <c r="S27" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>151</v>
       </c>
@@ -2276,29 +2314,30 @@
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J28" s="4"/>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S28" s="4"/>
+      <c r="S28" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T28" s="4"/>
-    </row>
-    <row r="29" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>157</v>
       </c>
@@ -2316,29 +2355,30 @@
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="4"/>
+      <c r="O29" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S29" s="4"/>
+      <c r="S29" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>162</v>
       </c>
@@ -2356,27 +2396,28 @@
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30" s="4"/>
+      <c r="S30" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T30" s="4"/>
-    </row>
-    <row r="31" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>166</v>
       </c>
@@ -2394,29 +2435,30 @@
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="4"/>
+      <c r="O31" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S31" s="4"/>
+      <c r="S31" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T31" s="4"/>
-    </row>
-    <row r="32" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="1:21" ht="144" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>171</v>
       </c>
@@ -2436,31 +2478,32 @@
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S32" s="4"/>
+      <c r="S32" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>178</v>
       </c>
@@ -2478,27 +2521,28 @@
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S33" s="4"/>
+      <c r="S33" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>182</v>
       </c>
@@ -2516,27 +2560,28 @@
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34" s="4"/>
+      <c r="S34" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>187</v>
       </c>
@@ -2554,27 +2599,28 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S35" s="4"/>
+      <c r="S35" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T35" s="4"/>
-    </row>
-    <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>191</v>
       </c>
@@ -2592,7 +2638,7 @@
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -2601,16 +2647,17 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S36" s="4"/>
+      <c r="S36" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T36" s="4"/>
-    </row>
-    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>194</v>
       </c>
@@ -2628,9 +2675,9 @@
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>241</v>
+      </c>
+      <c r="J37" s="4"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -2638,13 +2685,14 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="5"/>
+      <c r="S37" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>199</v>
       </c>
@@ -2662,7 +2710,7 @@
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -2671,16 +2719,17 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S38" s="4"/>
+      <c r="S38" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T38" s="4"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>201</v>
       </c>
@@ -2698,7 +2747,7 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2707,16 +2756,17 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="4" t="s">
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="4"/>
+      <c r="S39" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T39" s="4"/>
-    </row>
-    <row r="40" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>203</v>
       </c>
@@ -2734,29 +2784,30 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="4" t="s">
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S40" s="4"/>
+      <c r="S40" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T40" s="4"/>
-    </row>
-    <row r="41" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>207</v>
       </c>
@@ -2774,27 +2825,28 @@
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="4" t="s">
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="4" t="s">
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S41" s="4"/>
+      <c r="S41" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T41" s="4"/>
-    </row>
-    <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>210</v>
       </c>
@@ -2812,7 +2864,7 @@
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2821,16 +2873,17 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S42" s="4"/>
+      <c r="S42" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T42" s="4"/>
-    </row>
-    <row r="43" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>212</v>
       </c>
@@ -2848,7 +2901,7 @@
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2857,16 +2910,17 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="4" t="s">
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S43" s="4"/>
+      <c r="S43" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T43" s="4"/>
-    </row>
-    <row r="44" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>214</v>
       </c>
@@ -2884,7 +2938,7 @@
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -2893,16 +2947,17 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S44" s="4"/>
+      <c r="S44" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T44" s="4"/>
-    </row>
-    <row r="45" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>217</v>
       </c>
@@ -2920,27 +2975,28 @@
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="4" t="s">
+      <c r="N45" s="4"/>
+      <c r="O45" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S45" s="4"/>
+      <c r="S45" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T45" s="4"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="4"/>
+    </row>
+    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>221</v>
       </c>
@@ -2958,7 +3014,7 @@
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -2967,16 +3023,17 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="4" t="s">
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S46" s="4"/>
+      <c r="S46" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>224</v>
       </c>
@@ -2994,27 +3051,28 @@
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J47" s="4"/>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="4"/>
+      <c r="L47" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="4" t="s">
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S47" s="4"/>
+      <c r="S47" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T47" s="4"/>
-    </row>
-    <row r="48" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>227</v>
       </c>
@@ -3034,25 +3092,26 @@
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="4" t="s">
+      <c r="N48" s="4"/>
+      <c r="O48" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="O48" s="4"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="4" t="s">
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S48" s="4"/>
+      <c r="S48" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD328F0-80B5-4A42-9772-CC937376162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695A2A1C-171F-534F-806D-207241298133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="247">
   <si>
     <t>ID</t>
   </si>
@@ -755,6 +755,12 @@
   </si>
   <si>
     <t>Logical definition</t>
+  </si>
+  <si>
+    <t>REL 'realises'</t>
+  </si>
+  <si>
+    <t>scenario plan</t>
   </si>
 </sst>
 </file>
@@ -1130,11 +1136,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1145,19 +1151,19 @@
     <col min="4" max="4" width="33.5" style="2" customWidth="1"/>
     <col min="5" max="6" width="27" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.5" style="2" customWidth="1"/>
-    <col min="8" max="11" width="27" style="2" customWidth="1"/>
-    <col min="12" max="13" width="22" style="2" customWidth="1"/>
-    <col min="14" max="14" width="34" style="2" customWidth="1"/>
-    <col min="15" max="15" width="60.6640625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="24.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="21.83203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="19.5" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="2"/>
+    <col min="8" max="12" width="27" style="2" customWidth="1"/>
+    <col min="13" max="14" width="22" style="2" customWidth="1"/>
+    <col min="15" max="15" width="34" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60.6640625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="24.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="21.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="20.1640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="19.5" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,40 +1195,43 @@
         <v>242</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1246,24 +1255,25 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1293,16 +1303,17 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" ht="112" x14ac:dyDescent="0.2">
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1327,27 +1338,30 @@
       <c r="J4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="4"/>
+      <c r="T4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1371,26 +1385,27 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="4"/>
+      <c r="T5" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1414,26 +1429,27 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="4"/>
+      <c r="T6" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
@@ -1457,26 +1473,27 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="4"/>
+      <c r="T7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -1500,24 +1517,25 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="4"/>
+      <c r="T8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -1541,28 +1559,29 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="4"/>
+      <c r="S9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" ht="112" x14ac:dyDescent="0.2">
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
@@ -1586,26 +1605,27 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="4"/>
+      <c r="S10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="4"/>
+      <c r="T10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
@@ -1629,26 +1649,27 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="4"/>
+      <c r="S11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="4"/>
+      <c r="T11" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>75</v>
       </c>
@@ -1672,24 +1693,25 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="4"/>
+      <c r="S12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="4"/>
+      <c r="T12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>79</v>
       </c>
@@ -1713,26 +1735,27 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="4"/>
+      <c r="S13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="4"/>
+      <c r="T13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>85</v>
       </c>
@@ -1756,24 +1779,25 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="4"/>
+      <c r="S14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="4"/>
+      <c r="T14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>89</v>
       </c>
@@ -1797,24 +1821,25 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="4"/>
+      <c r="S15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="4"/>
+      <c r="T15" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>94</v>
       </c>
@@ -1838,24 +1863,25 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="4"/>
+      <c r="S16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" s="4"/>
+      <c r="T16" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>99</v>
       </c>
@@ -1879,24 +1905,25 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="4"/>
+      <c r="S17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="S17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" s="4"/>
+      <c r="T17" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>105</v>
       </c>
@@ -1920,24 +1947,25 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="4"/>
+      <c r="S18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="4"/>
+      <c r="T18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>109</v>
       </c>
@@ -1961,26 +1989,27 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="4" t="s">
+      <c r="R19" s="4"/>
+      <c r="S19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="4"/>
+      <c r="T19" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U19" s="4"/>
-    </row>
-    <row r="20" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>114</v>
       </c>
@@ -2002,24 +2031,25 @@
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="4"/>
+      <c r="S20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="4"/>
+      <c r="T20" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>119</v>
       </c>
@@ -2041,24 +2071,25 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="4"/>
+      <c r="S21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="4"/>
+      <c r="T21" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>124</v>
       </c>
@@ -2080,24 +2111,25 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="4"/>
+      <c r="S22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" s="4"/>
+      <c r="T22" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>129</v>
       </c>
@@ -2119,24 +2151,25 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="4"/>
+      <c r="S23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="4"/>
+      <c r="T23" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>133</v>
       </c>
@@ -2158,24 +2191,25 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="4"/>
+      <c r="S24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T24" s="4"/>
+      <c r="T24" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>137</v>
       </c>
@@ -2197,26 +2231,27 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="M25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4" t="s">
+      <c r="R25" s="4"/>
+      <c r="S25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25" s="4"/>
+      <c r="T25" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>142</v>
       </c>
@@ -2238,26 +2273,27 @@
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="4"/>
+      <c r="P26" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4" t="s">
+      <c r="R26" s="4"/>
+      <c r="S26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T26" s="4"/>
+      <c r="T26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>147</v>
       </c>
@@ -2279,24 +2315,25 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4" t="s">
+      <c r="R27" s="4"/>
+      <c r="S27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27" s="4"/>
+      <c r="T27" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>151</v>
       </c>
@@ -2318,26 +2355,27 @@
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="4"/>
+      <c r="P28" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="4"/>
+      <c r="S28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28" s="4"/>
+      <c r="T28" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>157</v>
       </c>
@@ -2359,26 +2397,27 @@
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="4"/>
+      <c r="P29" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="4"/>
+      <c r="S29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T29" s="4"/>
+      <c r="T29" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>162</v>
       </c>
@@ -2400,24 +2439,25 @@
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4" t="s">
+      <c r="R30" s="4"/>
+      <c r="S30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T30" s="4"/>
+      <c r="T30" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>166</v>
       </c>
@@ -2439,26 +2479,27 @@
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="4"/>
+      <c r="P31" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="4" t="s">
+      <c r="R31" s="4"/>
+      <c r="S31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T31" s="4"/>
+      <c r="T31" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U31" s="4"/>
-    </row>
-    <row r="32" spans="1:21" ht="144" x14ac:dyDescent="0.2">
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="1:22" ht="144" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>171</v>
       </c>
@@ -2482,28 +2523,29 @@
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="4"/>
+      <c r="O32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="4" t="s">
+      <c r="R32" s="4"/>
+      <c r="S32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T32" s="4"/>
+      <c r="T32" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U32" s="4"/>
-    </row>
-    <row r="33" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>178</v>
       </c>
@@ -2525,24 +2567,25 @@
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-      <c r="R33" s="4" t="s">
+      <c r="R33" s="4"/>
+      <c r="S33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T33" s="4"/>
+      <c r="T33" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U33" s="4"/>
-    </row>
-    <row r="34" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V33" s="4"/>
+    </row>
+    <row r="34" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>182</v>
       </c>
@@ -2564,24 +2607,25 @@
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-      <c r="R34" s="4" t="s">
+      <c r="R34" s="4"/>
+      <c r="S34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T34" s="4"/>
+      <c r="T34" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U34" s="4"/>
-    </row>
-    <row r="35" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+      <c r="V34" s="4"/>
+    </row>
+    <row r="35" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>187</v>
       </c>
@@ -2603,24 +2647,25 @@
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="4" t="s">
+      <c r="R35" s="4"/>
+      <c r="S35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T35" s="4"/>
+      <c r="T35" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U35" s="4"/>
-    </row>
-    <row r="36" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V35" s="4"/>
+    </row>
+    <row r="36" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>191</v>
       </c>
@@ -2648,16 +2693,17 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
-      <c r="R36" s="4" t="s">
+      <c r="R36" s="4"/>
+      <c r="S36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T36" s="4"/>
+      <c r="T36" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U36" s="4"/>
-    </row>
-    <row r="37" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V36" s="4"/>
+    </row>
+    <row r="37" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>194</v>
       </c>
@@ -2678,7 +2724,7 @@
         <v>241</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="5"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -2686,13 +2732,14 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="5" t="s">
+      <c r="S37" s="5"/>
+      <c r="T37" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="T37" s="5"/>
       <c r="U37" s="5"/>
-    </row>
-    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V37" s="5"/>
+    </row>
+    <row r="38" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>199</v>
       </c>
@@ -2720,16 +2767,17 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="4" t="s">
+      <c r="R38" s="4"/>
+      <c r="S38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T38" s="4"/>
+      <c r="T38" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U38" s="4"/>
-    </row>
-    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>201</v>
       </c>
@@ -2757,16 +2805,17 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
-      <c r="R39" s="4" t="s">
+      <c r="R39" s="4"/>
+      <c r="S39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T39" s="4"/>
+      <c r="T39" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U39" s="4"/>
-    </row>
-    <row r="40" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V39" s="4"/>
+    </row>
+    <row r="40" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>203</v>
       </c>
@@ -2788,26 +2837,27 @@
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="4" t="s">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-      <c r="R40" s="4" t="s">
+      <c r="R40" s="4"/>
+      <c r="S40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T40" s="4"/>
+      <c r="T40" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U40" s="4"/>
-    </row>
-    <row r="41" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V40" s="4"/>
+    </row>
+    <row r="41" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>207</v>
       </c>
@@ -2832,21 +2882,22 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="4" t="s">
+      <c r="R41" s="4"/>
+      <c r="S41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T41" s="4"/>
+      <c r="T41" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U41" s="4"/>
-    </row>
-    <row r="42" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+      <c r="V41" s="4"/>
+    </row>
+    <row r="42" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>210</v>
       </c>
@@ -2874,16 +2925,17 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
-      <c r="R42" s="4" t="s">
+      <c r="R42" s="4"/>
+      <c r="S42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T42" s="4"/>
+      <c r="T42" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U42" s="4"/>
-    </row>
-    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V42" s="4"/>
+    </row>
+    <row r="43" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>212</v>
       </c>
@@ -2911,16 +2963,17 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="4" t="s">
+      <c r="R43" s="4"/>
+      <c r="S43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T43" s="4"/>
+      <c r="T43" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U43" s="4"/>
-    </row>
-    <row r="44" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V43" s="4"/>
+    </row>
+    <row r="44" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>214</v>
       </c>
@@ -2948,16 +3001,17 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="4" t="s">
+      <c r="R44" s="4"/>
+      <c r="S44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T44" s="4"/>
+      <c r="T44" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U44" s="4"/>
-    </row>
-    <row r="45" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+      <c r="V44" s="4"/>
+    </row>
+    <row r="45" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>217</v>
       </c>
@@ -2982,21 +3036,22 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
-      <c r="O45" s="4" t="s">
+      <c r="O45" s="4"/>
+      <c r="P45" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
-      <c r="R45" s="4" t="s">
+      <c r="R45" s="4"/>
+      <c r="S45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T45" s="4"/>
+      <c r="T45" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U45" s="4"/>
-    </row>
-    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>221</v>
       </c>
@@ -3024,16 +3079,17 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="4" t="s">
+      <c r="R46" s="4"/>
+      <c r="S46" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T46" s="4"/>
+      <c r="T46" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U46" s="4"/>
-    </row>
-    <row r="47" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="V46" s="4"/>
+    </row>
+    <row r="47" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>224</v>
       </c>
@@ -3055,24 +3111,25 @@
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
-      <c r="R47" s="4" t="s">
+      <c r="R47" s="4"/>
+      <c r="S47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T47" s="4"/>
+      <c r="T47" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U47" s="4"/>
-    </row>
-    <row r="48" spans="1:21" ht="80" x14ac:dyDescent="0.2">
+      <c r="V47" s="4"/>
+    </row>
+    <row r="48" spans="1:22" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>227</v>
       </c>
@@ -3099,19 +3156,20 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="4" t="s">
+      <c r="O48" s="4"/>
+      <c r="P48" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
-      <c r="R48" s="4" t="s">
+      <c r="R48" s="4"/>
+      <c r="S48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T48" s="4"/>
+      <c r="T48" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -601,8 +601,10 @@
       <c r="N2" s="2" t="inlineStr"/>
       <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr">
@@ -659,8 +661,10 @@
       <c r="N3" s="2" t="inlineStr"/>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="n">
-        <v>0</v>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr">
@@ -733,8 +737,10 @@
           <t>Involves use of products, services, activities, rules or environmental objects.</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="n">
-        <v>0</v>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R4" s="3" t="inlineStr"/>
       <c r="S4" s="3" t="inlineStr">
@@ -799,8 +805,10 @@
           <t>Comparison involves identifying differences between the entities in the scenarios.</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="n">
-        <v>0</v>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R5" s="3" t="inlineStr"/>
       <c r="S5" s="3" t="inlineStr">
@@ -865,8 +873,10 @@
           <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
         </is>
       </c>
-      <c r="Q6" s="3" t="n">
-        <v>0</v>
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R6" s="3" t="inlineStr"/>
       <c r="S6" s="3" t="inlineStr">
@@ -931,8 +941,10 @@
           <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="n">
-        <v>0</v>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R7" s="3" t="inlineStr"/>
       <c r="S7" s="3" t="inlineStr">
@@ -993,8 +1005,10 @@
       <c r="N8" s="3" t="inlineStr"/>
       <c r="O8" s="3" t="inlineStr"/>
       <c r="P8" s="3" t="inlineStr"/>
-      <c r="Q8" s="3" t="n">
-        <v>0</v>
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R8" s="3" t="inlineStr"/>
       <c r="S8" s="3" t="inlineStr">
@@ -1063,8 +1077,10 @@
           <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
         </is>
       </c>
-      <c r="Q9" s="3" t="n">
-        <v>0</v>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R9" s="3" t="inlineStr"/>
       <c r="S9" s="3" t="inlineStr">
@@ -1129,8 +1145,10 @@
           <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
         </is>
       </c>
-      <c r="Q10" s="3" t="n">
-        <v>0</v>
+      <c r="Q10" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R10" s="3" t="inlineStr"/>
       <c r="S10" s="3" t="inlineStr">
@@ -1185,7 +1203,7 @@
       <c r="L11" s="3" t="inlineStr"/>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t>BCI intervention engagement</t>
+          <t>BCI engagement</t>
         </is>
       </c>
       <c r="N11" s="3" t="inlineStr"/>
@@ -1195,8 +1213,10 @@
           <t>Includes mental activities and behaviours.</t>
         </is>
       </c>
-      <c r="Q11" s="3" t="n">
-        <v>0</v>
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R11" s="3" t="inlineStr"/>
       <c r="S11" s="3" t="inlineStr">
@@ -1257,8 +1277,10 @@
       <c r="N12" s="3" t="inlineStr"/>
       <c r="O12" s="3" t="inlineStr"/>
       <c r="P12" s="3" t="inlineStr"/>
-      <c r="Q12" s="3" t="n">
-        <v>0</v>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R12" s="3" t="inlineStr"/>
       <c r="S12" s="3" t="inlineStr">
@@ -1323,8 +1345,10 @@
           <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
         </is>
       </c>
-      <c r="Q13" s="3" t="n">
-        <v>0</v>
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R13" s="3" t="inlineStr"/>
       <c r="S13" s="3" t="inlineStr">
@@ -1385,8 +1409,10 @@
       <c r="N14" s="3" t="inlineStr"/>
       <c r="O14" s="3" t="inlineStr"/>
       <c r="P14" s="3" t="inlineStr"/>
-      <c r="Q14" s="3" t="n">
-        <v>0</v>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R14" s="3" t="inlineStr"/>
       <c r="S14" s="3" t="inlineStr">
@@ -1447,8 +1473,10 @@
       <c r="N15" s="3" t="inlineStr"/>
       <c r="O15" s="3" t="inlineStr"/>
       <c r="P15" s="3" t="inlineStr"/>
-      <c r="Q15" s="3" t="n">
-        <v>0</v>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R15" s="3" t="inlineStr"/>
       <c r="S15" s="3" t="inlineStr">
@@ -1509,8 +1537,10 @@
       <c r="N16" s="3" t="inlineStr"/>
       <c r="O16" s="3" t="inlineStr"/>
       <c r="P16" s="3" t="inlineStr"/>
-      <c r="Q16" s="3" t="n">
-        <v>0</v>
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R16" s="3" t="inlineStr"/>
       <c r="S16" s="3" t="inlineStr">
@@ -1571,8 +1601,10 @@
       <c r="N17" s="3" t="inlineStr"/>
       <c r="O17" s="3" t="inlineStr"/>
       <c r="P17" s="3" t="inlineStr"/>
-      <c r="Q17" s="3" t="n">
-        <v>0</v>
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R17" s="3" t="inlineStr"/>
       <c r="S17" s="3" t="inlineStr">
@@ -1633,8 +1665,10 @@
       <c r="N18" s="3" t="inlineStr"/>
       <c r="O18" s="3" t="inlineStr"/>
       <c r="P18" s="3" t="inlineStr"/>
-      <c r="Q18" s="3" t="n">
-        <v>0</v>
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R18" s="3" t="inlineStr"/>
       <c r="S18" s="3" t="inlineStr">
@@ -1699,8 +1733,10 @@
           <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
         </is>
       </c>
-      <c r="Q19" s="3" t="n">
-        <v>0</v>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R19" s="3" t="inlineStr"/>
       <c r="S19" s="3" t="inlineStr">
@@ -1757,8 +1793,10 @@
       <c r="N20" s="3" t="inlineStr"/>
       <c r="O20" s="3" t="inlineStr"/>
       <c r="P20" s="3" t="inlineStr"/>
-      <c r="Q20" s="3" t="n">
-        <v>0</v>
+      <c r="Q20" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R20" s="3" t="inlineStr"/>
       <c r="S20" s="3" t="inlineStr">
@@ -1815,8 +1853,10 @@
       <c r="N21" s="3" t="inlineStr"/>
       <c r="O21" s="3" t="inlineStr"/>
       <c r="P21" s="3" t="inlineStr"/>
-      <c r="Q21" s="3" t="n">
-        <v>0</v>
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R21" s="3" t="inlineStr"/>
       <c r="S21" s="3" t="inlineStr">
@@ -1873,8 +1913,10 @@
       <c r="N22" s="3" t="inlineStr"/>
       <c r="O22" s="3" t="inlineStr"/>
       <c r="P22" s="3" t="inlineStr"/>
-      <c r="Q22" s="3" t="n">
-        <v>0</v>
+      <c r="Q22" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R22" s="3" t="inlineStr"/>
       <c r="S22" s="3" t="inlineStr">
@@ -1931,8 +1973,10 @@
       <c r="N23" s="3" t="inlineStr"/>
       <c r="O23" s="3" t="inlineStr"/>
       <c r="P23" s="3" t="inlineStr"/>
-      <c r="Q23" s="3" t="n">
-        <v>0</v>
+      <c r="Q23" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R23" s="3" t="inlineStr"/>
       <c r="S23" s="3" t="inlineStr">
@@ -1989,8 +2033,10 @@
       <c r="N24" s="3" t="inlineStr"/>
       <c r="O24" s="3" t="inlineStr"/>
       <c r="P24" s="3" t="inlineStr"/>
-      <c r="Q24" s="3" t="n">
-        <v>0</v>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R24" s="3" t="inlineStr"/>
       <c r="S24" s="3" t="inlineStr">
@@ -2051,8 +2097,10 @@
           <t>Includes the start and end of the BCI and its parts.</t>
         </is>
       </c>
-      <c r="Q25" s="3" t="n">
-        <v>0</v>
+      <c r="Q25" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R25" s="3" t="inlineStr"/>
       <c r="S25" s="3" t="inlineStr">
@@ -2113,8 +2161,10 @@
           <t>Includes as parts social setting and physical setting.</t>
         </is>
       </c>
-      <c r="Q26" s="3" t="n">
-        <v>0</v>
+      <c r="Q26" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R26" s="3" t="inlineStr"/>
       <c r="S26" s="3" t="inlineStr">
@@ -2171,8 +2221,10 @@
       <c r="N27" s="3" t="inlineStr"/>
       <c r="O27" s="3" t="inlineStr"/>
       <c r="P27" s="3" t="inlineStr"/>
-      <c r="Q27" s="3" t="n">
-        <v>0</v>
+      <c r="Q27" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R27" s="3" t="inlineStr"/>
       <c r="S27" s="3" t="inlineStr">
@@ -2233,8 +2285,10 @@
           <t>This includes individual people, groups of people, and organisations.</t>
         </is>
       </c>
-      <c r="Q28" s="3" t="n">
-        <v>0</v>
+      <c r="Q28" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R28" s="3" t="inlineStr"/>
       <c r="S28" s="3" t="inlineStr">
@@ -2295,8 +2349,10 @@
           <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
         </is>
       </c>
-      <c r="Q29" s="3" t="n">
-        <v>0</v>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R29" s="3" t="inlineStr"/>
       <c r="S29" s="3" t="inlineStr">
@@ -2353,8 +2409,10 @@
       <c r="N30" s="3" t="inlineStr"/>
       <c r="O30" s="3" t="inlineStr"/>
       <c r="P30" s="3" t="inlineStr"/>
-      <c r="Q30" s="3" t="n">
-        <v>0</v>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R30" s="3" t="inlineStr"/>
       <c r="S30" s="3" t="inlineStr">
@@ -2415,8 +2473,10 @@
           <t>An example is cold and distant vs. warm and accepting.</t>
         </is>
       </c>
-      <c r="Q31" s="3" t="n">
-        <v>0</v>
+      <c r="Q31" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R31" s="3" t="inlineStr"/>
       <c r="S31" s="3" t="inlineStr">
@@ -2485,8 +2545,10 @@
           <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
         </is>
       </c>
-      <c r="Q32" s="3" t="n">
-        <v>0</v>
+      <c r="Q32" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R32" s="3" t="inlineStr"/>
       <c r="S32" s="3" t="inlineStr">
@@ -2543,8 +2605,10 @@
       <c r="N33" s="3" t="inlineStr"/>
       <c r="O33" s="3" t="inlineStr"/>
       <c r="P33" s="3" t="inlineStr"/>
-      <c r="Q33" s="3" t="n">
-        <v>0</v>
+      <c r="Q33" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R33" s="3" t="inlineStr"/>
       <c r="S33" s="3" t="inlineStr">
@@ -2601,8 +2665,10 @@
       <c r="N34" s="3" t="inlineStr"/>
       <c r="O34" s="3" t="inlineStr"/>
       <c r="P34" s="3" t="inlineStr"/>
-      <c r="Q34" s="3" t="n">
-        <v>0</v>
+      <c r="Q34" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R34" s="3" t="inlineStr"/>
       <c r="S34" s="3" t="inlineStr">
@@ -2659,8 +2725,10 @@
       <c r="N35" s="3" t="inlineStr"/>
       <c r="O35" s="3" t="inlineStr"/>
       <c r="P35" s="3" t="inlineStr"/>
-      <c r="Q35" s="3" t="n">
-        <v>0</v>
+      <c r="Q35" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R35" s="3" t="inlineStr"/>
       <c r="S35" s="3" t="inlineStr">
@@ -2713,8 +2781,10 @@
       <c r="N36" s="3" t="inlineStr"/>
       <c r="O36" s="3" t="inlineStr"/>
       <c r="P36" s="3" t="inlineStr"/>
-      <c r="Q36" s="3" t="n">
-        <v>0</v>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R36" s="3" t="inlineStr"/>
       <c r="S36" s="3" t="inlineStr">
@@ -2767,8 +2837,10 @@
       <c r="N37" s="4" t="inlineStr"/>
       <c r="O37" s="4" t="inlineStr"/>
       <c r="P37" s="4" t="inlineStr"/>
-      <c r="Q37" s="4" t="n">
-        <v>0</v>
+      <c r="Q37" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R37" s="4" t="inlineStr"/>
       <c r="S37" s="4" t="inlineStr"/>
@@ -2817,8 +2889,10 @@
       <c r="N38" s="3" t="inlineStr"/>
       <c r="O38" s="3" t="inlineStr"/>
       <c r="P38" s="3" t="inlineStr"/>
-      <c r="Q38" s="3" t="n">
-        <v>0</v>
+      <c r="Q38" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R38" s="3" t="inlineStr"/>
       <c r="S38" s="3" t="inlineStr">
@@ -2871,8 +2945,10 @@
       <c r="N39" s="3" t="inlineStr"/>
       <c r="O39" s="3" t="inlineStr"/>
       <c r="P39" s="3" t="inlineStr"/>
-      <c r="Q39" s="3" t="n">
-        <v>0</v>
+      <c r="Q39" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R39" s="3" t="inlineStr"/>
       <c r="S39" s="3" t="inlineStr">
@@ -2933,8 +3009,10 @@
           <t>Also referred to in definitions as human behaviour or just behaviour.</t>
         </is>
       </c>
-      <c r="Q40" s="3" t="n">
-        <v>0</v>
+      <c r="Q40" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R40" s="3" t="inlineStr"/>
       <c r="S40" s="3" t="inlineStr">
@@ -2991,8 +3069,10 @@
           <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
         </is>
       </c>
-      <c r="Q41" s="3" t="n">
-        <v>0</v>
+      <c r="Q41" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R41" s="3" t="inlineStr"/>
       <c r="S41" s="3" t="inlineStr">
@@ -3045,8 +3125,10 @@
       <c r="N42" s="3" t="inlineStr"/>
       <c r="O42" s="3" t="inlineStr"/>
       <c r="P42" s="3" t="inlineStr"/>
-      <c r="Q42" s="3" t="n">
-        <v>0</v>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R42" s="3" t="inlineStr"/>
       <c r="S42" s="3" t="inlineStr">
@@ -3099,8 +3181,10 @@
       <c r="N43" s="3" t="inlineStr"/>
       <c r="O43" s="3" t="inlineStr"/>
       <c r="P43" s="3" t="inlineStr"/>
-      <c r="Q43" s="3" t="n">
-        <v>0</v>
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R43" s="3" t="inlineStr"/>
       <c r="S43" s="3" t="inlineStr">
@@ -3153,8 +3237,10 @@
       <c r="N44" s="3" t="inlineStr"/>
       <c r="O44" s="3" t="inlineStr"/>
       <c r="P44" s="3" t="inlineStr"/>
-      <c r="Q44" s="3" t="n">
-        <v>0</v>
+      <c r="Q44" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R44" s="3" t="inlineStr"/>
       <c r="S44" s="3" t="inlineStr">
@@ -3211,8 +3297,10 @@
           <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
         </is>
       </c>
-      <c r="Q45" s="3" t="n">
-        <v>0</v>
+      <c r="Q45" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R45" s="3" t="inlineStr"/>
       <c r="S45" s="3" t="inlineStr">
@@ -3265,8 +3353,10 @@
       <c r="N46" s="3" t="inlineStr"/>
       <c r="O46" s="3" t="inlineStr"/>
       <c r="P46" s="3" t="inlineStr"/>
-      <c r="Q46" s="3" t="n">
-        <v>0</v>
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R46" s="3" t="inlineStr"/>
       <c r="S46" s="3" t="inlineStr">
@@ -3323,8 +3413,10 @@
       <c r="N47" s="3" t="inlineStr"/>
       <c r="O47" s="3" t="inlineStr"/>
       <c r="P47" s="3" t="inlineStr"/>
-      <c r="Q47" s="3" t="n">
-        <v>0</v>
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R47" s="3" t="inlineStr"/>
       <c r="S47" s="3" t="inlineStr">
@@ -3385,8 +3477,10 @@
           <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
         </is>
       </c>
-      <c r="Q48" s="3" t="n">
-        <v>0</v>
+      <c r="Q48" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R48" s="3" t="inlineStr"/>
       <c r="S48" s="3" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/Upper Level BCIO/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micas\OneDrive\Documentos\GitHub\ontologies\Upper Level BCIO\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93461DE8-5668-F84B-A7CB-75B15C2A6429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3C8E3D-7D34-4A57-9E07-3EA900A88676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8260" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="249">
   <si>
     <t>ID</t>
   </si>
@@ -1133,18 +1133,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="18.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1233,7 +1233,9 @@
       <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1256,7 +1258,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1277,7 +1279,9 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1298,7 +1302,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1348,7 +1352,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1394,7 +1398,7 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -1440,7 +1444,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
@@ -1486,7 +1490,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -1530,7 +1534,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
@@ -1578,7 +1582,7 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
@@ -1624,7 +1628,7 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
@@ -1670,7 +1674,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>89</v>
       </c>
@@ -1714,7 +1718,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
@@ -1760,7 +1764,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>101</v>
       </c>
@@ -1804,7 +1808,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>105</v>
       </c>
@@ -1848,7 +1852,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
@@ -1892,7 +1896,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>114</v>
       </c>
@@ -1936,7 +1940,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>119</v>
       </c>
@@ -1980,7 +1984,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>123</v>
       </c>
@@ -2026,7 +2030,7 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>128</v>
       </c>
@@ -2068,7 +2072,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>133</v>
       </c>
@@ -2110,7 +2114,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>137</v>
       </c>
@@ -2152,7 +2156,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>141</v>
       </c>
@@ -2194,7 +2198,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>145</v>
       </c>
@@ -2236,7 +2240,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>149</v>
       </c>
@@ -2280,7 +2284,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -2324,7 +2328,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>158</v>
       </c>
@@ -2366,7 +2370,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>162</v>
       </c>
@@ -2410,7 +2414,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>168</v>
       </c>
@@ -2454,7 +2458,7 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>173</v>
       </c>
@@ -2496,7 +2500,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>177</v>
       </c>
@@ -2540,7 +2544,7 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>181</v>
       </c>
@@ -2588,7 +2592,7 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>187</v>
       </c>
@@ -2630,7 +2634,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>191</v>
       </c>
@@ -2672,7 +2676,7 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>196</v>
       </c>
@@ -2714,7 +2718,7 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>200</v>
       </c>
@@ -2754,7 +2758,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>203</v>
       </c>
@@ -2792,7 +2796,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>208</v>
       </c>
@@ -2832,7 +2836,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>210</v>
       </c>
@@ -2872,7 +2876,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>212</v>
       </c>
@@ -2916,7 +2920,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>215</v>
       </c>
@@ -2958,7 +2962,7 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>218</v>
       </c>
@@ -2998,7 +3002,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>220</v>
       </c>
@@ -3038,7 +3042,7 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>221</v>
       </c>
@@ -3078,7 +3082,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>224</v>
       </c>
@@ -3120,7 +3124,7 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>228</v>
       </c>
@@ -3160,7 +3164,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>231</v>
       </c>
@@ -3202,7 +3206,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>234</v>
       </c>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -2753,7 +2753,11 @@
       <c r="V35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr"/>
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050415</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
           <t>communication process attribute</t>
@@ -2767,9 +2771,17 @@
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
-      <c r="G36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
       <c r="H36" s="3" t="inlineStr"/>
-      <c r="I36" s="3" t="inlineStr"/>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="J36" s="3" t="inlineStr"/>
       <c r="K36" s="3" t="inlineStr"/>
       <c r="L36" s="3" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -2755,7 +2755,7 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:044003</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
@@ -2789,7 +2789,9 @@
       <c r="N36" s="3" t="inlineStr"/>
       <c r="O36" s="3" t="inlineStr"/>
       <c r="P36" s="3" t="inlineStr"/>
-      <c r="Q36" s="3" t="inlineStr"/>
+      <c r="Q36" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="R36" s="3" t="inlineStr"/>
       <c r="S36" s="3" t="inlineStr">
         <is>
@@ -2841,7 +2843,9 @@
       <c r="N37" s="3" t="inlineStr"/>
       <c r="O37" s="3" t="inlineStr"/>
       <c r="P37" s="3" t="inlineStr"/>
-      <c r="Q37" s="3" t="inlineStr"/>
+      <c r="Q37" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="R37" s="3" t="inlineStr"/>
       <c r="S37" s="3" t="inlineStr">
         <is>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -627,7 +627,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050316</t>
+          <t>BCIO:050419</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -2789,8 +2789,10 @@
       <c r="N36" s="3" t="inlineStr"/>
       <c r="O36" s="3" t="inlineStr"/>
       <c r="P36" s="3" t="inlineStr"/>
-      <c r="Q36" s="3" t="n">
-        <v>0</v>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R36" s="3" t="inlineStr"/>
       <c r="S36" s="3" t="inlineStr">
@@ -2843,8 +2845,10 @@
       <c r="N37" s="3" t="inlineStr"/>
       <c r="O37" s="3" t="inlineStr"/>
       <c r="P37" s="3" t="inlineStr"/>
-      <c r="Q37" s="3" t="n">
-        <v>0</v>
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R37" s="3" t="inlineStr"/>
       <c r="S37" s="3" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E8203F-CB98-A14F-B039-9D477677CCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FF21C2-046B-3348-939B-29911F89B945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="254">
   <si>
     <t>ID</t>
   </si>
@@ -647,9 +660,6 @@
   </si>
   <si>
     <t>An attribute of a communication process</t>
-  </si>
-  <si>
-    <t>Proposed</t>
   </si>
   <si>
     <t>BCIO:044004</t>
@@ -1151,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1183,7 +1193,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -2766,20 +2776,20 @@
         <v>46</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2806,26 +2816,26 @@
         <v>46</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
@@ -2853,19 +2863,19 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
@@ -2884,20 +2894,20 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2931,13 +2941,13 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2971,19 +2981,19 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
@@ -2993,12 +3003,12 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>29</v>
@@ -3015,13 +3025,13 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -3040,7 +3050,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>29</v>
@@ -3057,13 +3067,13 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -3097,13 +3107,13 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -3137,19 +3147,19 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2" t="s">
@@ -3177,13 +3187,13 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -3202,7 +3212,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>29</v>
@@ -3219,19 +3229,19 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
@@ -3259,13 +3269,13 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -3281,7 +3291,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -3301,21 +3311,21 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -3328,7 +3338,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>29</v>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1689,17 +1689,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:025000</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention outcome estimate</t>
+          <t>behaviour change intervention outcome behaviour</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A BCI evaluation finding that is about an outcome behaviour.</t>
+          <t>Human behavior that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -1707,14 +1707,10 @@
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>information content entoty</t>
-        </is>
-      </c>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
@@ -1723,18 +1719,10 @@
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>BCI outcome estimate</t>
-        </is>
-      </c>
+      <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
-        </is>
-      </c>
+      <c r="P19" s="2" t="inlineStr"/>
       <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1743,7 +1731,7 @@
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; BG</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
@@ -1757,17 +1745,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026000</t>
+          <t>BCIO:025000</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention physical setting</t>
+          <t>behaviour change intervention outcome estimate</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A physical environment in which a BCI is delivered.</t>
+          <t>A BCI evaluation finding that is about an outcome behaviour.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1775,10 +1763,14 @@
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr"/>
+          <t>behaviour change intervention evaluation finding</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>information content entoty</t>
+        </is>
+      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
@@ -1789,12 +1781,16 @@
       <c r="L20" s="2" t="inlineStr"/>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>BCI physical setting</t>
+          <t>BCI outcome estimate</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
+        </is>
+      </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1817,17 +1813,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
+          <t>BCIO:026000</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention population</t>
+          <t>behaviour change intervention physical setting</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A human population who are exposed to a BCI. </t>
+          <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1835,7 +1831,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
@@ -1849,7 +1845,7 @@
       <c r="L21" s="2" t="inlineStr"/>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>BCI population</t>
+          <t>BCI physical setting</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr"/>
@@ -1877,17 +1873,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:001000</t>
+          <t>BCIO:015000</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario</t>
+          <t>behaviour change intervention population</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
+          <t xml:space="preserve">A human population who are exposed to a BCI. </t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1895,7 +1891,7 @@
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
@@ -1909,7 +1905,7 @@
       <c r="L22" s="2" t="inlineStr"/>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>BCI scenario</t>
+          <t>BCI population</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr"/>
@@ -1937,17 +1933,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:028000</t>
+          <t>BCIO:001000</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario plan</t>
+          <t>behaviour change intervention scenario</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A plan that is realized in a BCI scenario process.</t>
+          <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1955,7 +1951,7 @@
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
@@ -1969,7 +1965,7 @@
       <c r="L23" s="2" t="inlineStr"/>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>BCI scenario plan</t>
+          <t>BCI scenario</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr"/>
@@ -1997,17 +1993,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:027000</t>
+          <t>BCIO:028000</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario report</t>
+          <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A report that describes a BCI scenario.</t>
+          <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -2015,7 +2011,7 @@
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr"/>
@@ -2029,7 +2025,7 @@
       <c r="L24" s="2" t="inlineStr"/>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>BCI scenario report</t>
+          <t>BCI scenario plan</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr"/>
@@ -2057,17 +2053,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:009000</t>
+          <t>BCIO:027000</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention schedule of delivery</t>
+          <t>behaviour change intervention scenario report</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A BCI attribute that involves its temporal organisation.</t>
+          <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
@@ -2075,7 +2071,7 @@
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>report</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr"/>
@@ -2089,16 +2085,12 @@
       <c r="L25" s="2" t="inlineStr"/>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>BCI schedule of delivery</t>
+          <t>BCI scenario report</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr"/>
       <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>Includes the start and end of the BCI and its parts.</t>
-        </is>
-      </c>
+      <c r="P25" s="2" t="inlineStr"/>
       <c r="Q25" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2121,17 +2113,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:014000</t>
+          <t>BCIO:009000</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention setting</t>
+          <t>behaviour change intervention schedule of delivery</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
+          <t>A BCI attribute that involves its temporal organisation.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -2139,7 +2131,7 @@
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr"/>
@@ -2153,14 +2145,14 @@
       <c r="L26" s="2" t="inlineStr"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>BCI setting</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr"/>
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>Includes as parts social setting and physical setting.</t>
+          <t>Includes the start and end of the BCI and its parts.</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -2185,17 +2177,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:029000</t>
+          <t>BCIO:014000</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention social setting</t>
+          <t>behaviour change intervention setting</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of people with whom a BCI population interacts.</t>
+          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -2203,7 +2195,7 @@
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr"/>
@@ -2217,12 +2209,16 @@
       <c r="L27" s="2" t="inlineStr"/>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>BCI social setting</t>
+          <t>BCI setting</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr"/>
       <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>Includes as parts social setting and physical setting.</t>
+        </is>
+      </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2245,17 +2241,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
+          <t>BCIO:029000</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>behaviour change intervention social setting</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
+          <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -2263,7 +2259,7 @@
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr"/>
@@ -2277,16 +2273,12 @@
       <c r="L28" s="2" t="inlineStr"/>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>BCI source</t>
+          <t>BCI social setting</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr"/>
       <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>This includes individual people, groups of people, and organisations.</t>
-        </is>
-      </c>
+      <c r="P28" s="2" t="inlineStr"/>
       <c r="Q28" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2309,17 +2301,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:030000</t>
+          <t>BCIO:010000</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention study investigator</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -2341,14 +2333,14 @@
       <c r="L29" s="2" t="inlineStr"/>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>BCI study investigator</t>
+          <t>BCI source</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
+          <t>This includes individual people, groups of people, and organisations.</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -2373,17 +2365,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:031000</t>
+          <t>BCIO:030000</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention study sample</t>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A population whose behaviour is studied in a BCI evaluation study.</t>
+          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -2391,7 +2383,7 @@
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>role</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2405,12 +2397,16 @@
       <c r="L30" s="2" t="inlineStr"/>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>BCI study sample</t>
+          <t>BCI study investigator</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr"/>
       <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
+        </is>
+      </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2433,17 +2429,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:031000</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention style of delivery</t>
+          <t>behaviour change intervention study sample</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
+          <t>A population whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -2451,7 +2447,7 @@
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2465,16 +2461,12 @@
       <c r="L31" s="2" t="inlineStr"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>BCI style of delivery</t>
+          <t>BCI study sample</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr"/>
       <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr">
-        <is>
-          <t>An example is cold and distant vs. warm and accepting.</t>
-        </is>
-      </c>
+      <c r="P31" s="2" t="inlineStr"/>
       <c r="Q31" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2497,29 +2489,25 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:032000</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention tailoring</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A BCI attribute in which the content or delivery of a BCI for some member of the BCI population varies according to their characteristics or setting.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
-        </is>
-      </c>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr"/>
@@ -2533,18 +2521,14 @@
       <c r="L32" s="2" t="inlineStr"/>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>BCI tailoring</t>
+          <t>BCI style of delivery</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr">
-        <is>
-          <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
-        </is>
-      </c>
+      <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
+          <t>An example is cold and distant vs. warm and accepting.</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -2569,25 +2553,29 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:047000</t>
+          <t>BCIO:032000</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">behaviour change intervention temporal context </t>
+          <t>behaviour change intervention tailoring</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr"/>
+          <t>A BCI attribute in which the content or delivery of a BCI for some member of the BCI population varies according to their characteristics or setting.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
+        </is>
+      </c>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr"/>
@@ -2601,12 +2589,20 @@
       <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal context</t>
+          <t>BCI tailoring</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
+        </is>
+      </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2629,17 +2625,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:047001</t>
+          <t>BCIO:047000</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context event</t>
+          <t xml:space="preserve">behaviour change intervention temporal context </t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
+          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -2647,7 +2643,7 @@
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr"/>
@@ -2661,7 +2657,7 @@
       <c r="L34" s="2" t="inlineStr"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal context event</t>
+          <t>BCI temporal context</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr"/>
@@ -2689,17 +2685,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:033000</t>
+          <t>BCIO:047001</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>behaviour change intervention temporal context event</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -2707,7 +2703,7 @@
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>behaviour change intervention temporal context</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr"/>
@@ -2721,7 +2717,7 @@
       <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>BCT</t>
+          <t>BCI temporal context event</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr"/>
@@ -2749,17 +2745,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
+          <t>BCIO:033000</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a communication process</t>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -2767,7 +2763,7 @@
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr"/>
@@ -2779,7 +2775,11 @@
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
       <c r="N36" s="2" t="inlineStr"/>
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr"/>
@@ -2791,7 +2791,7 @@
       <c r="R36" s="2" t="inlineStr"/>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
@@ -2805,17 +2805,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:044003</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+          <t>An attribute of a communication process</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr"/>
@@ -2861,17 +2861,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:035000</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>evaluation finding</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the output of an intervention evaluation study.</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
@@ -2879,7 +2879,7 @@
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr"/>
@@ -2903,7 +2903,7 @@
       <c r="R38" s="2" t="inlineStr"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
@@ -2915,131 +2915,131 @@
       <c r="V38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:035000</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>evaluation finding</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is the output of an intervention evaluation study.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>Individual human behaviour or population behaviour</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr"/>
+      <c r="G40" s="3" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="H39" s="3" t="inlineStr"/>
-      <c r="I39" s="3" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J39" s="3" t="inlineStr"/>
-      <c r="K39" s="3" t="inlineStr"/>
-      <c r="L39" s="3" t="inlineStr"/>
-      <c r="M39" s="3" t="inlineStr"/>
-      <c r="N39" s="3" t="inlineStr"/>
-      <c r="O39" s="3" t="inlineStr"/>
-      <c r="P39" s="3" t="inlineStr"/>
-      <c r="Q39" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" s="3" t="inlineStr"/>
-      <c r="S39" s="3" t="inlineStr">
+      <c r="H40" s="3" t="inlineStr"/>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr"/>
+      <c r="K40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="inlineStr"/>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr"/>
+      <c r="O40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="inlineStr"/>
+      <c r="Q40" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr">
         <is>
           <t>BG</t>
         </is>
       </c>
-      <c r="T39" s="3" t="inlineStr">
+      <c r="T40" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U39" s="3" t="inlineStr"/>
-      <c r="V39" s="3" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:041000</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>human population</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of people</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr"/>
+      <c r="U40" s="3" t="inlineStr"/>
+      <c r="V40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
+          <t>BCIO:041000</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A process that is produced by a person.</t>
+          <t>An aggregate of people</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
@@ -3047,7 +3047,7 @@
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr"/>
@@ -3085,17 +3085,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A process that is produced by a person.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -3103,7 +3103,7 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr"/>
@@ -3115,18 +3115,10 @@
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+      <c r="M42" s="2" t="inlineStr"/>
       <c r="N42" s="2" t="inlineStr"/>
       <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr">
-        <is>
-          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
-        </is>
-      </c>
+      <c r="P42" s="2" t="inlineStr"/>
       <c r="Q42" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3149,17 +3141,17 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -3167,7 +3159,7 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr"/>
@@ -3179,12 +3171,16 @@
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="N43" s="2" t="inlineStr"/>
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
+          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -3195,7 +3191,7 @@
       <c r="R43" s="2" t="inlineStr"/>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
@@ -3209,17 +3205,17 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:046000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -3242,7 +3238,11 @@
       <c r="M44" s="2" t="inlineStr"/>
       <c r="N44" s="2" t="inlineStr"/>
       <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
+        </is>
+      </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3251,7 +3251,7 @@
       <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
@@ -3265,17 +3265,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:046000</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -3321,17 +3321,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>intervention evaluation study</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -3339,7 +3339,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -3363,7 +3363,7 @@
       <c r="R46" s="2" t="inlineStr"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
@@ -3377,17 +3377,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention evaluation study</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -3395,7 +3395,7 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -3410,11 +3410,7 @@
       <c r="M47" s="2" t="inlineStr"/>
       <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
-        </is>
-      </c>
+      <c r="P47" s="2" t="inlineStr"/>
       <c r="Q47" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3423,7 +3419,7 @@
       <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
@@ -3437,17 +3433,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>outcome behaviour</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Human behavior that is an intervention outcome.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -3455,7 +3451,7 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr"/>
@@ -3470,7 +3466,11 @@
       <c r="M48" s="2" t="inlineStr"/>
       <c r="N48" s="2" t="inlineStr"/>
       <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>0</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -723,7 +723,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>scenario plan</t>
+          <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr"/>
@@ -747,7 +747,7 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; BG</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1119,7 +1119,7 @@
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation finding</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       <c r="R10" s="2" t="inlineStr"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; BG</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -621,34 +621,30 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050419</t>
+          <t>BCIO:023000</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>BCI selection criterion</t>
+          <t>BCI evaluation finding</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>A criterion that is a characteristics of some population or setting that is used to include them in the BCI population.</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>A criterion for selecting people for a BCI population.</t>
-        </is>
-      </c>
+          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>information content entoty</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -659,7 +655,11 @@
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="inlineStr"/>
       <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>BCI evaluation finding</t>
+        </is>
+      </c>
       <c r="N3" s="2" t="inlineStr"/>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
@@ -671,7 +671,7 @@
       <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>JH; RW; BG</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -685,30 +685,34 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
+          <t>BCIO:050419</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>BCI selection criterion</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing human behaviour.</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr"/>
+          <t>A criterion that is a characteristics of some population or setting that is used to include them in the BCI population.</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>A criterion for selecting people for a BCI population.</t>
+        </is>
+      </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -716,29 +720,13 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention content; behaviour change intervention engagement; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention scenario plan</t>
-        </is>
-      </c>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
+      <c r="M4" s="2" t="inlineStr"/>
       <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>Involves use of products, services, activities, rules or environmental objects.</t>
-        </is>
-      </c>
+      <c r="P4" s="2" t="inlineStr"/>
       <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -747,7 +735,7 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>JH; BG</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
@@ -761,17 +749,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:016000</t>
+          <t>BCIO:003000</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention comparison evaluation study</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
+          <t>An intervention that has the aim of influencing human behaviour.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
@@ -779,7 +767,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -792,19 +780,27 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content; behaviour change intervention engagement; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario plan</t>
+        </is>
+      </c>
       <c r="L5" s="2" t="inlineStr"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>BCI comparison evaluation study</t>
+          <t>BCI</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
+          <t>Involves use of products, services, activities, rules or environmental objects.</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -815,7 +811,7 @@
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; BG</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -829,17 +825,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007000</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention content</t>
+          <t>behaviour change intervention comparison evaluation study</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>An intervention content that is part of a behaviour change intervention.</t>
+          <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
@@ -847,7 +843,7 @@
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -865,14 +861,14 @@
       <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>BCI content</t>
+          <t>BCI comparison evaluation study</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
+          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -883,7 +879,7 @@
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
@@ -897,17 +893,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:005000</t>
+          <t>BCIO:007000</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention context</t>
+          <t>behaviour change intervention content</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
+          <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
@@ -915,12 +911,12 @@
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -933,14 +929,14 @@
       <c r="L7" s="2" t="inlineStr"/>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI context</t>
+          <t>BCI content</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
+          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -951,7 +947,7 @@
       <c r="R7" s="2" t="inlineStr"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
@@ -965,17 +961,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:005000</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention delivery</t>
+          <t>behaviour change intervention context</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
@@ -983,12 +979,12 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1001,12 +997,16 @@
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI delivery</t>
+          <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
+        </is>
+      </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1029,17 +1029,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:022000</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention dose</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>A BCI content attribute that is its amount.</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
@@ -1047,7 +1047,7 @@
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1065,20 +1065,12 @@
       <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI dose</t>
+          <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
-        </is>
-      </c>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1101,17 +1093,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:017000</t>
+          <t>BCIO:022000</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention effect estimate</t>
+          <t>behaviour change intervention dose</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
+          <t>A BCI content attribute that is its amount.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
@@ -1119,12 +1111,12 @@
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1137,14 +1129,18 @@
       <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI effect estimate</t>
+          <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
+        </is>
+      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
+          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1155,7 +1151,7 @@
       <c r="R10" s="2" t="inlineStr"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; BG</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
@@ -1169,17 +1165,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013000</t>
+          <t>BCIO:017000</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement</t>
+          <t>behaviour change intervention effect estimate</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
+          <t xml:space="preserve">A BCI evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -1187,12 +1183,12 @@
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1205,14 +1201,14 @@
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>BCI engagement</t>
+          <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>Includes mental activities and behaviours.</t>
+          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1223,7 +1219,7 @@
       <c r="R11" s="2" t="inlineStr"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; BG</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
@@ -1237,17 +1233,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:023000</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
+          <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
@@ -1255,12 +1251,12 @@
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>evaluation finding</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>information content entoty</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1273,12 +1269,16 @@
       <c r="L12" s="2" t="inlineStr"/>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation finding</t>
+          <t>BCI engagement</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr"/>
       <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>Includes mental activities and behaviours.</t>
+        </is>
+      </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -621,30 +621,34 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:023000</t>
+          <t>BCIO:050419</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation finding</t>
+          <t>BCI selection criterion</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr"/>
+          <t>A criterion that is a characteristics of some population or setting that is used to include them in the BCI population.</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>A criterion for selecting people for a BCI population.</t>
+        </is>
+      </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>evaluation finding</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>information content entoty</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -655,11 +659,7 @@
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="inlineStr"/>
       <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>BCI evaluation finding</t>
-        </is>
-      </c>
+      <c r="M3" s="2" t="inlineStr"/>
       <c r="N3" s="2" t="inlineStr"/>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
@@ -671,7 +671,7 @@
       <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; BG</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -685,34 +685,30 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050419</t>
+          <t>BCIO:003000</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>BCI selection criterion</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>A criterion that is a characteristics of some population or setting that is used to include them in the BCI population.</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>A criterion for selecting people for a BCI population.</t>
-        </is>
-      </c>
+          <t>An intervention that has the aim of influencing human behaviour.</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -720,13 +716,29 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content; behaviour change intervention engagement; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario plan</t>
+        </is>
+      </c>
       <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
       <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>Involves use of products, services, activities, rules or environmental objects.</t>
+        </is>
+      </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -735,7 +747,7 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>JH; BG</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
@@ -749,17 +761,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>behaviour change intervention comparison evaluation study</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing human behaviour.</t>
+          <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
@@ -767,7 +779,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -780,27 +792,19 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention content; behaviour change intervention engagement; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention scenario plan</t>
-        </is>
-      </c>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>BCI comparison evaluation study</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>Involves use of products, services, activities, rules or environmental objects.</t>
+          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -811,7 +815,7 @@
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>JH; BG</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -825,17 +829,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:016000</t>
+          <t>BCIO:007000</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention comparison evaluation study</t>
+          <t>behaviour change intervention content</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
+          <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
@@ -843,7 +847,7 @@
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -861,14 +865,14 @@
       <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>BCI comparison evaluation study</t>
+          <t>BCI content</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
+          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -879,7 +883,7 @@
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
@@ -893,17 +897,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007000</t>
+          <t>BCIO:005000</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention content</t>
+          <t>behaviour change intervention context</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>An intervention content that is part of a behaviour change intervention.</t>
+          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
@@ -911,12 +915,12 @@
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -929,14 +933,14 @@
       <c r="L7" s="2" t="inlineStr"/>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>BCI content</t>
+          <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
+          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -947,7 +951,7 @@
       <c r="R7" s="2" t="inlineStr"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
@@ -961,17 +965,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:005000</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention context</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
@@ -979,12 +983,12 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -997,16 +1001,12 @@
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI context</t>
+          <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
-        </is>
-      </c>
+      <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1029,17 +1029,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:022000</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention delivery</t>
+          <t>behaviour change intervention dose</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+          <t>A BCI content attribute that is its amount.</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
@@ -1047,7 +1047,7 @@
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1065,12 +1065,20 @@
       <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI delivery</t>
+          <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
+        </is>
+      </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1093,17 +1101,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:022000</t>
+          <t>BCIO:017000</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention dose</t>
+          <t>behaviour change intervention effect estimate</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>A BCI content attribute that is its amount.</t>
+          <t xml:space="preserve">A BCI evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
@@ -1111,12 +1119,12 @@
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>BCI evaluation finding</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1129,18 +1137,14 @@
       <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI dose</t>
+          <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
-        </is>
-      </c>
+      <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
+          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1151,7 +1155,7 @@
       <c r="R10" s="2" t="inlineStr"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; BG</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
@@ -1165,17 +1169,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:017000</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention effect estimate</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
+          <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -1183,12 +1187,12 @@
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1201,14 +1205,14 @@
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI effect estimate</t>
+          <t>BCI engagement</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
+          <t>Includes mental activities and behaviours.</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1219,7 +1223,7 @@
       <c r="R11" s="2" t="inlineStr"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; BG</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
@@ -1233,17 +1237,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013000</t>
+          <t>BCIO:023000</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
+          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
@@ -1251,12 +1255,12 @@
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>information content entoty</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1269,16 +1273,12 @@
       <c r="L12" s="2" t="inlineStr"/>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>BCI engagement</t>
+          <t>BCI evaluation finding</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr"/>
       <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>Includes mental activities and behaviours.</t>
-        </is>
-      </c>
+      <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1287,7 +1287,7 @@
       <c r="R12" s="2" t="inlineStr"/>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; BG</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1111,7 +1111,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
+          <t xml:space="preserve">A behaviour change intervention evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation finding</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2973,17 +2979,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>high cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour or population behaviour</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr"/>
@@ -2991,13 +2997,13 @@
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H40" s="3" t="inlineStr"/>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr"/>
@@ -3005,277 +3011,273 @@
       <c r="L40" s="3" t="inlineStr"/>
       <c r="M40" s="3" t="inlineStr"/>
       <c r="N40" s="3" t="inlineStr"/>
-      <c r="O40" s="3" t="inlineStr"/>
+      <c r="O40" s="3" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="P40" s="3" t="inlineStr"/>
-      <c r="Q40" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q40" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="R40" s="3" t="inlineStr"/>
       <c r="S40" s="3" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="T40" s="3" t="inlineStr">
         <is>
-          <t>Obsolete</t>
+          <t>Proposed</t>
         </is>
       </c>
       <c r="U40" s="3" t="inlineStr"/>
       <c r="V40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:041000</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>human population</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of people</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T41" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr"/>
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050463</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>high emotional exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr"/>
+      <c r="E41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr"/>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="inlineStr"/>
+      <c r="I41" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="inlineStr"/>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P41" s="3" t="inlineStr"/>
+      <c r="Q41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" s="3" t="inlineStr"/>
+      <c r="S41" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T41" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U41" s="3" t="inlineStr"/>
+      <c r="V41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:040000</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>A process that is produced by a person.</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr"/>
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050464</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Mental exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr"/>
+      <c r="E42" s="3" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr"/>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr"/>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr"/>
+      <c r="K42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="inlineStr"/>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr"/>
+      <c r="O42" s="3" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P42" s="3" t="inlineStr"/>
+      <c r="Q42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T42" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U42" s="3" t="inlineStr"/>
+      <c r="V42" s="3" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050465</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>high physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>Physical exertion expended on a behaviour that is high</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr"/>
+      <c r="E43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr"/>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P43" s="3" t="inlineStr"/>
+      <c r="Q43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T43" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Individual human behaviour or population behaviour</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr"/>
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
+      <c r="G44" s="4" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr">
-        <is>
-          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
-        </is>
-      </c>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037000</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr"/>
+      <c r="H44" s="4" t="inlineStr"/>
+      <c r="I44" s="4" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr"/>
+      <c r="K44" s="4" t="inlineStr"/>
+      <c r="L44" s="4" t="inlineStr"/>
+      <c r="M44" s="4" t="inlineStr"/>
+      <c r="N44" s="4" t="inlineStr"/>
+      <c r="O44" s="4" t="inlineStr"/>
+      <c r="P44" s="4" t="inlineStr"/>
+      <c r="Q44" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R44" s="4" t="inlineStr"/>
+      <c r="S44" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="T44" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U44" s="4" t="inlineStr"/>
+      <c r="V44" s="4" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:046000</t>
+          <t>BCIO:041000</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
+          <t>An aggregate of people</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -3283,7 +3285,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -3307,7 +3309,7 @@
       <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
@@ -3321,17 +3323,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
+          <t>A process that is produced by a person.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -3339,7 +3341,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -3363,7 +3365,7 @@
       <c r="R46" s="2" t="inlineStr"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
@@ -3377,17 +3379,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>intervention evaluation study</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -3395,7 +3397,7 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -3407,10 +3409,18 @@
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+        </is>
+      </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3419,7 +3429,7 @@
       <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
@@ -3433,17 +3443,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -3451,7 +3461,7 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr"/>
@@ -3468,7 +3478,7 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -3479,7 +3489,7 @@
       <c r="R48" s="2" t="inlineStr"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
@@ -3493,17 +3503,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:046000</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -3511,7 +3521,7 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr"/>
@@ -3523,11 +3533,7 @@
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+      <c r="M49" s="2" t="inlineStr"/>
       <c r="N49" s="2" t="inlineStr"/>
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr"/>
@@ -3539,7 +3545,7 @@
       <c r="R49" s="2" t="inlineStr"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
@@ -3553,29 +3559,25 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>A process profile that is an attribute of a process.</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a process.</t>
-        </is>
-      </c>
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr"/>
@@ -3590,11 +3592,7 @@
       <c r="M50" s="2" t="inlineStr"/>
       <c r="N50" s="2" t="inlineStr"/>
       <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr">
-        <is>
-          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
-        </is>
-      </c>
+      <c r="P50" s="2" t="inlineStr"/>
       <c r="Q50" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3603,7 +3601,7 @@
       <c r="R50" s="2" t="inlineStr"/>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
@@ -3613,6 +3611,710 @@
       </c>
       <c r="U50" s="2" t="inlineStr"/>
       <c r="V50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:038000</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="inlineStr"/>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:039000</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>intervention outcome</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>A process that is influenced by an intervention.</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050466</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>low cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr"/>
+      <c r="E53" s="3" t="inlineStr"/>
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="inlineStr"/>
+      <c r="I53" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="inlineStr"/>
+      <c r="K53" s="3" t="inlineStr"/>
+      <c r="L53" s="3" t="inlineStr"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P53" s="3" t="inlineStr"/>
+      <c r="Q53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53" s="3" t="inlineStr"/>
+      <c r="S53" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T53" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U53" s="3" t="inlineStr"/>
+      <c r="V53" s="3" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050467</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>low emotional exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr"/>
+      <c r="E54" s="3" t="inlineStr"/>
+      <c r="F54" s="3" t="inlineStr"/>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr"/>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr"/>
+      <c r="K54" s="3" t="inlineStr"/>
+      <c r="L54" s="3" t="inlineStr"/>
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr"/>
+      <c r="O54" s="3" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P54" s="3" t="inlineStr"/>
+      <c r="Q54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54" s="3" t="inlineStr"/>
+      <c r="S54" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T54" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U54" s="3" t="inlineStr"/>
+      <c r="V54" s="3" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050468</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>low mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Mental exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr"/>
+      <c r="E55" s="3" t="inlineStr"/>
+      <c r="F55" s="3" t="inlineStr"/>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr"/>
+      <c r="I55" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J55" s="3" t="inlineStr"/>
+      <c r="K55" s="3" t="inlineStr"/>
+      <c r="L55" s="3" t="inlineStr"/>
+      <c r="M55" s="3" t="inlineStr"/>
+      <c r="N55" s="3" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P55" s="3" t="inlineStr"/>
+      <c r="Q55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R55" s="3" t="inlineStr"/>
+      <c r="S55" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T55" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U55" s="3" t="inlineStr"/>
+      <c r="V55" s="3" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050469</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>low physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>Physical exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr"/>
+      <c r="E56" s="3" t="inlineStr"/>
+      <c r="F56" s="3" t="inlineStr"/>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr"/>
+      <c r="I56" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J56" s="3" t="inlineStr"/>
+      <c r="K56" s="3" t="inlineStr"/>
+      <c r="L56" s="3" t="inlineStr"/>
+      <c r="M56" s="3" t="inlineStr"/>
+      <c r="N56" s="3" t="inlineStr"/>
+      <c r="O56" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+        </is>
+      </c>
+      <c r="P56" s="3" t="inlineStr"/>
+      <c r="Q56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56" s="3" t="inlineStr"/>
+      <c r="S56" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T56" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U56" s="3" t="inlineStr"/>
+      <c r="V56" s="3" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050470</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>moderate cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr"/>
+      <c r="E57" s="3" t="inlineStr"/>
+      <c r="F57" s="3" t="inlineStr"/>
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H57" s="3" t="inlineStr"/>
+      <c r="I57" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J57" s="3" t="inlineStr"/>
+      <c r="K57" s="3" t="inlineStr"/>
+      <c r="L57" s="3" t="inlineStr"/>
+      <c r="M57" s="3" t="inlineStr"/>
+      <c r="N57" s="3" t="inlineStr"/>
+      <c r="O57" s="3" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P57" s="3" t="inlineStr"/>
+      <c r="Q57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R57" s="3" t="inlineStr"/>
+      <c r="S57" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T57" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U57" s="3" t="inlineStr"/>
+      <c r="V57" s="3" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050471</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>moderate emotional exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr"/>
+      <c r="E58" s="3" t="inlineStr"/>
+      <c r="F58" s="3" t="inlineStr"/>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr"/>
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr"/>
+      <c r="K58" s="3" t="inlineStr"/>
+      <c r="L58" s="3" t="inlineStr"/>
+      <c r="M58" s="3" t="inlineStr"/>
+      <c r="N58" s="3" t="inlineStr"/>
+      <c r="O58" s="3" t="inlineStr">
+        <is>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P58" s="3" t="inlineStr"/>
+      <c r="Q58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R58" s="3" t="inlineStr"/>
+      <c r="S58" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T58" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U58" s="3" t="inlineStr"/>
+      <c r="V58" s="3" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050472</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>moderate mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr"/>
+      <c r="E59" s="3" t="inlineStr"/>
+      <c r="F59" s="3" t="inlineStr"/>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="inlineStr"/>
+      <c r="I59" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J59" s="3" t="inlineStr"/>
+      <c r="K59" s="3" t="inlineStr"/>
+      <c r="L59" s="3" t="inlineStr"/>
+      <c r="M59" s="3" t="inlineStr"/>
+      <c r="N59" s="3" t="inlineStr"/>
+      <c r="O59" s="3" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P59" s="3" t="inlineStr"/>
+      <c r="Q59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R59" s="3" t="inlineStr"/>
+      <c r="S59" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T59" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U59" s="3" t="inlineStr"/>
+      <c r="V59" s="3" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050473</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr"/>
+      <c r="E60" s="3" t="inlineStr"/>
+      <c r="F60" s="3" t="inlineStr"/>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr"/>
+      <c r="I60" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr"/>
+      <c r="K60" s="3" t="inlineStr"/>
+      <c r="L60" s="3" t="inlineStr"/>
+      <c r="M60" s="3" t="inlineStr"/>
+      <c r="N60" s="3" t="inlineStr"/>
+      <c r="O60" s="3" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P60" s="3" t="inlineStr"/>
+      <c r="Q60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T60" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U60" s="3" t="inlineStr"/>
+      <c r="V60" s="3" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:034000</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>population behaviour</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr"/>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="inlineStr"/>
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R61" s="2" t="inlineStr"/>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>A process profile that is an attribute of a process.</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a process.</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="inlineStr"/>
+      <c r="M62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="inlineStr"/>
+      <c r="O62" s="2" t="inlineStr"/>
+      <c r="P62" s="2" t="inlineStr">
+        <is>
+          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
+        </is>
+      </c>
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R62" s="2" t="inlineStr"/>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="T62" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U62" s="2" t="inlineStr"/>
+      <c r="V62" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -3017,8 +3017,10 @@
         </is>
       </c>
       <c r="P40" s="3" t="inlineStr"/>
-      <c r="Q40" s="3" t="b">
-        <v>1</v>
+      <c r="Q40" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R40" s="3" t="inlineStr"/>
       <c r="S40" s="3" t="inlineStr">
@@ -3042,7 +3044,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>high emotional exertion expended on a behaviour</t>
+          <t>high emotional management  exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -3075,8 +3077,10 @@
         </is>
       </c>
       <c r="P41" s="3" t="inlineStr"/>
-      <c r="Q41" s="3" t="b">
-        <v>1</v>
+      <c r="Q41" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R41" s="3" t="inlineStr"/>
       <c r="S41" s="3" t="inlineStr">
@@ -3133,8 +3137,10 @@
         </is>
       </c>
       <c r="P42" s="3" t="inlineStr"/>
-      <c r="Q42" s="3" t="b">
-        <v>1</v>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R42" s="3" t="inlineStr"/>
       <c r="S42" s="3" t="inlineStr">
@@ -3191,8 +3197,10 @@
         </is>
       </c>
       <c r="P43" s="3" t="inlineStr"/>
-      <c r="Q43" s="3" t="b">
-        <v>1</v>
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R43" s="3" t="inlineStr"/>
       <c r="S43" s="3" t="inlineStr">
@@ -3769,8 +3777,10 @@
         </is>
       </c>
       <c r="P53" s="3" t="inlineStr"/>
-      <c r="Q53" s="3" t="b">
-        <v>1</v>
+      <c r="Q53" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R53" s="3" t="inlineStr"/>
       <c r="S53" s="3" t="inlineStr">
@@ -3794,7 +3804,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>low emotional exertion expended on a behaviour</t>
+          <t>low emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -3827,8 +3837,10 @@
         </is>
       </c>
       <c r="P54" s="3" t="inlineStr"/>
-      <c r="Q54" s="3" t="b">
-        <v>1</v>
+      <c r="Q54" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R54" s="3" t="inlineStr"/>
       <c r="S54" s="3" t="inlineStr">
@@ -3885,8 +3897,10 @@
         </is>
       </c>
       <c r="P55" s="3" t="inlineStr"/>
-      <c r="Q55" s="3" t="b">
-        <v>1</v>
+      <c r="Q55" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R55" s="3" t="inlineStr"/>
       <c r="S55" s="3" t="inlineStr">
@@ -3943,8 +3957,10 @@
         </is>
       </c>
       <c r="P56" s="3" t="inlineStr"/>
-      <c r="Q56" s="3" t="b">
-        <v>1</v>
+      <c r="Q56" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R56" s="3" t="inlineStr"/>
       <c r="S56" s="3" t="inlineStr">
@@ -4001,8 +4017,10 @@
         </is>
       </c>
       <c r="P57" s="3" t="inlineStr"/>
-      <c r="Q57" s="3" t="b">
-        <v>1</v>
+      <c r="Q57" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R57" s="3" t="inlineStr"/>
       <c r="S57" s="3" t="inlineStr">
@@ -4026,7 +4044,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>moderate emotional exertion expended on a behaviour</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -4059,8 +4077,10 @@
         </is>
       </c>
       <c r="P58" s="3" t="inlineStr"/>
-      <c r="Q58" s="3" t="b">
-        <v>1</v>
+      <c r="Q58" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R58" s="3" t="inlineStr"/>
       <c r="S58" s="3" t="inlineStr">
@@ -4117,8 +4137,10 @@
         </is>
       </c>
       <c r="P59" s="3" t="inlineStr"/>
-      <c r="Q59" s="3" t="b">
-        <v>1</v>
+      <c r="Q59" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R59" s="3" t="inlineStr"/>
       <c r="S59" s="3" t="inlineStr">
@@ -4175,8 +4197,10 @@
         </is>
       </c>
       <c r="P60" s="3" t="inlineStr"/>
-      <c r="Q60" s="3" t="b">
-        <v>1</v>
+      <c r="Q60" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R60" s="3" t="inlineStr"/>
       <c r="S60" s="3" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3030,7 +3024,7 @@
       </c>
       <c r="T40" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U40" s="3" t="inlineStr"/>
@@ -3090,7 +3084,7 @@
       </c>
       <c r="T41" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr"/>
@@ -3150,7 +3144,7 @@
       </c>
       <c r="T42" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr"/>
@@ -3210,67 +3204,67 @@
       </c>
       <c r="T43" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U43" s="3" t="inlineStr"/>
       <c r="V43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>Individual human behaviour or population behaviour</t>
         </is>
       </c>
-      <c r="D44" s="4" t="inlineStr"/>
-      <c r="E44" s="4" t="inlineStr"/>
-      <c r="F44" s="4" t="inlineStr"/>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr"/>
+      <c r="E44" s="3" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="H44" s="4" t="inlineStr"/>
-      <c r="I44" s="4" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J44" s="4" t="inlineStr"/>
-      <c r="K44" s="4" t="inlineStr"/>
-      <c r="L44" s="4" t="inlineStr"/>
-      <c r="M44" s="4" t="inlineStr"/>
-      <c r="N44" s="4" t="inlineStr"/>
-      <c r="O44" s="4" t="inlineStr"/>
-      <c r="P44" s="4" t="inlineStr"/>
-      <c r="Q44" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" s="4" t="inlineStr"/>
-      <c r="S44" s="4" t="inlineStr">
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr"/>
+      <c r="Q44" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr">
         <is>
           <t>BG</t>
         </is>
       </c>
-      <c r="T44" s="4" t="inlineStr">
+      <c r="T44" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U44" s="4" t="inlineStr"/>
-      <c r="V44" s="4" t="inlineStr"/>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3790,7 +3784,7 @@
       </c>
       <c r="T53" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U53" s="3" t="inlineStr"/>
@@ -3850,7 +3844,7 @@
       </c>
       <c r="T54" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr"/>
@@ -3910,7 +3904,7 @@
       </c>
       <c r="T55" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr"/>
@@ -3970,7 +3964,7 @@
       </c>
       <c r="T56" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr"/>
@@ -4030,7 +4024,7 @@
       </c>
       <c r="T57" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U57" s="3" t="inlineStr"/>
@@ -4090,7 +4084,7 @@
       </c>
       <c r="T58" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr"/>
@@ -4150,7 +4144,7 @@
       </c>
       <c r="T59" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr"/>
@@ -4210,7 +4204,7 @@
       </c>
       <c r="T60" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3211,60 +3217,64 @@
       <c r="V43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>Individual human behaviour or population behaviour</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H44" s="3" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J44" s="3" t="inlineStr"/>
-      <c r="K44" s="3" t="inlineStr"/>
-      <c r="L44" s="3" t="inlineStr"/>
-      <c r="M44" s="3" t="inlineStr"/>
-      <c r="N44" s="3" t="inlineStr"/>
-      <c r="O44" s="3" t="inlineStr"/>
-      <c r="P44" s="3" t="inlineStr"/>
-      <c r="Q44" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="T44" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U44" s="3" t="inlineStr"/>
-      <c r="V44" s="3" t="inlineStr"/>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>A bodily process that is an individual human behaviour or a population behaviour.</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr"/>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Individual human behavior OR population behaviour </t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr"/>
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="H44" s="4" t="inlineStr"/>
+      <c r="I44" s="4" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr"/>
+      <c r="K44" s="4" t="inlineStr"/>
+      <c r="L44" s="4" t="inlineStr"/>
+      <c r="M44" s="4" t="inlineStr"/>
+      <c r="N44" s="4" t="inlineStr"/>
+      <c r="O44" s="4" t="inlineStr"/>
+      <c r="P44" s="4" t="inlineStr"/>
+      <c r="Q44" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R44" s="4" t="inlineStr"/>
+      <c r="S44" s="4" t="inlineStr">
+        <is>
+          <t>BG; PS</t>
+        </is>
+      </c>
+      <c r="T44" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="U44" s="4" t="inlineStr"/>
+      <c r="V44" s="4" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -3229,7 +3229,7 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>A bodily process that is an individual human behaviour or a population behaviour.</t>
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr"/>
@@ -3241,7 +3241,7 @@
       <c r="F44" s="4" t="inlineStr"/>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3217,64 +3211,64 @@
       <c r="V43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>A process that is an individual human behaviour or a population behaviour.</t>
         </is>
       </c>
-      <c r="D44" s="4" t="inlineStr"/>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Individual human behavior OR population behaviour </t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr"/>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H44" s="4" t="inlineStr"/>
-      <c r="I44" s="4" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J44" s="4" t="inlineStr"/>
-      <c r="K44" s="4" t="inlineStr"/>
-      <c r="L44" s="4" t="inlineStr"/>
-      <c r="M44" s="4" t="inlineStr"/>
-      <c r="N44" s="4" t="inlineStr"/>
-      <c r="O44" s="4" t="inlineStr"/>
-      <c r="P44" s="4" t="inlineStr"/>
-      <c r="Q44" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" s="4" t="inlineStr"/>
-      <c r="S44" s="4" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr"/>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr"/>
+      <c r="S44" s="2" t="inlineStr">
         <is>
           <t>BG; PS</t>
         </is>
       </c>
-      <c r="T44" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U44" s="4" t="inlineStr"/>
-      <c r="V44" s="4" t="inlineStr"/>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -3229,7 +3229,7 @@
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human behavior OR population behaviour </t>
+          <t>"individual human behaviour" OR "population behaviour"</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A human population who are exposed to a BCI. </t>
+          <t>An intervention population who are exposed to a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1891,7 +1891,7 @@
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>intervention population</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
@@ -1919,7 +1919,7 @@
       <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; PS</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -2755,7 +2755,7 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>A &lt;planned process&gt; that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -2791,7 +2791,7 @@
       <c r="R36" s="2" t="inlineStr"/>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; PS</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -2815,7 +2815,7 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a communication process</t>
+          <t>An attribute of a communication process.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -2847,7 +2847,7 @@
       <c r="R37" s="2" t="inlineStr"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; PS</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -3283,7 +3283,7 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of people</t>
+          <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -3315,7 +3315,7 @@
       <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; AW</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3735,79 +3741,67 @@
       <c r="V52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050466</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr"/>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr"/>
-      <c r="G53" s="3" t="inlineStr">
-        <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="H53" s="3" t="inlineStr"/>
-      <c r="I53" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J53" s="3" t="inlineStr"/>
-      <c r="K53" s="3" t="inlineStr"/>
-      <c r="L53" s="3" t="inlineStr"/>
-      <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="3" t="inlineStr"/>
-      <c r="O53" s="3" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="P53" s="3" t="inlineStr"/>
-      <c r="Q53" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R53" s="3" t="inlineStr"/>
-      <c r="S53" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T53" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U53" s="3" t="inlineStr"/>
-      <c r="V53" s="3" t="inlineStr"/>
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:015095</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>intervention population</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>A human population who are exposed to an intervention.</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr"/>
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr"/>
+      <c r="H53" s="4" t="inlineStr"/>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr"/>
+      <c r="K53" s="4" t="inlineStr"/>
+      <c r="L53" s="4" t="inlineStr"/>
+      <c r="M53" s="4" t="inlineStr"/>
+      <c r="N53" s="4" t="inlineStr"/>
+      <c r="O53" s="4" t="inlineStr"/>
+      <c r="P53" s="4" t="inlineStr"/>
+      <c r="Q53" s="4" t="inlineStr"/>
+      <c r="R53" s="4" t="inlineStr"/>
+      <c r="S53" s="4" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="T53" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U53" s="4" t="inlineStr"/>
+      <c r="V53" s="4" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>low emotional management exertion expended on a behaviour</t>
+          <t>low cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr"/>
@@ -3815,7 +3809,7 @@
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H54" s="3" t="inlineStr"/>
@@ -3831,7 +3825,7 @@
       <c r="N54" s="3" t="inlineStr"/>
       <c r="O54" s="3" t="inlineStr">
         <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P54" s="3" t="inlineStr"/>
@@ -3857,17 +3851,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>low mental exertion expended on a behaviour</t>
+          <t>low emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr"/>
@@ -3875,7 +3869,7 @@
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H55" s="3" t="inlineStr"/>
@@ -3891,7 +3885,7 @@
       <c r="N55" s="3" t="inlineStr"/>
       <c r="O55" s="3" t="inlineStr">
         <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P55" s="3" t="inlineStr"/>
@@ -3917,17 +3911,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>low physical exertion expended on behaviour</t>
+          <t>low mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr"/>
@@ -3935,7 +3929,7 @@
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H56" s="3" t="inlineStr"/>
@@ -3951,7 +3945,7 @@
       <c r="N56" s="3" t="inlineStr"/>
       <c r="O56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P56" s="3" t="inlineStr"/>
@@ -3977,17 +3971,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
+          <t>low physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr"/>
@@ -3995,7 +3989,7 @@
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H57" s="3" t="inlineStr"/>
@@ -4011,7 +4005,7 @@
       <c r="N57" s="3" t="inlineStr"/>
       <c r="O57" s="3" t="inlineStr">
         <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
       <c r="P57" s="3" t="inlineStr"/>
@@ -4037,17 +4031,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
+          <t>moderate cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr"/>
@@ -4055,7 +4049,7 @@
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H58" s="3" t="inlineStr"/>
@@ -4071,7 +4065,7 @@
       <c r="N58" s="3" t="inlineStr"/>
       <c r="O58" s="3" t="inlineStr">
         <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P58" s="3" t="inlineStr"/>
@@ -4097,17 +4091,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>moderate mental exertion expended on a behaviour</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr"/>
@@ -4115,7 +4109,7 @@
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H59" s="3" t="inlineStr"/>
@@ -4131,7 +4125,7 @@
       <c r="N59" s="3" t="inlineStr"/>
       <c r="O59" s="3" t="inlineStr">
         <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P59" s="3" t="inlineStr"/>
@@ -4157,17 +4151,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>moderate physical exertion expended on behaviour</t>
+          <t>moderate mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr"/>
@@ -4175,7 +4169,7 @@
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H60" s="3" t="inlineStr"/>
@@ -4191,7 +4185,7 @@
       <c r="N60" s="3" t="inlineStr"/>
       <c r="O60" s="3" t="inlineStr">
         <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P60" s="3" t="inlineStr"/>
@@ -4215,91 +4209,87 @@
       <c r="V60" s="3" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:034000</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>population behaviour</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
-      <c r="P61" s="2" t="inlineStr"/>
-      <c r="Q61" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T61" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050473</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr"/>
+      <c r="E61" s="3" t="inlineStr"/>
+      <c r="F61" s="3" t="inlineStr"/>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="inlineStr"/>
+      <c r="I61" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J61" s="3" t="inlineStr"/>
+      <c r="K61" s="3" t="inlineStr"/>
+      <c r="L61" s="3" t="inlineStr"/>
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="3" t="inlineStr"/>
+      <c r="O61" s="3" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P61" s="3" t="inlineStr"/>
+      <c r="Q61" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R61" s="3" t="inlineStr"/>
+      <c r="S61" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T61" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U61" s="3" t="inlineStr"/>
+      <c r="V61" s="3" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>A process profile that is an attribute of a process.</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a process.</t>
-        </is>
-      </c>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -4311,14 +4301,14 @@
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="inlineStr"/>
+      <c r="M62" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="N62" s="2" t="inlineStr"/>
       <c r="O62" s="2" t="inlineStr"/>
-      <c r="P62" s="2" t="inlineStr">
-        <is>
-          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
-        </is>
-      </c>
+      <c r="P62" s="2" t="inlineStr"/>
       <c r="Q62" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4337,6 +4327,70 @@
       </c>
       <c r="U62" s="2" t="inlineStr"/>
       <c r="V62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>A process profile that is an attribute of a process.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a process.</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr"/>
+      <c r="L63" s="2" t="inlineStr"/>
+      <c r="M63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="inlineStr"/>
+      <c r="O63" s="2" t="inlineStr"/>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="inlineStr"/>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U63" s="2" t="inlineStr"/>
+      <c r="V63" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>A population whose behaviour is studied in a BCI evaluation study.</t>
+          <t>A research study sample whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -2453,7 +2453,7 @@
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>research study sample</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
       <c r="R31" s="2" t="inlineStr"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; PS</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
@@ -3773,7 +3773,9 @@
       <c r="N53" s="4" t="inlineStr"/>
       <c r="O53" s="4" t="inlineStr"/>
       <c r="P53" s="4" t="inlineStr"/>
-      <c r="Q53" s="4" t="inlineStr"/>
+      <c r="Q53" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="R53" s="4" t="inlineStr"/>
       <c r="S53" s="4" t="inlineStr">
         <is>
@@ -4392,6 +4394,58 @@
       <c r="U63" s="2" t="inlineStr"/>
       <c r="V63" s="2" t="inlineStr"/>
     </row>
+    <row r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050551</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>research study sample</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>A population whose behaviour is studied in a research study.</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr"/>
+      <c r="E64" s="4" t="inlineStr"/>
+      <c r="F64" s="4" t="inlineStr"/>
+      <c r="G64" s="4" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="H64" s="4" t="inlineStr"/>
+      <c r="I64" s="4" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J64" s="4" t="inlineStr"/>
+      <c r="K64" s="4" t="inlineStr"/>
+      <c r="L64" s="4" t="inlineStr"/>
+      <c r="M64" s="4" t="inlineStr"/>
+      <c r="N64" s="4" t="inlineStr"/>
+      <c r="O64" s="4" t="inlineStr"/>
+      <c r="P64" s="4" t="inlineStr"/>
+      <c r="Q64" s="4" t="inlineStr"/>
+      <c r="R64" s="4" t="inlineStr"/>
+      <c r="S64" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T64" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U64" s="4" t="inlineStr"/>
+      <c r="V64" s="4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
         <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3773,8 +3779,10 @@
       <c r="N53" s="4" t="inlineStr"/>
       <c r="O53" s="4" t="inlineStr"/>
       <c r="P53" s="4" t="inlineStr"/>
-      <c r="Q53" s="4" t="n">
-        <v>0</v>
+      <c r="Q53" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R53" s="4" t="inlineStr"/>
       <c r="S53" s="4" t="inlineStr">
@@ -4395,56 +4403,58 @@
       <c r="V63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>BCIO:050551</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>research study sample</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>A population whose behaviour is studied in a research study.</t>
         </is>
       </c>
-      <c r="D64" s="4" t="inlineStr"/>
-      <c r="E64" s="4" t="inlineStr"/>
-      <c r="F64" s="4" t="inlineStr"/>
-      <c r="G64" s="4" t="inlineStr">
+      <c r="D64" s="5" t="inlineStr"/>
+      <c r="E64" s="5" t="inlineStr"/>
+      <c r="F64" s="5" t="inlineStr"/>
+      <c r="G64" s="5" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="H64" s="4" t="inlineStr"/>
-      <c r="I64" s="4" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J64" s="4" t="inlineStr"/>
-      <c r="K64" s="4" t="inlineStr"/>
-      <c r="L64" s="4" t="inlineStr"/>
-      <c r="M64" s="4" t="inlineStr"/>
-      <c r="N64" s="4" t="inlineStr"/>
-      <c r="O64" s="4" t="inlineStr"/>
-      <c r="P64" s="4" t="inlineStr"/>
-      <c r="Q64" s="4" t="inlineStr"/>
-      <c r="R64" s="4" t="inlineStr"/>
-      <c r="S64" s="4" t="inlineStr">
+      <c r="H64" s="5" t="inlineStr"/>
+      <c r="I64" s="5" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J64" s="5" t="inlineStr"/>
+      <c r="K64" s="5" t="inlineStr"/>
+      <c r="L64" s="5" t="inlineStr"/>
+      <c r="M64" s="5" t="inlineStr"/>
+      <c r="N64" s="5" t="inlineStr"/>
+      <c r="O64" s="5" t="inlineStr"/>
+      <c r="P64" s="5" t="inlineStr"/>
+      <c r="Q64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" s="5" t="inlineStr"/>
+      <c r="S64" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T64" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U64" s="4" t="inlineStr"/>
-      <c r="V64" s="4" t="inlineStr"/>
+      <c r="T64" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="U64" s="5" t="inlineStr"/>
+      <c r="V64" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,11 +52,6 @@
         <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -4403,58 +4397,60 @@
       <c r="V63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>BCIO:050551</t>
         </is>
       </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>research study sample</t>
         </is>
       </c>
-      <c r="C64" s="5" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>A population whose behaviour is studied in a research study.</t>
         </is>
       </c>
-      <c r="D64" s="5" t="inlineStr"/>
-      <c r="E64" s="5" t="inlineStr"/>
-      <c r="F64" s="5" t="inlineStr"/>
-      <c r="G64" s="5" t="inlineStr">
+      <c r="D64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="H64" s="5" t="inlineStr"/>
-      <c r="I64" s="5" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J64" s="5" t="inlineStr"/>
-      <c r="K64" s="5" t="inlineStr"/>
-      <c r="L64" s="5" t="inlineStr"/>
-      <c r="M64" s="5" t="inlineStr"/>
-      <c r="N64" s="5" t="inlineStr"/>
-      <c r="O64" s="5" t="inlineStr"/>
-      <c r="P64" s="5" t="inlineStr"/>
-      <c r="Q64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" s="5" t="inlineStr"/>
-      <c r="S64" s="5" t="inlineStr">
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
+      <c r="L64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr"/>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="inlineStr"/>
+      <c r="S64" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T64" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U64" s="5" t="inlineStr"/>
-      <c r="V64" s="5" t="inlineStr"/>
+      <c r="T64" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U64" s="2" t="inlineStr"/>
+      <c r="V64" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -3759,7 +3759,11 @@
       <c r="D53" s="4" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr"/>
       <c r="F53" s="4" t="inlineStr"/>
-      <c r="G53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
       <c r="H53" s="4" t="inlineStr"/>
       <c r="I53" s="4" t="inlineStr">
         <is>
@@ -3781,7 +3785,7 @@
       <c r="R53" s="4" t="inlineStr"/>
       <c r="S53" s="4" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>AW; PS</t>
         </is>
       </c>
       <c r="T53" s="4" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="T53" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="U53" s="4" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3741,60 +3735,60 @@
       <c r="V52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>BCIO:015095</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>intervention population</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
-      <c r="D53" s="4" t="inlineStr"/>
-      <c r="E53" s="4" t="inlineStr"/>
-      <c r="F53" s="4" t="inlineStr"/>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="D53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="H53" s="4" t="inlineStr"/>
-      <c r="I53" s="4" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J53" s="4" t="inlineStr"/>
-      <c r="K53" s="4" t="inlineStr"/>
-      <c r="L53" s="4" t="inlineStr"/>
-      <c r="M53" s="4" t="inlineStr"/>
-      <c r="N53" s="4" t="inlineStr"/>
-      <c r="O53" s="4" t="inlineStr"/>
-      <c r="P53" s="4" t="inlineStr"/>
-      <c r="Q53" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R53" s="4" t="inlineStr"/>
-      <c r="S53" s="4" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="inlineStr"/>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr">
         <is>
           <t>AW; PS</t>
         </is>
       </c>
-      <c r="T53" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U53" s="4" t="inlineStr"/>
-      <c r="V53" s="4" t="inlineStr"/>
+      <c r="T53" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1699,7 +1699,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Human behavior that is an intervention outcome.</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -1731,7 +1731,7 @@
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>JH; BG</t>
+          <t>JH; BG; PS</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1169,17 +1169,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013000</t>
+          <t>BCIO:023000</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
+          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -1187,12 +1187,12 @@
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>information content entoty</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1205,16 +1205,12 @@
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>BCI engagement</t>
+          <t>BCI evaluation finding</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>Includes mental activities and behaviours.</t>
-        </is>
-      </c>
+      <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1223,7 +1219,7 @@
       <c r="R11" s="2" t="inlineStr"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; BG</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
@@ -1237,17 +1233,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:023000</t>
+          <t>BCIO:021000</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
+          <t>behaviour change intervention evaluation report</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
+          <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
@@ -1255,12 +1251,12 @@
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>evaluation finding</t>
+          <t>report</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>information content entoty</t>
+          <t>generally dependent continuant</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1273,12 +1269,16 @@
       <c r="L12" s="2" t="inlineStr"/>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation finding</t>
+          <t>BCI evaluation report</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr"/>
       <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
+        </is>
+      </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1287,7 +1287,7 @@
       <c r="R12" s="2" t="inlineStr"/>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; BG</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
@@ -1301,17 +1301,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:021000</t>
+          <t>BCIO:018000</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation report</t>
+          <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A report that is a description of a BCI evaluation study.</t>
+          <t>An intervention evaluation study of a BCI scenario.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
@@ -1319,12 +1319,12 @@
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>intervention evaluation study</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>generally dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1337,16 +1337,12 @@
       <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation report</t>
+          <t>BCI evaluation study</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr"/>
       <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
-        </is>
-      </c>
+      <c r="P13" s="2" t="inlineStr"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1369,17 +1365,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:018000</t>
+          <t>BCIO:024000</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study</t>
+          <t>behaviour change intervention evaluation study plan</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study of a BCI scenario.</t>
+          <t>A plan for a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
@@ -1387,12 +1383,12 @@
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>intervention evaluation study</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1405,7 +1401,7 @@
       <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation study</t>
+          <t>BCI evaluation study plan</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr"/>
@@ -1433,17 +1429,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:024000</t>
+          <t>BCIO:020000</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study plan</t>
+          <t>behaviour change intervention evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A plan for a BCI evaluation study.</t>
+          <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
@@ -1451,7 +1447,7 @@
       <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1469,7 +1465,7 @@
       <c r="L15" s="2" t="inlineStr"/>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation study plan</t>
+          <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr"/>
@@ -1497,17 +1493,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:020000</t>
+          <t>BCIO:006000</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study risk of bias or error</t>
+          <t>behaviour change intervention mechanism of action</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
+          <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
@@ -1515,12 +1511,12 @@
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1533,7 +1529,7 @@
       <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation study risk of bias or error</t>
+          <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr"/>
@@ -1547,7 +1543,7 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>PS; JH; RW</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
@@ -1561,17 +1557,17 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006000</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mechanism of action</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
@@ -1579,7 +1575,7 @@
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1597,7 +1593,7 @@
       <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>BCI mechanism of action; MOA; BCI MOA</t>
+          <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr"/>
@@ -1611,7 +1607,7 @@
       <c r="R17" s="2" t="inlineStr"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>PS; JH; RW</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
@@ -1625,17 +1621,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>behaviour change intervention outcome behaviour</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
@@ -1643,14 +1639,10 @@
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
@@ -1659,11 +1651,7 @@
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>BCI mode of delivery; BCI MOD; MOD</t>
-        </is>
-      </c>
+      <c r="M18" s="2" t="inlineStr"/>
       <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
@@ -1675,7 +1663,7 @@
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; BG; PS</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
@@ -1689,17 +1677,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:025000</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention outcome behaviour</t>
+          <t>behaviour change intervention outcome estimate</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>A BCI evaluation finding that is about an outcome behaviour.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -1707,10 +1695,14 @@
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr"/>
+          <t>behaviour change intervention evaluation finding</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>information content entoty</t>
+        </is>
+      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
@@ -1719,10 +1711,18 @@
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>BCI outcome estimate</t>
+        </is>
+      </c>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
+        </is>
+      </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1731,7 +1731,7 @@
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>JH; BG; PS</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
@@ -1745,17 +1745,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:025000</t>
+          <t>BCIO:026000</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention outcome estimate</t>
+          <t>behaviour change intervention physical setting</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A BCI evaluation finding that is about an outcome behaviour.</t>
+          <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1763,14 +1763,10 @@
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>information content entoty</t>
-        </is>
-      </c>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
@@ -1781,16 +1777,12 @@
       <c r="L20" s="2" t="inlineStr"/>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>BCI outcome estimate</t>
+          <t>BCI physical setting</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
-        </is>
-      </c>
+      <c r="P20" s="2" t="inlineStr"/>
       <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1813,17 +1805,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026000</t>
+          <t>BCIO:015000</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention physical setting</t>
+          <t>behaviour change intervention population</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A physical environment in which a BCI is delivered.</t>
+          <t>An intervention population who are exposed to a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1831,7 +1823,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>intervention population</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
@@ -1845,7 +1837,7 @@
       <c r="L21" s="2" t="inlineStr"/>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>BCI physical setting</t>
+          <t>BCI population</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr"/>
@@ -1859,7 +1851,7 @@
       <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; PS</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
@@ -1873,17 +1865,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
+          <t>BCIO:001000</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention population</t>
+          <t>behaviour change intervention scenario</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>An intervention population who are exposed to a behaviour change intervention.</t>
+          <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1891,7 +1883,7 @@
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>intervention population</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
@@ -1905,7 +1897,7 @@
       <c r="L22" s="2" t="inlineStr"/>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>BCI population</t>
+          <t>BCI scenario</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr"/>
@@ -1919,7 +1911,7 @@
       <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; PS</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
@@ -1933,17 +1925,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:001000</t>
+          <t>BCIO:028000</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario</t>
+          <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
+          <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1951,7 +1943,7 @@
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
@@ -1965,7 +1957,7 @@
       <c r="L23" s="2" t="inlineStr"/>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>BCI scenario</t>
+          <t>BCI scenario plan</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr"/>
@@ -1993,17 +1985,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:028000</t>
+          <t>BCIO:027000</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario plan</t>
+          <t>behaviour change intervention scenario report</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A plan that is realized in a BCI scenario process.</t>
+          <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -2011,7 +2003,7 @@
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>report</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr"/>
@@ -2025,7 +2017,7 @@
       <c r="L24" s="2" t="inlineStr"/>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>BCI scenario plan</t>
+          <t>BCI scenario report</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr"/>
@@ -2053,17 +2045,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:027000</t>
+          <t>BCIO:009000</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario report</t>
+          <t>behaviour change intervention schedule of delivery</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A report that describes a BCI scenario.</t>
+          <t>A BCI attribute that involves its temporal organisation.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
@@ -2071,7 +2063,7 @@
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr"/>
@@ -2085,12 +2077,16 @@
       <c r="L25" s="2" t="inlineStr"/>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>BCI scenario report</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr"/>
       <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>Includes the start and end of the BCI and its parts.</t>
+        </is>
+      </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2113,17 +2109,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:009000</t>
+          <t>BCIO:014000</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention schedule of delivery</t>
+          <t>behaviour change intervention setting</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A BCI attribute that involves its temporal organisation.</t>
+          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -2131,7 +2127,7 @@
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr"/>
@@ -2145,14 +2141,14 @@
       <c r="L26" s="2" t="inlineStr"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>BCI schedule of delivery</t>
+          <t>BCI setting</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr"/>
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>Includes the start and end of the BCI and its parts.</t>
+          <t>Includes as parts social setting and physical setting.</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -2177,17 +2173,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:014000</t>
+          <t>BCIO:029000</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention setting</t>
+          <t>behaviour change intervention social setting</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
+          <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -2195,7 +2191,7 @@
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr"/>
@@ -2209,16 +2205,12 @@
       <c r="L27" s="2" t="inlineStr"/>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>BCI setting</t>
+          <t>BCI social setting</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr"/>
       <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
-        <is>
-          <t>Includes as parts social setting and physical setting.</t>
-        </is>
-      </c>
+      <c r="P27" s="2" t="inlineStr"/>
       <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2241,17 +2233,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:029000</t>
+          <t>BCIO:010000</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention social setting</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of people with whom a BCI population interacts.</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -2259,7 +2251,7 @@
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>role</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr"/>
@@ -2273,12 +2265,16 @@
       <c r="L28" s="2" t="inlineStr"/>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>BCI social setting</t>
+          <t>BCI source</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr"/>
       <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>This includes individual people, groups of people, and organisations.</t>
+        </is>
+      </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2301,17 +2297,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
+          <t>BCIO:030000</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
+          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -2333,14 +2329,14 @@
       <c r="L29" s="2" t="inlineStr"/>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>BCI source</t>
+          <t>BCI study investigator</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>This includes individual people, groups of people, and organisations.</t>
+          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -2365,17 +2361,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:030000</t>
+          <t>BCIO:031000</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention study investigator</t>
+          <t>behaviour change intervention study sample</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
+          <t>A research study sample whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -2383,7 +2379,7 @@
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>research study sample</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2397,16 +2393,12 @@
       <c r="L30" s="2" t="inlineStr"/>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>BCI study investigator</t>
+          <t>BCI study sample</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr"/>
       <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
-        </is>
-      </c>
+      <c r="P30" s="2" t="inlineStr"/>
       <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2415,7 +2407,7 @@
       <c r="R30" s="2" t="inlineStr"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; PS</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
@@ -2429,17 +2421,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:031000</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention study sample</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>A research study sample whose behaviour is studied in a BCI evaluation study.</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -2447,7 +2439,7 @@
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2461,12 +2453,16 @@
       <c r="L31" s="2" t="inlineStr"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>BCI study sample</t>
+          <t>BCI style of delivery</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr"/>
       <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>An example is cold and distant vs. warm and accepting.</t>
+        </is>
+      </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2475,7 +2471,7 @@
       <c r="R31" s="2" t="inlineStr"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; PS</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
@@ -2489,25 +2485,29 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:032000</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention style of delivery</t>
+          <t>behaviour change intervention tailoring</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
+          <t>A BCI attribute in which the content or delivery of a BCI for some member of the BCI population varies according to their characteristics or setting.</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
+        </is>
+      </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr"/>
@@ -2521,14 +2521,18 @@
       <c r="L32" s="2" t="inlineStr"/>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>BCI style of delivery</t>
+          <t>BCI tailoring</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
+        </is>
+      </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>An example is cold and distant vs. warm and accepting.</t>
+          <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -2553,29 +2557,25 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:032000</t>
+          <t>BCIO:047000</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention tailoring</t>
+          <t xml:space="preserve">behaviour change intervention temporal context </t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A BCI attribute in which the content or delivery of a BCI for some member of the BCI population varies according to their characteristics or setting.</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
-        </is>
-      </c>
+          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr"/>
@@ -2589,20 +2589,12 @@
       <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>BCI tailoring</t>
+          <t>BCI temporal context</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr">
-        <is>
-          <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
-        </is>
-      </c>
-      <c r="P33" s="2" t="inlineStr">
-        <is>
-          <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
-        </is>
-      </c>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
       <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2625,17 +2617,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:047000</t>
+          <t>BCIO:047001</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">behaviour change intervention temporal context </t>
+          <t>behaviour change intervention temporal context event</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
+          <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -2643,7 +2635,7 @@
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>behaviour change intervention temporal context</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr"/>
@@ -2657,7 +2649,7 @@
       <c r="L34" s="2" t="inlineStr"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal context</t>
+          <t>BCI temporal context event</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr"/>
@@ -2685,17 +2677,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:047001</t>
+          <t>BCIO:033000</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context event</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
+          <t>A &lt;planned process&gt; that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -2703,7 +2695,7 @@
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr"/>
@@ -2717,7 +2709,7 @@
       <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal context event</t>
+          <t>BCT</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr"/>
@@ -2731,7 +2723,7 @@
       <c r="R35" s="2" t="inlineStr"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; PS</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
@@ -2745,17 +2737,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:033000</t>
+          <t>BCIO:044003</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>A &lt;planned process&gt; that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>An attribute of a communication process.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -2763,7 +2755,7 @@
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr"/>
@@ -2775,11 +2767,7 @@
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr">
-        <is>
-          <t>BCT</t>
-        </is>
-      </c>
+      <c r="M36" s="2" t="inlineStr"/>
       <c r="N36" s="2" t="inlineStr"/>
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr"/>
@@ -2791,7 +2779,7 @@
       <c r="R36" s="2" t="inlineStr"/>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; PS</t>
+          <t>JH; PS</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
@@ -2805,17 +2793,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -2823,7 +2811,7 @@
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr"/>
@@ -2847,7 +2835,7 @@
       <c r="R37" s="2" t="inlineStr"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>JH; PS</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
@@ -2861,17 +2849,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:035000</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+          <t>A data item that is the output of an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
@@ -2879,7 +2867,7 @@
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr"/>
@@ -2903,7 +2891,7 @@
       <c r="R38" s="2" t="inlineStr"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
@@ -2915,75 +2903,79 @@
       <c r="V38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:035000</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>evaluation finding</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is the output of an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050462</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>high cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr"/>
+      <c r="E39" s="3" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="inlineStr"/>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr"/>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P39" s="3" t="inlineStr"/>
+      <c r="Q39" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T39" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U39" s="3" t="inlineStr"/>
+      <c r="V39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>high cognitive exertion expended on a behaviour</t>
+          <t>high emotional management  exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr"/>
@@ -2991,7 +2983,7 @@
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H40" s="3" t="inlineStr"/>
@@ -3007,7 +2999,7 @@
       <c r="N40" s="3" t="inlineStr"/>
       <c r="O40" s="3" t="inlineStr">
         <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P40" s="3" t="inlineStr"/>
@@ -3033,17 +3025,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:050464</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>high emotional management  exertion expended on a behaviour</t>
+          <t>high mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr"/>
@@ -3051,7 +3043,7 @@
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H41" s="3" t="inlineStr"/>
@@ -3067,7 +3059,7 @@
       <c r="N41" s="3" t="inlineStr"/>
       <c r="O41" s="3" t="inlineStr">
         <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P41" s="3" t="inlineStr"/>
@@ -3093,17 +3085,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>high mental exertion expended on a behaviour</t>
+          <t>high physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
+          <t>Physical exertion expended on a behaviour that is high</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr"/>
@@ -3111,7 +3103,7 @@
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr"/>
@@ -3127,7 +3119,7 @@
       <c r="N42" s="3" t="inlineStr"/>
       <c r="O42" s="3" t="inlineStr">
         <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P42" s="3" t="inlineStr"/>
@@ -3151,91 +3143,87 @@
       <c r="V42" s="3" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050465</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>high physical exertion expended on behaviour</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr"/>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="H43" s="3" t="inlineStr"/>
-      <c r="I43" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J43" s="3" t="inlineStr"/>
-      <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr"/>
-      <c r="M43" s="3" t="inlineStr"/>
-      <c r="N43" s="3" t="inlineStr"/>
-      <c r="O43" s="3" t="inlineStr">
-        <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="P43" s="3" t="inlineStr"/>
-      <c r="Q43" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R43" s="3" t="inlineStr"/>
-      <c r="S43" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T43" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U43" s="3" t="inlineStr"/>
-      <c r="V43" s="3" t="inlineStr"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>"individual human behaviour" OR "population behaviour"</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr"/>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>BG; PS</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:041000</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A process that is an individual human behaviour or a population behaviour.</t>
+          <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>"individual human behaviour" OR "population behaviour"</t>
-        </is>
-      </c>
+      <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr"/>
@@ -3259,7 +3247,7 @@
       <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>BG; PS</t>
+          <t>JH; AW</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
@@ -3273,17 +3261,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:041000</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>An object aggregate that consists of two or more people.</t>
+          <t>A process that is produced by a person.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -3291,7 +3279,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -3315,7 +3303,7 @@
       <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>JH; AW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
@@ -3329,17 +3317,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>A process that is produced by a person.</t>
+          <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -3347,7 +3335,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -3359,10 +3347,18 @@
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="N46" s="2" t="inlineStr"/>
       <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+        </is>
+      </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3385,17 +3381,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -3403,7 +3399,7 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -3415,16 +3411,12 @@
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+      <c r="M47" s="2" t="inlineStr"/>
       <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -3435,7 +3427,7 @@
       <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
@@ -3449,17 +3441,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:046000</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -3482,11 +3474,7 @@
       <c r="M48" s="2" t="inlineStr"/>
       <c r="N48" s="2" t="inlineStr"/>
       <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
-        </is>
-      </c>
+      <c r="P48" s="2" t="inlineStr"/>
       <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3495,7 +3483,7 @@
       <c r="R48" s="2" t="inlineStr"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
@@ -3509,17 +3497,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:046000</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
+          <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -3565,17 +3553,17 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>intervention evaluation study</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -3583,7 +3571,7 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr"/>
@@ -3607,7 +3595,7 @@
       <c r="R50" s="2" t="inlineStr"/>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
@@ -3621,17 +3609,17 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>intervention evaluation study</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -3639,7 +3627,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
@@ -3654,7 +3642,11 @@
       <c r="M51" s="2" t="inlineStr"/>
       <c r="N51" s="2" t="inlineStr"/>
       <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3663,7 +3655,7 @@
       <c r="R51" s="2" t="inlineStr"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
@@ -3677,17 +3669,17 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:015095</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention population</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -3695,7 +3687,7 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3710,11 +3702,7 @@
       <c r="M52" s="2" t="inlineStr"/>
       <c r="N52" s="2" t="inlineStr"/>
       <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
-        </is>
-      </c>
+      <c r="P52" s="2" t="inlineStr"/>
       <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3723,7 +3711,7 @@
       <c r="R52" s="2" t="inlineStr"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>AW; PS</t>
         </is>
       </c>
       <c r="T52" s="2" t="inlineStr">
@@ -3735,75 +3723,79 @@
       <c r="V52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015095</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>intervention population</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>A human population who are exposed to an intervention.</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr"/>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>human population</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="inlineStr"/>
-      <c r="Q53" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr">
-        <is>
-          <t>AW; PS</t>
-        </is>
-      </c>
-      <c r="T53" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr"/>
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050466</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>low cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr"/>
+      <c r="E53" s="3" t="inlineStr"/>
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="inlineStr"/>
+      <c r="I53" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="inlineStr"/>
+      <c r="K53" s="3" t="inlineStr"/>
+      <c r="L53" s="3" t="inlineStr"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P53" s="3" t="inlineStr"/>
+      <c r="Q53" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R53" s="3" t="inlineStr"/>
+      <c r="S53" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T53" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U53" s="3" t="inlineStr"/>
+      <c r="V53" s="3" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>low cognitive exertion expended on a behaviour</t>
+          <t>low emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr"/>
@@ -3811,7 +3803,7 @@
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H54" s="3" t="inlineStr"/>
@@ -3827,7 +3819,7 @@
       <c r="N54" s="3" t="inlineStr"/>
       <c r="O54" s="3" t="inlineStr">
         <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P54" s="3" t="inlineStr"/>
@@ -3853,17 +3845,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>low emotional management exertion expended on a behaviour</t>
+          <t>low mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr"/>
@@ -3871,7 +3863,7 @@
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H55" s="3" t="inlineStr"/>
@@ -3887,7 +3879,7 @@
       <c r="N55" s="3" t="inlineStr"/>
       <c r="O55" s="3" t="inlineStr">
         <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P55" s="3" t="inlineStr"/>
@@ -3913,17 +3905,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>low mental exertion expended on a behaviour</t>
+          <t>low physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr"/>
@@ -3931,7 +3923,7 @@
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H56" s="3" t="inlineStr"/>
@@ -3947,7 +3939,7 @@
       <c r="N56" s="3" t="inlineStr"/>
       <c r="O56" s="3" t="inlineStr">
         <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
       <c r="P56" s="3" t="inlineStr"/>
@@ -3973,17 +3965,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>low physical exertion expended on behaviour</t>
+          <t>moderate cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr"/>
@@ -3991,7 +3983,7 @@
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H57" s="3" t="inlineStr"/>
@@ -4007,7 +3999,7 @@
       <c r="N57" s="3" t="inlineStr"/>
       <c r="O57" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P57" s="3" t="inlineStr"/>
@@ -4033,17 +4025,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr"/>
@@ -4051,7 +4043,7 @@
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H58" s="3" t="inlineStr"/>
@@ -4067,7 +4059,7 @@
       <c r="N58" s="3" t="inlineStr"/>
       <c r="O58" s="3" t="inlineStr">
         <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P58" s="3" t="inlineStr"/>
@@ -4093,17 +4085,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
+          <t>moderate mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr"/>
@@ -4111,7 +4103,7 @@
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H59" s="3" t="inlineStr"/>
@@ -4127,7 +4119,7 @@
       <c r="N59" s="3" t="inlineStr"/>
       <c r="O59" s="3" t="inlineStr">
         <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P59" s="3" t="inlineStr"/>
@@ -4153,17 +4145,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>moderate mental exertion expended on a behaviour</t>
+          <t>moderate physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr"/>
@@ -4171,7 +4163,7 @@
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H60" s="3" t="inlineStr"/>
@@ -4187,7 +4179,7 @@
       <c r="N60" s="3" t="inlineStr"/>
       <c r="O60" s="3" t="inlineStr">
         <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P60" s="3" t="inlineStr"/>
@@ -4211,64 +4203,72 @@
       <c r="V60" s="3" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050473</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>moderate physical exertion expended on behaviour</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr"/>
-      <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="3" t="inlineStr"/>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="H61" s="3" t="inlineStr"/>
-      <c r="I61" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J61" s="3" t="inlineStr"/>
-      <c r="K61" s="3" t="inlineStr"/>
-      <c r="L61" s="3" t="inlineStr"/>
-      <c r="M61" s="3" t="inlineStr"/>
-      <c r="N61" s="3" t="inlineStr"/>
-      <c r="O61" s="3" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="P61" s="3" t="inlineStr"/>
-      <c r="Q61" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R61" s="3" t="inlineStr"/>
-      <c r="S61" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T61" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U61" s="3" t="inlineStr"/>
-      <c r="V61" s="3" t="inlineStr"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013000</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>participant engagement with behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr"/>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr">
+        <is>
+          <t>BCI engagement</t>
+        </is>
+      </c>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="inlineStr">
+        <is>
+          <t>Includes mental activities and behaviours.</t>
+        </is>
+      </c>
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R61" s="2" t="inlineStr"/>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>JH; RW; PS</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -718,7 +718,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention content; behaviour change intervention engagement; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
+          <t>behaviour change intervention content; participant engagement with behaviour change intervention; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>JH; BG</t>
+          <t>JH; BG; PS</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4271,91 +4277,83 @@
       <c r="V61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:034000</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>population behaviour</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
-      <c r="N62" s="2" t="inlineStr"/>
-      <c r="O62" s="2" t="inlineStr"/>
-      <c r="P62" s="2" t="inlineStr"/>
-      <c r="Q62" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R62" s="2" t="inlineStr"/>
-      <c r="S62" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T62" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050916</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>An individual human activity that is performed by someone in an intervention population, prompted by this intervention and influences the effects of the intervention on its outcome.</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr"/>
+      <c r="F62" s="4" t="inlineStr"/>
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="H62" s="4" t="inlineStr"/>
+      <c r="I62" s="4" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J62" s="4" t="inlineStr"/>
+      <c r="K62" s="4" t="inlineStr"/>
+      <c r="L62" s="4" t="inlineStr"/>
+      <c r="M62" s="4" t="inlineStr"/>
+      <c r="N62" s="4" t="inlineStr"/>
+      <c r="O62" s="4" t="inlineStr"/>
+      <c r="P62" s="4" t="inlineStr"/>
+      <c r="Q62" s="4" t="inlineStr"/>
+      <c r="R62" s="4" t="inlineStr"/>
+      <c r="S62" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T62" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U62" s="4" t="inlineStr"/>
+      <c r="V62" s="4" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>A process profile that is an attribute of a process.</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a process.</t>
-        </is>
-      </c>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -4367,14 +4365,14 @@
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr"/>
-      <c r="M63" s="2" t="inlineStr"/>
+      <c r="M63" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="N63" s="2" t="inlineStr"/>
       <c r="O63" s="2" t="inlineStr"/>
-      <c r="P63" s="2" t="inlineStr">
-        <is>
-          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
-        </is>
-      </c>
+      <c r="P63" s="2" t="inlineStr"/>
       <c r="Q63" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4397,25 +4395,29 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050551</t>
+          <t>BCIO:043000</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>A population whose behaviour is studied in a research study.</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr"/>
+          <t>A process profile that is an attribute of a process.</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a process.</t>
+        </is>
+      </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -4430,7 +4432,11 @@
       <c r="M64" s="2" t="inlineStr"/>
       <c r="N64" s="2" t="inlineStr"/>
       <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
+        </is>
+      </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4439,7 +4445,7 @@
       <c r="R64" s="2" t="inlineStr"/>
       <c r="S64" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T64" s="2" t="inlineStr">
@@ -4449,6 +4455,62 @@
       </c>
       <c r="U64" s="2" t="inlineStr"/>
       <c r="V64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050551</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>research study sample</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>A population whose behaviour is studied in a research study.</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr"/>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr"/>
+      <c r="L65" s="2" t="inlineStr"/>
+      <c r="M65" s="2" t="inlineStr"/>
+      <c r="N65" s="2" t="inlineStr"/>
+      <c r="O65" s="2" t="inlineStr"/>
+      <c r="P65" s="2" t="inlineStr"/>
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R65" s="2" t="inlineStr"/>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U65" s="2" t="inlineStr"/>
+      <c r="V65" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -4317,7 +4317,9 @@
       <c r="N62" s="4" t="inlineStr"/>
       <c r="O62" s="4" t="inlineStr"/>
       <c r="P62" s="4" t="inlineStr"/>
-      <c r="Q62" s="4" t="inlineStr"/>
+      <c r="Q62" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="R62" s="4" t="inlineStr"/>
       <c r="S62" s="4" t="inlineStr">
         <is>
@@ -4326,7 +4328,7 @@
       </c>
       <c r="T62" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="U62" s="4" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -4277,62 +4271,62 @@
       <c r="V61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>BCIO:050916</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>participant engagement with intervention</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>An individual human activity that is performed by someone in an intervention population, prompted by this intervention and influences the effects of the intervention on its outcome.</t>
         </is>
       </c>
-      <c r="D62" s="4" t="inlineStr">
+      <c r="D62" s="2" t="inlineStr">
         <is>
           <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
-      <c r="E62" s="4" t="inlineStr"/>
-      <c r="F62" s="4" t="inlineStr"/>
-      <c r="G62" s="4" t="inlineStr">
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="H62" s="4" t="inlineStr"/>
-      <c r="I62" s="4" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J62" s="4" t="inlineStr"/>
-      <c r="K62" s="4" t="inlineStr"/>
-      <c r="L62" s="4" t="inlineStr"/>
-      <c r="M62" s="4" t="inlineStr"/>
-      <c r="N62" s="4" t="inlineStr"/>
-      <c r="O62" s="4" t="inlineStr"/>
-      <c r="P62" s="4" t="inlineStr"/>
-      <c r="Q62" s="4" t="n">
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="inlineStr"/>
+      <c r="M62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="inlineStr"/>
+      <c r="O62" s="2" t="inlineStr"/>
+      <c r="P62" s="2" t="inlineStr"/>
+      <c r="Q62" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R62" s="4" t="inlineStr"/>
-      <c r="S62" s="4" t="inlineStr">
+      <c r="R62" s="2" t="inlineStr"/>
+      <c r="S62" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T62" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U62" s="4" t="inlineStr"/>
-      <c r="V62" s="4" t="inlineStr"/>
+      <c r="T62" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U62" s="2" t="inlineStr"/>
+      <c r="V62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -571,8 +571,8 @@
           <t>An attribute of a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>process attribute</t>
@@ -588,23 +588,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
       <c r="M2" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention attribute</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
       <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>RW</t>
@@ -615,8 +615,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -639,8 +639,8 @@
           <t>A criterion for selecting people for a BCI population.</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
@@ -656,19 +656,19 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="n"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -679,8 +679,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -698,9 +698,9 @@
           <t>An intervention that has the aim of influencing human behaviour.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>intervention</t>
@@ -726,14 +726,14 @@
           <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
           <t>BCI</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
           <t>Involves use of products, services, activities, rules or environmental objects.</t>
@@ -744,7 +744,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
           <t>JH; BG; PS</t>
@@ -755,8 +755,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -774,9 +774,9 @@
           <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study</t>
@@ -792,16 +792,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>BCI comparison evaluation study</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
           <t>Comparison involves identifying differences between the entities in the scenarios.</t>
@@ -812,7 +812,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="n"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -823,8 +823,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -842,9 +842,9 @@
           <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>intervention content</t>
@@ -860,16 +860,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
       <c r="M6" s="2" t="inlineStr">
         <is>
           <t>BCI content</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
@@ -880,7 +880,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="n"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
           <t>RW</t>
@@ -891,8 +891,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -910,9 +910,9 @@
           <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
@@ -928,16 +928,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
       <c r="M7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
           <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
@@ -948,7 +948,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="n"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -959,8 +959,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -978,9 +978,9 @@
           <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>intervention delivery</t>
@@ -996,23 +996,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
       <c r="M8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
       <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="n"/>
       <c r="S8" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1023,8 +1023,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1042,9 +1042,9 @@
           <t>A BCI content attribute that is its amount.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
@@ -1060,15 +1060,15 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
       <c r="M9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
@@ -1084,7 +1084,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="n"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1095,8 +1095,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="n"/>
+      <c r="V9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1114,9 +1114,9 @@
           <t xml:space="preserve">A behaviour change intervention evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
@@ -1132,16 +1132,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
           <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
@@ -1152,7 +1152,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="n"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
           <t>JH; RW; BG</t>
@@ -1163,8 +1163,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1182,9 +1182,9 @@
           <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>evaluation finding</t>
@@ -1200,23 +1200,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation finding</t>
         </is>
       </c>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="n"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
           <t>JH; RW; BG</t>
@@ -1227,8 +1227,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1246,9 +1246,9 @@
           <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>report</t>
@@ -1264,16 +1264,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
       <c r="M12" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation report</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
           <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
@@ -1284,7 +1284,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R12" s="2" t="inlineStr"/>
+      <c r="R12" s="2" t="n"/>
       <c r="S12" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1295,8 +1295,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U12" s="2" t="inlineStr"/>
-      <c r="V12" s="2" t="inlineStr"/>
+      <c r="U12" s="2" t="n"/>
+      <c r="V12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1314,9 +1314,9 @@
           <t>An intervention evaluation study of a BCI scenario.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>intervention evaluation study</t>
@@ -1332,23 +1332,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
       <c r="M13" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study</t>
         </is>
       </c>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="n"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1359,8 +1359,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1378,9 +1378,9 @@
           <t>A plan for a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>plan</t>
@@ -1396,23 +1396,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
       <c r="M14" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study plan</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1423,8 +1423,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1442,9 +1442,9 @@
           <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
@@ -1460,23 +1460,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
       <c r="M15" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1487,8 +1487,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1506,9 +1506,9 @@
           <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>process</t>
@@ -1524,23 +1524,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="inlineStr">
         <is>
           <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
       <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="n"/>
       <c r="S16" s="2" t="inlineStr">
         <is>
           <t>PS; JH; RW</t>
@@ -1551,8 +1551,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1570,9 +1570,9 @@
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
@@ -1588,23 +1588,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
       <c r="M17" s="2" t="inlineStr">
         <is>
           <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
       <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1615,8 +1615,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1634,33 +1634,33 @@
           <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="n"/>
       <c r="I18" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
       <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="n"/>
       <c r="S18" s="2" t="inlineStr">
         <is>
           <t>JH; BG; PS</t>
@@ -1671,8 +1671,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1690,9 +1690,9 @@
           <t>A BCI evaluation finding that is about an outcome behaviour.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
@@ -1708,16 +1708,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
       <c r="M19" s="2" t="inlineStr">
         <is>
           <t>BCI outcome estimate</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
           <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
@@ -1728,7 +1728,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="n"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1739,8 +1739,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1758,37 +1758,37 @@
           <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="n"/>
       <c r="I20" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="inlineStr">
         <is>
           <t>BCI physical setting</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
       <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="n"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1799,8 +1799,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1818,37 +1818,37 @@
           <t>An intervention population who are exposed to a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>intervention population</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="n"/>
       <c r="I21" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
       <c r="M21" s="2" t="inlineStr">
         <is>
           <t>BCI population</t>
         </is>
       </c>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
       <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="n"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
@@ -1859,8 +1859,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="n"/>
+      <c r="V21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1878,37 +1878,41 @@
           <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="n"/>
       <c r="I22" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
       <c r="M22" s="2" t="inlineStr">
         <is>
           <t>BCI scenario</t>
         </is>
       </c>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
       <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R22" s="2" t="inlineStr"/>
+      <c r="R22" s="2" t="n"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1919,8 +1923,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1938,37 +1942,37 @@
           <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="n"/>
       <c r="I23" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
       <c r="M23" s="2" t="inlineStr">
         <is>
           <t>BCI scenario plan</t>
         </is>
       </c>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
       <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R23" s="2" t="inlineStr"/>
+      <c r="R23" s="2" t="n"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1979,8 +1983,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="n"/>
+      <c r="V23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1998,37 +2002,37 @@
           <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="n"/>
       <c r="I24" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
       <c r="M24" s="2" t="inlineStr">
         <is>
           <t>BCI scenario report</t>
         </is>
       </c>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
       <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R24" s="2" t="inlineStr"/>
+      <c r="R24" s="2" t="n"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2039,8 +2043,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="n"/>
+      <c r="V24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -2058,30 +2062,30 @@
           <t>A BCI attribute that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="n"/>
       <c r="I25" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
       <c r="M25" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="inlineStr">
         <is>
           <t>Includes the start and end of the BCI and its parts.</t>
@@ -2092,7 +2096,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="n"/>
       <c r="S25" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2103,8 +2107,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -2122,30 +2126,30 @@
           <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="n"/>
       <c r="I26" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
           <t>BCI setting</t>
         </is>
       </c>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
           <t>Includes as parts social setting and physical setting.</t>
@@ -2156,7 +2160,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R26" s="2" t="inlineStr"/>
+      <c r="R26" s="2" t="n"/>
       <c r="S26" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2167,8 +2171,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="n"/>
+      <c r="V26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2186,37 +2190,37 @@
           <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="n"/>
       <c r="I27" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
       <c r="M27" s="2" t="inlineStr">
         <is>
           <t>BCI social setting</t>
         </is>
       </c>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
       <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="n"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2227,8 +2231,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="n"/>
+      <c r="V27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2246,30 +2250,30 @@
           <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="n"/>
       <c r="I28" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
       <c r="M28" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="inlineStr">
         <is>
           <t>This includes individual people, groups of people, and organisations.</t>
@@ -2280,7 +2284,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R28" s="2" t="inlineStr"/>
+      <c r="R28" s="2" t="n"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2291,8 +2295,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="n"/>
+      <c r="V28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2310,30 +2314,30 @@
           <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="n"/>
       <c r="I29" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
       <c r="M29" s="2" t="inlineStr">
         <is>
           <t>BCI study investigator</t>
         </is>
       </c>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
@@ -2344,7 +2348,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R29" s="2" t="inlineStr"/>
+      <c r="R29" s="2" t="n"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2355,8 +2359,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2374,37 +2378,37 @@
           <t>A research study sample whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>research study sample</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="n"/>
       <c r="I30" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
       <c r="M30" s="2" t="inlineStr">
         <is>
           <t>BCI study sample</t>
         </is>
       </c>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
       <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R30" s="2" t="inlineStr"/>
+      <c r="R30" s="2" t="n"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
@@ -2415,8 +2419,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2434,30 +2438,30 @@
           <t>A communication style that is an attribute of a BCI content communication process.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>communication style</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="n"/>
       <c r="I31" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
           <t>BCI style of delivery</t>
         </is>
       </c>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
       <c r="P31" s="2" t="inlineStr">
         <is>
           <t>An example is cold and distant vs. warm and accepting.</t>
@@ -2468,7 +2472,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="n"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2479,8 +2483,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2503,28 +2507,28 @@
           <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="n"/>
       <c r="I32" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
       <c r="M32" s="2" t="inlineStr">
         <is>
           <t>BCI tailoring</t>
         </is>
       </c>
-      <c r="N32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="n"/>
       <c r="O32" s="2" t="inlineStr">
         <is>
           <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
@@ -2540,7 +2544,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="n"/>
       <c r="S32" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2551,8 +2555,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2570,37 +2574,37 @@
           <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="n"/>
       <c r="I33" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
           <t>BCI temporal context</t>
         </is>
       </c>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
       <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="n"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2611,8 +2615,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2630,37 +2634,37 @@
           <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="n"/>
       <c r="I34" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
           <t>BCI temporal context event</t>
         </is>
       </c>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
       <c r="Q34" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="n"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2671,8 +2675,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2690,37 +2694,37 @@
           <t>A &lt;planned process&gt; that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="n"/>
       <c r="I35" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
           <t>BCT</t>
         </is>
       </c>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
       <c r="Q35" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R35" s="2" t="inlineStr"/>
+      <c r="R35" s="2" t="n"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
@@ -2731,8 +2735,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="n"/>
+      <c r="V35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2750,33 +2754,33 @@
           <t>An attribute of a communication process.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="n"/>
       <c r="I36" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
       <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R36" s="2" t="inlineStr"/>
+      <c r="R36" s="2" t="n"/>
       <c r="S36" s="2" t="inlineStr">
         <is>
           <t>JH; PS</t>
@@ -2787,8 +2791,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2806,33 +2810,33 @@
           <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>communication process attribute</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="n"/>
       <c r="I37" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
       <c r="Q37" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R37" s="2" t="inlineStr"/>
+      <c r="R37" s="2" t="n"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -2843,8 +2847,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U37" s="2" t="inlineStr"/>
-      <c r="V37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="n"/>
+      <c r="V37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2862,33 +2866,33 @@
           <t>A data item that is the output of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="n"/>
       <c r="I38" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
       <c r="Q38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R38" s="2" t="inlineStr"/>
+      <c r="R38" s="2" t="n"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2899,8 +2903,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="n"/>
+      <c r="V38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -2918,37 +2922,37 @@
           <t>Cognitive exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
           <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H39" s="3" t="inlineStr"/>
+      <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr"/>
-      <c r="K39" s="3" t="inlineStr"/>
-      <c r="L39" s="3" t="inlineStr"/>
-      <c r="M39" s="3" t="inlineStr"/>
-      <c r="N39" s="3" t="inlineStr"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="M39" s="3" t="n"/>
+      <c r="N39" s="3" t="n"/>
       <c r="O39" s="3" t="inlineStr">
         <is>
           <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="n"/>
       <c r="Q39" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R39" s="3" t="inlineStr"/>
+      <c r="R39" s="3" t="n"/>
       <c r="S39" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2959,8 +2963,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U39" s="3" t="inlineStr"/>
-      <c r="V39" s="3" t="inlineStr"/>
+      <c r="U39" s="3" t="n"/>
+      <c r="V39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -2978,37 +2982,37 @@
           <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="n"/>
+      <c r="E40" s="3" t="n"/>
+      <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
           <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H40" s="3" t="inlineStr"/>
+      <c r="H40" s="3" t="n"/>
       <c r="I40" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr"/>
-      <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr"/>
-      <c r="M40" s="3" t="inlineStr"/>
-      <c r="N40" s="3" t="inlineStr"/>
+      <c r="J40" s="3" t="n"/>
+      <c r="K40" s="3" t="n"/>
+      <c r="L40" s="3" t="n"/>
+      <c r="M40" s="3" t="n"/>
+      <c r="N40" s="3" t="n"/>
       <c r="O40" s="3" t="inlineStr">
         <is>
           <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="n"/>
       <c r="Q40" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R40" s="3" t="inlineStr"/>
+      <c r="R40" s="3" t="n"/>
       <c r="S40" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3019,8 +3023,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U40" s="3" t="inlineStr"/>
-      <c r="V40" s="3" t="inlineStr"/>
+      <c r="U40" s="3" t="n"/>
+      <c r="V40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -3038,37 +3042,37 @@
           <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="3" t="inlineStr"/>
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="n"/>
       <c r="I41" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr"/>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr"/>
-      <c r="M41" s="3" t="inlineStr"/>
-      <c r="N41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="n"/>
+      <c r="N41" s="3" t="n"/>
       <c r="O41" s="3" t="inlineStr">
         <is>
           <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P41" s="3" t="inlineStr"/>
+      <c r="P41" s="3" t="n"/>
       <c r="Q41" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R41" s="3" t="inlineStr"/>
+      <c r="R41" s="3" t="n"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3079,8 +3083,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U41" s="3" t="inlineStr"/>
-      <c r="V41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="n"/>
+      <c r="V41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -3098,37 +3102,37 @@
           <t>Physical exertion expended on a behaviour that is high</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="n"/>
+      <c r="E42" s="3" t="n"/>
+      <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
           <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H42" s="3" t="inlineStr"/>
+      <c r="H42" s="3" t="n"/>
       <c r="I42" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr"/>
-      <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr"/>
-      <c r="M42" s="3" t="inlineStr"/>
-      <c r="N42" s="3" t="inlineStr"/>
+      <c r="J42" s="3" t="n"/>
+      <c r="K42" s="3" t="n"/>
+      <c r="L42" s="3" t="n"/>
+      <c r="M42" s="3" t="n"/>
+      <c r="N42" s="3" t="n"/>
       <c r="O42" s="3" t="inlineStr">
         <is>
           <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="n"/>
       <c r="Q42" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R42" s="3" t="inlineStr"/>
+      <c r="R42" s="3" t="n"/>
       <c r="S42" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3139,8 +3143,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U42" s="3" t="inlineStr"/>
-      <c r="V42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="n"/>
+      <c r="V42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -3158,37 +3162,37 @@
           <t>A process that is an individual human behaviour or a population behaviour.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="n"/>
       <c r="E43" s="2" t="inlineStr">
         <is>
           <t>"individual human behaviour" OR "population behaviour"</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="n"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="n"/>
       <c r="I43" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
       <c r="Q43" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R43" s="2" t="inlineStr"/>
+      <c r="R43" s="2" t="n"/>
       <c r="S43" s="2" t="inlineStr">
         <is>
           <t>BG; PS</t>
@@ -3199,8 +3203,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -3218,33 +3222,33 @@
           <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="n"/>
       <c r="I44" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
       <c r="Q44" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="n"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
           <t>JH; AW</t>
@@ -3255,8 +3259,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3274,33 +3278,33 @@
           <t>A process that is produced by a person.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="n"/>
       <c r="I45" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
       <c r="Q45" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="n"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3311,8 +3315,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -3330,30 +3334,30 @@
           <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="n"/>
       <c r="I46" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
       <c r="M46" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
           <t>Also referred to in definitions as human behaviour or just behaviour.</t>
@@ -3364,7 +3368,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="n"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3375,8 +3379,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3394,26 +3398,26 @@
           <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr"/>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="H47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="n"/>
       <c r="I47" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
           <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
@@ -3424,7 +3428,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="n"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -3435,8 +3439,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="n"/>
+      <c r="V47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3454,33 +3458,33 @@
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="n"/>
       <c r="I48" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
       <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="n"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3491,8 +3495,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="n"/>
+      <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3510,33 +3514,33 @@
           <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n"/>
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="n"/>
       <c r="I49" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="n"/>
       <c r="Q49" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="n"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3547,8 +3551,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3566,33 +3570,33 @@
           <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr"/>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr"/>
+      <c r="H50" s="2" t="n"/>
       <c r="I50" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="n"/>
       <c r="Q50" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R50" s="2" t="inlineStr"/>
+      <c r="R50" s="2" t="n"/>
       <c r="S50" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -3603,8 +3607,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="n"/>
+      <c r="V50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3622,26 +3626,26 @@
           <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="n"/>
       <c r="I51" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
@@ -3652,7 +3656,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="n"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3663,8 +3667,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3682,33 +3686,33 @@
           <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="n"/>
+      <c r="E52" s="2" t="n"/>
+      <c r="F52" s="2" t="n"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr"/>
+      <c r="H52" s="2" t="n"/>
       <c r="I52" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
       <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R52" s="2" t="inlineStr"/>
+      <c r="R52" s="2" t="n"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
           <t>AW; PS</t>
@@ -3719,8 +3723,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="n"/>
+      <c r="V52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -3738,37 +3742,37 @@
           <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr"/>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr"/>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="inlineStr">
         <is>
           <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H53" s="3" t="inlineStr"/>
+      <c r="H53" s="3" t="n"/>
       <c r="I53" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr"/>
-      <c r="K53" s="3" t="inlineStr"/>
-      <c r="L53" s="3" t="inlineStr"/>
-      <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="3" t="inlineStr"/>
+      <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="n"/>
+      <c r="L53" s="3" t="n"/>
+      <c r="M53" s="3" t="n"/>
+      <c r="N53" s="3" t="n"/>
       <c r="O53" s="3" t="inlineStr">
         <is>
           <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="n"/>
       <c r="Q53" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R53" s="3" t="inlineStr"/>
+      <c r="R53" s="3" t="n"/>
       <c r="S53" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3779,8 +3783,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U53" s="3" t="inlineStr"/>
-      <c r="V53" s="3" t="inlineStr"/>
+      <c r="U53" s="3" t="n"/>
+      <c r="V53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -3798,37 +3802,37 @@
           <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr"/>
-      <c r="E54" s="3" t="inlineStr"/>
-      <c r="F54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="3" t="n"/>
+      <c r="F54" s="3" t="n"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
           <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H54" s="3" t="inlineStr"/>
+      <c r="H54" s="3" t="n"/>
       <c r="I54" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr"/>
-      <c r="K54" s="3" t="inlineStr"/>
-      <c r="L54" s="3" t="inlineStr"/>
-      <c r="M54" s="3" t="inlineStr"/>
-      <c r="N54" s="3" t="inlineStr"/>
+      <c r="J54" s="3" t="n"/>
+      <c r="K54" s="3" t="n"/>
+      <c r="L54" s="3" t="n"/>
+      <c r="M54" s="3" t="n"/>
+      <c r="N54" s="3" t="n"/>
       <c r="O54" s="3" t="inlineStr">
         <is>
           <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="n"/>
       <c r="Q54" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R54" s="3" t="inlineStr"/>
+      <c r="R54" s="3" t="n"/>
       <c r="S54" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3839,8 +3843,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U54" s="3" t="inlineStr"/>
-      <c r="V54" s="3" t="inlineStr"/>
+      <c r="U54" s="3" t="n"/>
+      <c r="V54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -3858,37 +3862,37 @@
           <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr"/>
-      <c r="E55" s="3" t="inlineStr"/>
-      <c r="F55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H55" s="3" t="inlineStr"/>
+      <c r="H55" s="3" t="n"/>
       <c r="I55" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr"/>
-      <c r="K55" s="3" t="inlineStr"/>
-      <c r="L55" s="3" t="inlineStr"/>
-      <c r="M55" s="3" t="inlineStr"/>
-      <c r="N55" s="3" t="inlineStr"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="n"/>
+      <c r="N55" s="3" t="n"/>
       <c r="O55" s="3" t="inlineStr">
         <is>
           <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P55" s="3" t="inlineStr"/>
+      <c r="P55" s="3" t="n"/>
       <c r="Q55" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R55" s="3" t="inlineStr"/>
+      <c r="R55" s="3" t="n"/>
       <c r="S55" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3899,8 +3903,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U55" s="3" t="inlineStr"/>
-      <c r="V55" s="3" t="inlineStr"/>
+      <c r="U55" s="3" t="n"/>
+      <c r="V55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -3918,37 +3922,37 @@
           <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr"/>
-      <c r="E56" s="3" t="inlineStr"/>
-      <c r="F56" s="3" t="inlineStr"/>
+      <c r="D56" s="3" t="n"/>
+      <c r="E56" s="3" t="n"/>
+      <c r="F56" s="3" t="n"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
           <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H56" s="3" t="inlineStr"/>
+      <c r="H56" s="3" t="n"/>
       <c r="I56" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr"/>
-      <c r="K56" s="3" t="inlineStr"/>
-      <c r="L56" s="3" t="inlineStr"/>
-      <c r="M56" s="3" t="inlineStr"/>
-      <c r="N56" s="3" t="inlineStr"/>
+      <c r="J56" s="3" t="n"/>
+      <c r="K56" s="3" t="n"/>
+      <c r="L56" s="3" t="n"/>
+      <c r="M56" s="3" t="n"/>
+      <c r="N56" s="3" t="n"/>
       <c r="O56" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
-      <c r="P56" s="3" t="inlineStr"/>
+      <c r="P56" s="3" t="n"/>
       <c r="Q56" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R56" s="3" t="inlineStr"/>
+      <c r="R56" s="3" t="n"/>
       <c r="S56" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3959,8 +3963,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U56" s="3" t="inlineStr"/>
-      <c r="V56" s="3" t="inlineStr"/>
+      <c r="U56" s="3" t="n"/>
+      <c r="V56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -3978,37 +3982,37 @@
           <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr"/>
-      <c r="E57" s="3" t="inlineStr"/>
-      <c r="F57" s="3" t="inlineStr"/>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
       <c r="G57" s="3" t="inlineStr">
         <is>
           <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H57" s="3" t="inlineStr"/>
+      <c r="H57" s="3" t="n"/>
       <c r="I57" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr"/>
-      <c r="K57" s="3" t="inlineStr"/>
-      <c r="L57" s="3" t="inlineStr"/>
-      <c r="M57" s="3" t="inlineStr"/>
-      <c r="N57" s="3" t="inlineStr"/>
+      <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
+      <c r="M57" s="3" t="n"/>
+      <c r="N57" s="3" t="n"/>
       <c r="O57" s="3" t="inlineStr">
         <is>
           <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P57" s="3" t="inlineStr"/>
+      <c r="P57" s="3" t="n"/>
       <c r="Q57" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R57" s="3" t="inlineStr"/>
+      <c r="R57" s="3" t="n"/>
       <c r="S57" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4019,8 +4023,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U57" s="3" t="inlineStr"/>
-      <c r="V57" s="3" t="inlineStr"/>
+      <c r="U57" s="3" t="n"/>
+      <c r="V57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
@@ -4038,37 +4042,37 @@
           <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr"/>
-      <c r="E58" s="3" t="inlineStr"/>
-      <c r="F58" s="3" t="inlineStr"/>
+      <c r="D58" s="3" t="n"/>
+      <c r="E58" s="3" t="n"/>
+      <c r="F58" s="3" t="n"/>
       <c r="G58" s="3" t="inlineStr">
         <is>
           <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H58" s="3" t="inlineStr"/>
+      <c r="H58" s="3" t="n"/>
       <c r="I58" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr"/>
-      <c r="K58" s="3" t="inlineStr"/>
-      <c r="L58" s="3" t="inlineStr"/>
-      <c r="M58" s="3" t="inlineStr"/>
-      <c r="N58" s="3" t="inlineStr"/>
+      <c r="J58" s="3" t="n"/>
+      <c r="K58" s="3" t="n"/>
+      <c r="L58" s="3" t="n"/>
+      <c r="M58" s="3" t="n"/>
+      <c r="N58" s="3" t="n"/>
       <c r="O58" s="3" t="inlineStr">
         <is>
           <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P58" s="3" t="inlineStr"/>
+      <c r="P58" s="3" t="n"/>
       <c r="Q58" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R58" s="3" t="inlineStr"/>
+      <c r="R58" s="3" t="n"/>
       <c r="S58" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4079,8 +4083,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U58" s="3" t="inlineStr"/>
-      <c r="V58" s="3" t="inlineStr"/>
+      <c r="U58" s="3" t="n"/>
+      <c r="V58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -4098,37 +4102,37 @@
           <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr"/>
-      <c r="E59" s="3" t="inlineStr"/>
-      <c r="F59" s="3" t="inlineStr"/>
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="n"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
           <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H59" s="3" t="inlineStr"/>
+      <c r="H59" s="3" t="n"/>
       <c r="I59" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr"/>
-      <c r="K59" s="3" t="inlineStr"/>
-      <c r="L59" s="3" t="inlineStr"/>
-      <c r="M59" s="3" t="inlineStr"/>
-      <c r="N59" s="3" t="inlineStr"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
+      <c r="L59" s="3" t="n"/>
+      <c r="M59" s="3" t="n"/>
+      <c r="N59" s="3" t="n"/>
       <c r="O59" s="3" t="inlineStr">
         <is>
           <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P59" s="3" t="inlineStr"/>
+      <c r="P59" s="3" t="n"/>
       <c r="Q59" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R59" s="3" t="inlineStr"/>
+      <c r="R59" s="3" t="n"/>
       <c r="S59" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4139,8 +4143,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U59" s="3" t="inlineStr"/>
-      <c r="V59" s="3" t="inlineStr"/>
+      <c r="U59" s="3" t="n"/>
+      <c r="V59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -4158,37 +4162,37 @@
           <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr"/>
-      <c r="E60" s="3" t="inlineStr"/>
-      <c r="F60" s="3" t="inlineStr"/>
+      <c r="D60" s="3" t="n"/>
+      <c r="E60" s="3" t="n"/>
+      <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
           <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H60" s="3" t="inlineStr"/>
+      <c r="H60" s="3" t="n"/>
       <c r="I60" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr"/>
-      <c r="K60" s="3" t="inlineStr"/>
-      <c r="L60" s="3" t="inlineStr"/>
-      <c r="M60" s="3" t="inlineStr"/>
-      <c r="N60" s="3" t="inlineStr"/>
+      <c r="J60" s="3" t="n"/>
+      <c r="K60" s="3" t="n"/>
+      <c r="L60" s="3" t="n"/>
+      <c r="M60" s="3" t="n"/>
+      <c r="N60" s="3" t="n"/>
       <c r="O60" s="3" t="inlineStr">
         <is>
           <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P60" s="3" t="inlineStr"/>
+      <c r="P60" s="3" t="n"/>
       <c r="Q60" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R60" s="3" t="inlineStr"/>
+      <c r="R60" s="3" t="n"/>
       <c r="S60" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4199,8 +4203,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U60" s="3" t="inlineStr"/>
-      <c r="V60" s="3" t="inlineStr"/>
+      <c r="U60" s="3" t="n"/>
+      <c r="V60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -4218,9 +4222,9 @@
           <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n"/>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>participant engagement with intervention</t>
@@ -4236,16 +4240,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
       <c r="M61" s="2" t="inlineStr">
         <is>
           <t>BCI engagement</t>
         </is>
       </c>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
           <t>Includes mental activities and behaviours.</t>
@@ -4256,7 +4260,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R61" s="2" t="inlineStr"/>
+      <c r="R61" s="2" t="n"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
@@ -4267,8 +4271,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -4291,30 +4295,30 @@
           <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="H62" s="2" t="inlineStr"/>
+      <c r="H62" s="2" t="n"/>
       <c r="I62" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="inlineStr"/>
-      <c r="N62" s="2" t="inlineStr"/>
-      <c r="O62" s="2" t="inlineStr"/>
-      <c r="P62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
+      <c r="M62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="n"/>
       <c r="Q62" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R62" s="2" t="inlineStr"/>
+      <c r="R62" s="2" t="n"/>
       <c r="S62" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4325,8 +4329,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -4344,37 +4348,37 @@
           <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="n"/>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H63" s="2" t="inlineStr"/>
+      <c r="H63" s="2" t="n"/>
       <c r="I63" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr"/>
-      <c r="L63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="n"/>
+      <c r="K63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
       <c r="M63" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="N63" s="2" t="inlineStr"/>
-      <c r="O63" s="2" t="inlineStr"/>
-      <c r="P63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="n"/>
+      <c r="O63" s="2" t="n"/>
+      <c r="P63" s="2" t="n"/>
       <c r="Q63" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R63" s="2" t="inlineStr"/>
+      <c r="R63" s="2" t="n"/>
       <c r="S63" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -4385,8 +4389,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U63" s="2" t="inlineStr"/>
-      <c r="V63" s="2" t="inlineStr"/>
+      <c r="U63" s="2" t="n"/>
+      <c r="V63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -4409,25 +4413,25 @@
           <t>An attribute of a process.</t>
         </is>
       </c>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr"/>
+      <c r="H64" s="2" t="n"/>
       <c r="I64" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="n"/>
+      <c r="K64" s="2" t="n"/>
+      <c r="L64" s="2" t="n"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
+      <c r="O64" s="2" t="n"/>
       <c r="P64" s="2" t="inlineStr">
         <is>
           <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
@@ -4438,7 +4442,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R64" s="2" t="inlineStr"/>
+      <c r="R64" s="2" t="n"/>
       <c r="S64" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -4449,8 +4453,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U64" s="2" t="inlineStr"/>
-      <c r="V64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="n"/>
+      <c r="V64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -4468,33 +4472,33 @@
           <t>A population whose behaviour is studied in a research study.</t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="n"/>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="H65" s="2" t="inlineStr"/>
+      <c r="H65" s="2" t="n"/>
       <c r="I65" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
-      <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="inlineStr"/>
-      <c r="N65" s="2" t="inlineStr"/>
-      <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="2" t="n"/>
+      <c r="L65" s="2" t="n"/>
+      <c r="M65" s="2" t="n"/>
+      <c r="N65" s="2" t="n"/>
+      <c r="O65" s="2" t="n"/>
+      <c r="P65" s="2" t="n"/>
       <c r="Q65" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R65" s="2" t="inlineStr"/>
+      <c r="R65" s="2" t="n"/>
       <c r="S65" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4505,8 +4509,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U65" s="2" t="inlineStr"/>
-      <c r="V65" s="2" t="inlineStr"/>
+      <c r="U65" s="2" t="n"/>
+      <c r="V65" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -456,64 +456,64 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BFO entity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Definition source</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Logical definition</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Definition source</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>BFO entity</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has process part'</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'realises'</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'has process part'</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'realises'</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Curator note</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Examples</t>
@@ -531,22 +531,22 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>To be reviewed by</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Curator</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>To be reviewed by</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer query</t>
         </is>
       </c>
     </row>
@@ -568,35 +568,35 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n"/>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>An attribute of a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>behaviour change intervention attribute</t>
         </is>
       </c>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention attribute</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="n"/>
       <c r="Q2" s="2" t="inlineStr">
@@ -607,16 +607,16 @@
       <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -636,31 +636,31 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>A criterion for selecting people for a BCI population.</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n"/>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>A criterion for selecting people for a BCI population.</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="inlineStr">
@@ -671,16 +671,16 @@
       <c r="R3" s="2" t="n"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="inlineStr">
+        <is>
           <t>RW; JH</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -698,22 +698,22 @@
           <t>An intervention that has the aim of influencing human behaviour.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -727,12 +727,12 @@
         </is>
       </c>
       <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
@@ -747,16 +747,16 @@
       <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
           <t>JH; BG; PS</t>
         </is>
       </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -774,33 +774,33 @@
           <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention evaluation study</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI comparison evaluation study</t>
         </is>
       </c>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>BCI comparison evaluation study</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
@@ -815,16 +815,16 @@
       <c r="R5" s="2" t="n"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -842,33 +842,33 @@
           <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>intervention content</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>intervention content</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI content</t>
         </is>
       </c>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>BCI content</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
@@ -883,16 +883,16 @@
       <c r="R6" s="2" t="n"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -910,33 +910,33 @@
           <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
       <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BCI context</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
@@ -951,16 +951,16 @@
       <c r="R7" s="2" t="n"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -978,33 +978,33 @@
           <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BCI delivery</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="n"/>
       <c r="Q8" s="2" t="inlineStr">
@@ -1015,16 +1015,16 @@
       <c r="R8" s="2" t="n"/>
       <c r="S8" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="n"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="n"/>
-      <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1042,38 +1042,38 @@
           <t>A BCI content attribute that is its amount.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>BCI attribute</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>BCI attribute</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BCI dose</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
         </is>
       </c>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="n"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
@@ -1087,16 +1087,16 @@
       <c r="R9" s="2" t="n"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="2" t="n"/>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T9" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U9" s="2" t="n"/>
-      <c r="V9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1114,33 +1114,33 @@
           <t xml:space="preserve">A behaviour change intervention evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation finding</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
       <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention evaluation finding</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
       <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BCI effect estimate</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
@@ -1155,16 +1155,16 @@
       <c r="R10" s="2" t="n"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>JH; RW; BG</t>
         </is>
       </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="n"/>
-      <c r="V10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1182,33 +1182,33 @@
           <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>evaluation finding</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>information content entoty</t>
+        </is>
+      </c>
       <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>evaluation finding</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>information content entoty</t>
-        </is>
-      </c>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI evaluation finding</t>
         </is>
       </c>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
       <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>BCI evaluation finding</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="n"/>
       <c r="Q11" s="2" t="inlineStr">
@@ -1219,16 +1219,16 @@
       <c r="R11" s="2" t="n"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
           <t>JH; RW; BG</t>
         </is>
       </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1246,33 +1246,33 @@
           <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>generally dependent continuant</t>
+        </is>
+      </c>
       <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>generally dependent continuant</t>
-        </is>
-      </c>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI evaluation report</t>
         </is>
       </c>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>BCI evaluation report</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
@@ -1287,16 +1287,16 @@
       <c r="R12" s="2" t="n"/>
       <c r="S12" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="2" t="n"/>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="n"/>
-      <c r="V12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1314,33 +1314,33 @@
           <t>An intervention evaluation study of a BCI scenario.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>intervention evaluation study</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI evaluation study</t>
         </is>
       </c>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>BCI evaluation study</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="n"/>
       <c r="Q13" s="2" t="inlineStr">
@@ -1351,16 +1351,16 @@
       <c r="R13" s="2" t="n"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="n"/>
-      <c r="V13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1378,33 +1378,33 @@
           <t>A plan for a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
       <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>plan</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI evaluation study plan</t>
         </is>
       </c>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="n"/>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>BCI evaluation study plan</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="n"/>
       <c r="Q14" s="2" t="inlineStr">
@@ -1415,16 +1415,16 @@
       <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="n"/>
-      <c r="V14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1442,33 +1442,33 @@
           <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
       <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="n"/>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>BCI evaluation study risk of bias or error</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="n"/>
       <c r="Q15" s="2" t="inlineStr">
@@ -1479,16 +1479,16 @@
       <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U15" s="2" t="n"/>
-      <c r="V15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1506,33 +1506,33 @@
           <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
         </is>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="n"/>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>BCI mechanism of action; MOA; BCI MOA</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O16" s="2" t="n"/>
       <c r="P16" s="2" t="n"/>
       <c r="Q16" s="2" t="inlineStr">
@@ -1543,16 +1543,16 @@
       <c r="R16" s="2" t="n"/>
       <c r="S16" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
           <t>PS; JH; RW</t>
         </is>
       </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1570,33 +1570,33 @@
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>BCI attribute</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>BCI attribute</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="n"/>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>BCI mode of delivery; BCI MOD; MOD</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="n"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="n"/>
       <c r="Q17" s="2" t="inlineStr">
@@ -1607,16 +1607,16 @@
       <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="n"/>
-      <c r="V17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1634,25 +1634,25 @@
           <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n"/>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+      <c r="G18" s="2" t="n"/>
       <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I18" s="2" t="n"/>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="2" t="n"/>
       <c r="L18" s="2" t="n"/>
       <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="n"/>
       <c r="Q18" s="2" t="inlineStr">
@@ -1663,16 +1663,16 @@
       <c r="R18" s="2" t="n"/>
       <c r="S18" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="n"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
           <t>JH; BG; PS</t>
         </is>
       </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1690,33 +1690,33 @@
           <t>A BCI evaluation finding that is about an outcome behaviour.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation finding</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>information content entoty</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention evaluation finding</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>information content entoty</t>
-        </is>
-      </c>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI outcome estimate</t>
         </is>
       </c>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="2" t="n"/>
       <c r="L19" s="2" t="n"/>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>BCI outcome estimate</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
@@ -1731,16 +1731,16 @@
       <c r="R19" s="2" t="n"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="n"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1758,29 +1758,29 @@
           <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n"/>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
+      <c r="G20" s="2" t="n"/>
       <c r="H20" s="2" t="n"/>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI physical setting</t>
         </is>
       </c>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
       <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>BCI physical setting</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="n"/>
       <c r="Q20" s="2" t="inlineStr">
@@ -1791,16 +1791,16 @@
       <c r="R20" s="2" t="n"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1818,29 +1818,29 @@
           <t>An intervention population who are exposed to a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n"/>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>intervention population</t>
+        </is>
+      </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>intervention population</t>
-        </is>
-      </c>
+      <c r="G21" s="2" t="n"/>
       <c r="H21" s="2" t="n"/>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI population</t>
         </is>
       </c>
       <c r="J21" s="2" t="n"/>
       <c r="K21" s="2" t="n"/>
       <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>BCI population</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O21" s="2" t="n"/>
       <c r="P21" s="2" t="n"/>
       <c r="Q21" s="2" t="inlineStr">
@@ -1851,16 +1851,16 @@
       <c r="R21" s="2" t="n"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="n"/>
+      <c r="U21" s="2" t="n"/>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="n"/>
-      <c r="V21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1878,18 +1878,18 @@
           <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n"/>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
+      <c r="G22" s="2" t="n"/>
       <c r="H22" s="2" t="n"/>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI scenario</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -1899,12 +1899,12 @@
       </c>
       <c r="K22" s="2" t="n"/>
       <c r="L22" s="2" t="n"/>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>BCI scenario</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O22" s="2" t="n"/>
       <c r="P22" s="2" t="n"/>
       <c r="Q22" s="2" t="inlineStr">
@@ -1915,16 +1915,16 @@
       <c r="R22" s="2" t="n"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="n"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="n"/>
-      <c r="V22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1942,29 +1942,29 @@
           <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n"/>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>plan</t>
-        </is>
-      </c>
+      <c r="G23" s="2" t="n"/>
       <c r="H23" s="2" t="n"/>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI scenario plan</t>
         </is>
       </c>
       <c r="J23" s="2" t="n"/>
       <c r="K23" s="2" t="n"/>
       <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>BCI scenario plan</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O23" s="2" t="n"/>
       <c r="P23" s="2" t="n"/>
       <c r="Q23" s="2" t="inlineStr">
@@ -1975,16 +1975,16 @@
       <c r="R23" s="2" t="n"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="n"/>
+      <c r="U23" s="2" t="n"/>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U23" s="2" t="n"/>
-      <c r="V23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -2002,29 +2002,29 @@
           <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n"/>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
+      <c r="G24" s="2" t="n"/>
       <c r="H24" s="2" t="n"/>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI scenario report</t>
         </is>
       </c>
       <c r="J24" s="2" t="n"/>
       <c r="K24" s="2" t="n"/>
       <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>BCI scenario report</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O24" s="2" t="n"/>
       <c r="P24" s="2" t="n"/>
       <c r="Q24" s="2" t="inlineStr">
@@ -2035,16 +2035,16 @@
       <c r="R24" s="2" t="n"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="n"/>
+      <c r="U24" s="2" t="n"/>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="n"/>
-      <c r="V24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -2062,29 +2062,29 @@
           <t>A BCI attribute that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>BCI attribute</t>
+        </is>
+      </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>BCI attribute</t>
-        </is>
-      </c>
+      <c r="G25" s="2" t="n"/>
       <c r="H25" s="2" t="n"/>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="J25" s="2" t="n"/>
       <c r="K25" s="2" t="n"/>
       <c r="L25" s="2" t="n"/>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="inlineStr">
         <is>
@@ -2099,16 +2099,16 @@
       <c r="R25" s="2" t="n"/>
       <c r="S25" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="n"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="n"/>
-      <c r="V25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -2126,29 +2126,29 @@
           <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
+      <c r="G26" s="2" t="n"/>
       <c r="H26" s="2" t="n"/>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI setting</t>
         </is>
       </c>
       <c r="J26" s="2" t="n"/>
       <c r="K26" s="2" t="n"/>
       <c r="L26" s="2" t="n"/>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>BCI setting</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O26" s="2" t="n"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
@@ -2163,16 +2163,16 @@
       <c r="R26" s="2" t="n"/>
       <c r="S26" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="n"/>
+      <c r="U26" s="2" t="n"/>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="n"/>
-      <c r="V26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2190,29 +2190,29 @@
           <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>human population</t>
-        </is>
-      </c>
+      <c r="G27" s="2" t="n"/>
       <c r="H27" s="2" t="n"/>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI social setting</t>
         </is>
       </c>
       <c r="J27" s="2" t="n"/>
       <c r="K27" s="2" t="n"/>
       <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>BCI social setting</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O27" s="2" t="n"/>
       <c r="P27" s="2" t="n"/>
       <c r="Q27" s="2" t="inlineStr">
@@ -2223,16 +2223,16 @@
       <c r="R27" s="2" t="n"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="n"/>
+      <c r="U27" s="2" t="n"/>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2250,29 +2250,29 @@
           <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n"/>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
+      <c r="G28" s="2" t="n"/>
       <c r="H28" s="2" t="n"/>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI source</t>
         </is>
       </c>
       <c r="J28" s="2" t="n"/>
       <c r="K28" s="2" t="n"/>
       <c r="L28" s="2" t="n"/>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>BCI source</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="inlineStr">
         <is>
@@ -2287,16 +2287,16 @@
       <c r="R28" s="2" t="n"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="n"/>
+      <c r="U28" s="2" t="n"/>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2314,29 +2314,29 @@
           <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n"/>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
+      <c r="G29" s="2" t="n"/>
       <c r="H29" s="2" t="n"/>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI study investigator</t>
         </is>
       </c>
       <c r="J29" s="2" t="n"/>
       <c r="K29" s="2" t="n"/>
       <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>BCI study investigator</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O29" s="2" t="n"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
@@ -2351,16 +2351,16 @@
       <c r="R29" s="2" t="n"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="n"/>
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="n"/>
-      <c r="V29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2378,29 +2378,29 @@
           <t>A research study sample whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>research study sample</t>
+        </is>
+      </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>research study sample</t>
-        </is>
-      </c>
+      <c r="G30" s="2" t="n"/>
       <c r="H30" s="2" t="n"/>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI study sample</t>
         </is>
       </c>
       <c r="J30" s="2" t="n"/>
       <c r="K30" s="2" t="n"/>
       <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>BCI study sample</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O30" s="2" t="n"/>
       <c r="P30" s="2" t="n"/>
       <c r="Q30" s="2" t="inlineStr">
@@ -2411,16 +2411,16 @@
       <c r="R30" s="2" t="n"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="n"/>
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="n"/>
-      <c r="V30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2438,29 +2438,29 @@
           <t>A communication style that is an attribute of a BCI content communication process.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n"/>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>communication style</t>
-        </is>
-      </c>
+      <c r="G31" s="2" t="n"/>
       <c r="H31" s="2" t="n"/>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI style of delivery</t>
         </is>
       </c>
       <c r="J31" s="2" t="n"/>
       <c r="K31" s="2" t="n"/>
       <c r="L31" s="2" t="n"/>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>BCI style of delivery</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O31" s="2" t="n"/>
       <c r="P31" s="2" t="inlineStr">
         <is>
@@ -2475,16 +2475,16 @@
       <c r="R31" s="2" t="n"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="n"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T31" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2504,36 +2504,36 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
         </is>
       </c>
       <c r="H32" s="2" t="n"/>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI tailoring</t>
         </is>
       </c>
       <c r="J32" s="2" t="n"/>
       <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
-      <c r="M32" s="2" t="inlineStr">
-        <is>
-          <t>BCI tailoring</t>
-        </is>
-      </c>
-      <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="inlineStr">
+      <c r="L32" s="2" t="inlineStr">
         <is>
           <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
         </is>
       </c>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="n"/>
       <c r="P32" s="2" t="inlineStr">
         <is>
           <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
@@ -2547,16 +2547,16 @@
       <c r="R32" s="2" t="n"/>
       <c r="S32" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="n"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2574,29 +2574,29 @@
           <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G33" s="2" t="n"/>
       <c r="H33" s="2" t="n"/>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI temporal context</t>
         </is>
       </c>
       <c r="J33" s="2" t="n"/>
       <c r="K33" s="2" t="n"/>
       <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="inlineStr">
-        <is>
-          <t>BCI temporal context</t>
-        </is>
-      </c>
-      <c r="N33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="n"/>
       <c r="Q33" s="2" t="inlineStr">
@@ -2607,16 +2607,16 @@
       <c r="R33" s="2" t="n"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="n"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T33" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2634,29 +2634,29 @@
           <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention temporal context</t>
+        </is>
+      </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention temporal context</t>
-        </is>
-      </c>
+      <c r="G34" s="2" t="n"/>
       <c r="H34" s="2" t="n"/>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI temporal context event</t>
         </is>
       </c>
       <c r="J34" s="2" t="n"/>
       <c r="K34" s="2" t="n"/>
       <c r="L34" s="2" t="n"/>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>BCI temporal context event</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="n"/>
       <c r="Q34" s="2" t="inlineStr">
@@ -2667,16 +2667,16 @@
       <c r="R34" s="2" t="n"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="n"/>
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2694,29 +2694,29 @@
           <t>A &lt;planned process&gt; that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
+      <c r="G35" s="2" t="n"/>
       <c r="H35" s="2" t="n"/>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCT</t>
         </is>
       </c>
       <c r="J35" s="2" t="n"/>
       <c r="K35" s="2" t="n"/>
       <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="inlineStr">
-        <is>
-          <t>BCT</t>
-        </is>
-      </c>
-      <c r="N35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="n"/>
       <c r="Q35" s="2" t="inlineStr">
@@ -2727,16 +2727,16 @@
       <c r="R35" s="2" t="n"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="n"/>
+      <c r="U35" s="2" t="n"/>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U35" s="2" t="n"/>
-      <c r="V35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2754,25 +2754,25 @@
           <t>An attribute of a communication process.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n"/>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>process attribute</t>
-        </is>
-      </c>
+      <c r="G36" s="2" t="n"/>
       <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I36" s="2" t="n"/>
       <c r="J36" s="2" t="n"/>
       <c r="K36" s="2" t="n"/>
       <c r="L36" s="2" t="n"/>
       <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="n"/>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O36" s="2" t="n"/>
       <c r="P36" s="2" t="n"/>
       <c r="Q36" s="2" t="inlineStr">
@@ -2783,16 +2783,16 @@
       <c r="R36" s="2" t="n"/>
       <c r="S36" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="n"/>
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
           <t>JH; PS</t>
         </is>
       </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="n"/>
-      <c r="V36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2810,25 +2810,25 @@
           <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n"/>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>communication process attribute</t>
-        </is>
-      </c>
+      <c r="G37" s="2" t="n"/>
       <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I37" s="2" t="n"/>
       <c r="J37" s="2" t="n"/>
       <c r="K37" s="2" t="n"/>
       <c r="L37" s="2" t="n"/>
       <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="n"/>
       <c r="Q37" s="2" t="inlineStr">
@@ -2839,16 +2839,16 @@
       <c r="R37" s="2" t="n"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="n"/>
+      <c r="U37" s="2" t="n"/>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T37" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U37" s="2" t="n"/>
-      <c r="V37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2866,25 +2866,25 @@
           <t>A data item that is the output of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n"/>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
+      <c r="G38" s="2" t="n"/>
       <c r="H38" s="2" t="n"/>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I38" s="2" t="n"/>
       <c r="J38" s="2" t="n"/>
       <c r="K38" s="2" t="n"/>
       <c r="L38" s="2" t="n"/>
       <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O38" s="2" t="n"/>
       <c r="P38" s="2" t="n"/>
       <c r="Q38" s="2" t="inlineStr">
@@ -2895,16 +2895,16 @@
       <c r="R38" s="2" t="n"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="n"/>
+      <c r="U38" s="2" t="n"/>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="n"/>
-      <c r="V38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -2922,30 +2922,30 @@
           <t>Cognitive exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D39" s="3" t="n"/>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E39" s="3" t="n"/>
       <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="inlineStr">
-        <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G39" s="3" t="n"/>
       <c r="H39" s="3" t="n"/>
-      <c r="I39" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I39" s="3" t="n"/>
       <c r="J39" s="3" t="n"/>
       <c r="K39" s="3" t="n"/>
-      <c r="L39" s="3" t="n"/>
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="M39" s="3" t="n"/>
-      <c r="N39" s="3" t="n"/>
-      <c r="O39" s="3" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="N39" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O39" s="3" t="n"/>
       <c r="P39" s="3" t="n"/>
       <c r="Q39" s="3" t="inlineStr">
         <is>
@@ -2955,16 +2955,16 @@
       <c r="R39" s="3" t="n"/>
       <c r="S39" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T39" s="3" t="n"/>
+      <c r="U39" s="3" t="n"/>
+      <c r="V39" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T39" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U39" s="3" t="n"/>
-      <c r="V39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -2982,30 +2982,30 @@
           <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n"/>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="n"/>
-      <c r="G40" s="3" t="inlineStr">
-        <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G40" s="3" t="n"/>
       <c r="H40" s="3" t="n"/>
-      <c r="I40" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I40" s="3" t="n"/>
       <c r="J40" s="3" t="n"/>
       <c r="K40" s="3" t="n"/>
-      <c r="L40" s="3" t="n"/>
+      <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="M40" s="3" t="n"/>
-      <c r="N40" s="3" t="n"/>
-      <c r="O40" s="3" t="inlineStr">
-        <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="N40" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O40" s="3" t="n"/>
       <c r="P40" s="3" t="n"/>
       <c r="Q40" s="3" t="inlineStr">
         <is>
@@ -3015,16 +3015,16 @@
       <c r="R40" s="3" t="n"/>
       <c r="S40" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T40" s="3" t="n"/>
+      <c r="U40" s="3" t="n"/>
+      <c r="V40" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T40" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U40" s="3" t="n"/>
-      <c r="V40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -3042,30 +3042,30 @@
           <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="n"/>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E41" s="3" t="n"/>
       <c r="F41" s="3" t="n"/>
-      <c r="G41" s="3" t="inlineStr">
-        <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G41" s="3" t="n"/>
       <c r="H41" s="3" t="n"/>
-      <c r="I41" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I41" s="3" t="n"/>
       <c r="J41" s="3" t="n"/>
       <c r="K41" s="3" t="n"/>
-      <c r="L41" s="3" t="n"/>
+      <c r="L41" s="3" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="M41" s="3" t="n"/>
-      <c r="N41" s="3" t="n"/>
-      <c r="O41" s="3" t="inlineStr">
-        <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="N41" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O41" s="3" t="n"/>
       <c r="P41" s="3" t="n"/>
       <c r="Q41" s="3" t="inlineStr">
         <is>
@@ -3075,16 +3075,16 @@
       <c r="R41" s="3" t="n"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T41" s="3" t="n"/>
+      <c r="U41" s="3" t="n"/>
+      <c r="V41" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T41" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U41" s="3" t="n"/>
-      <c r="V41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -3102,30 +3102,30 @@
           <t>Physical exertion expended on a behaviour that is high</t>
         </is>
       </c>
-      <c r="D42" s="3" t="n"/>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E42" s="3" t="n"/>
       <c r="F42" s="3" t="n"/>
-      <c r="G42" s="3" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G42" s="3" t="n"/>
       <c r="H42" s="3" t="n"/>
-      <c r="I42" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I42" s="3" t="n"/>
       <c r="J42" s="3" t="n"/>
       <c r="K42" s="3" t="n"/>
-      <c r="L42" s="3" t="n"/>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="M42" s="3" t="n"/>
-      <c r="N42" s="3" t="n"/>
-      <c r="O42" s="3" t="inlineStr">
-        <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O42" s="3" t="n"/>
       <c r="P42" s="3" t="n"/>
       <c r="Q42" s="3" t="inlineStr">
         <is>
@@ -3135,16 +3135,16 @@
       <c r="R42" s="3" t="n"/>
       <c r="S42" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T42" s="3" t="n"/>
+      <c r="U42" s="3" t="n"/>
+      <c r="V42" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T42" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U42" s="3" t="n"/>
-      <c r="V42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -3162,29 +3162,29 @@
           <t>A process that is an individual human behaviour or a population behaviour.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="inlineStr">
         <is>
           <t>"individual human behaviour" OR "population behaviour"</t>
         </is>
       </c>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I43" s="2" t="n"/>
       <c r="J43" s="2" t="n"/>
       <c r="K43" s="2" t="n"/>
       <c r="L43" s="2" t="n"/>
       <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O43" s="2" t="n"/>
       <c r="P43" s="2" t="n"/>
       <c r="Q43" s="2" t="inlineStr">
@@ -3195,16 +3195,16 @@
       <c r="R43" s="2" t="n"/>
       <c r="S43" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
           <t>BG; PS</t>
         </is>
       </c>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -3222,25 +3222,25 @@
           <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n"/>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
+      <c r="G44" s="2" t="n"/>
       <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I44" s="2" t="n"/>
       <c r="J44" s="2" t="n"/>
       <c r="K44" s="2" t="n"/>
       <c r="L44" s="2" t="n"/>
       <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O44" s="2" t="n"/>
       <c r="P44" s="2" t="n"/>
       <c r="Q44" s="2" t="inlineStr">
@@ -3251,16 +3251,16 @@
       <c r="R44" s="2" t="n"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="n"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
           <t>JH; AW</t>
         </is>
       </c>
-      <c r="T44" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3278,25 +3278,25 @@
           <t>A process that is produced by a person.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n"/>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G45" s="2" t="n"/>
       <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I45" s="2" t="n"/>
       <c r="J45" s="2" t="n"/>
       <c r="K45" s="2" t="n"/>
       <c r="L45" s="2" t="n"/>
       <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O45" s="2" t="n"/>
       <c r="P45" s="2" t="n"/>
       <c r="Q45" s="2" t="inlineStr">
@@ -3307,16 +3307,16 @@
       <c r="R45" s="2" t="n"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="n"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T45" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -3334,29 +3334,29 @@
           <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
-      <c r="D46" s="2" t="n"/>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
+      <c r="G46" s="2" t="n"/>
       <c r="H46" s="2" t="n"/>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="J46" s="2" t="n"/>
       <c r="K46" s="2" t="n"/>
       <c r="L46" s="2" t="n"/>
-      <c r="M46" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
-      <c r="N46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O46" s="2" t="n"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
@@ -3371,16 +3371,16 @@
       <c r="R46" s="2" t="n"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="n"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="n"/>
-      <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3398,25 +3398,25 @@
           <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n"/>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
+      <c r="G47" s="2" t="n"/>
       <c r="H47" s="2" t="n"/>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I47" s="2" t="n"/>
       <c r="J47" s="2" t="n"/>
       <c r="K47" s="2" t="n"/>
       <c r="L47" s="2" t="n"/>
       <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="n"/>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O47" s="2" t="n"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
@@ -3431,16 +3431,16 @@
       <c r="R47" s="2" t="n"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="n"/>
+      <c r="U47" s="2" t="n"/>
+      <c r="V47" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T47" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U47" s="2" t="n"/>
-      <c r="V47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3458,25 +3458,25 @@
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n"/>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
+      <c r="G48" s="2" t="n"/>
       <c r="H48" s="2" t="n"/>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I48" s="2" t="n"/>
       <c r="J48" s="2" t="n"/>
       <c r="K48" s="2" t="n"/>
       <c r="L48" s="2" t="n"/>
       <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="n"/>
       <c r="Q48" s="2" t="inlineStr">
@@ -3487,16 +3487,16 @@
       <c r="R48" s="2" t="n"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="n"/>
+      <c r="U48" s="2" t="n"/>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T48" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U48" s="2" t="n"/>
-      <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3514,25 +3514,25 @@
           <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n"/>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
+      <c r="G49" s="2" t="n"/>
       <c r="H49" s="2" t="n"/>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I49" s="2" t="n"/>
       <c r="J49" s="2" t="n"/>
       <c r="K49" s="2" t="n"/>
       <c r="L49" s="2" t="n"/>
       <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O49" s="2" t="n"/>
       <c r="P49" s="2" t="n"/>
       <c r="Q49" s="2" t="inlineStr">
@@ -3543,16 +3543,16 @@
       <c r="R49" s="2" t="n"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="n"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="inlineStr">
+        <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T49" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U49" s="2" t="n"/>
-      <c r="V49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3570,25 +3570,25 @@
           <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n"/>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
+      <c r="G50" s="2" t="n"/>
       <c r="H50" s="2" t="n"/>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I50" s="2" t="n"/>
       <c r="J50" s="2" t="n"/>
       <c r="K50" s="2" t="n"/>
       <c r="L50" s="2" t="n"/>
       <c r="M50" s="2" t="n"/>
-      <c r="N50" s="2" t="n"/>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O50" s="2" t="n"/>
       <c r="P50" s="2" t="n"/>
       <c r="Q50" s="2" t="inlineStr">
@@ -3599,16 +3599,16 @@
       <c r="R50" s="2" t="n"/>
       <c r="S50" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="n"/>
+      <c r="U50" s="2" t="n"/>
+      <c r="V50" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T50" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U50" s="2" t="n"/>
-      <c r="V50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3626,25 +3626,25 @@
           <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n"/>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G51" s="2" t="n"/>
       <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I51" s="2" t="n"/>
       <c r="J51" s="2" t="n"/>
       <c r="K51" s="2" t="n"/>
       <c r="L51" s="2" t="n"/>
       <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="n"/>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
@@ -3659,16 +3659,16 @@
       <c r="R51" s="2" t="n"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="n"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="inlineStr">
+        <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T51" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U51" s="2" t="n"/>
-      <c r="V51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3686,25 +3686,25 @@
           <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n"/>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>human population</t>
-        </is>
-      </c>
+      <c r="G52" s="2" t="n"/>
       <c r="H52" s="2" t="n"/>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I52" s="2" t="n"/>
       <c r="J52" s="2" t="n"/>
       <c r="K52" s="2" t="n"/>
       <c r="L52" s="2" t="n"/>
       <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O52" s="2" t="n"/>
       <c r="P52" s="2" t="n"/>
       <c r="Q52" s="2" t="inlineStr">
@@ -3715,16 +3715,16 @@
       <c r="R52" s="2" t="n"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="n"/>
+      <c r="U52" s="2" t="n"/>
+      <c r="V52" s="2" t="inlineStr">
+        <is>
           <t>AW; PS</t>
         </is>
       </c>
-      <c r="T52" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U52" s="2" t="n"/>
-      <c r="V52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -3742,30 +3742,30 @@
           <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D53" s="3" t="n"/>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E53" s="3" t="n"/>
       <c r="F53" s="3" t="n"/>
-      <c r="G53" s="3" t="inlineStr">
-        <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G53" s="3" t="n"/>
       <c r="H53" s="3" t="n"/>
-      <c r="I53" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I53" s="3" t="n"/>
       <c r="J53" s="3" t="n"/>
       <c r="K53" s="3" t="n"/>
-      <c r="L53" s="3" t="n"/>
+      <c r="L53" s="3" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="M53" s="3" t="n"/>
-      <c r="N53" s="3" t="n"/>
-      <c r="O53" s="3" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="N53" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O53" s="3" t="n"/>
       <c r="P53" s="3" t="n"/>
       <c r="Q53" s="3" t="inlineStr">
         <is>
@@ -3775,16 +3775,16 @@
       <c r="R53" s="3" t="n"/>
       <c r="S53" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T53" s="3" t="n"/>
+      <c r="U53" s="3" t="n"/>
+      <c r="V53" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T53" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U53" s="3" t="n"/>
-      <c r="V53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -3802,30 +3802,30 @@
           <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D54" s="3" t="n"/>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E54" s="3" t="n"/>
       <c r="F54" s="3" t="n"/>
-      <c r="G54" s="3" t="inlineStr">
-        <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G54" s="3" t="n"/>
       <c r="H54" s="3" t="n"/>
-      <c r="I54" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I54" s="3" t="n"/>
       <c r="J54" s="3" t="n"/>
       <c r="K54" s="3" t="n"/>
-      <c r="L54" s="3" t="n"/>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="M54" s="3" t="n"/>
-      <c r="N54" s="3" t="n"/>
-      <c r="O54" s="3" t="inlineStr">
-        <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="N54" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="n"/>
       <c r="P54" s="3" t="n"/>
       <c r="Q54" s="3" t="inlineStr">
         <is>
@@ -3835,16 +3835,16 @@
       <c r="R54" s="3" t="n"/>
       <c r="S54" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T54" s="3" t="n"/>
+      <c r="U54" s="3" t="n"/>
+      <c r="V54" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T54" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U54" s="3" t="n"/>
-      <c r="V54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -3862,30 +3862,30 @@
           <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D55" s="3" t="n"/>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E55" s="3" t="n"/>
       <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="inlineStr">
-        <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G55" s="3" t="n"/>
       <c r="H55" s="3" t="n"/>
-      <c r="I55" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I55" s="3" t="n"/>
       <c r="J55" s="3" t="n"/>
       <c r="K55" s="3" t="n"/>
-      <c r="L55" s="3" t="n"/>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="M55" s="3" t="n"/>
-      <c r="N55" s="3" t="n"/>
-      <c r="O55" s="3" t="inlineStr">
-        <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="N55" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O55" s="3" t="n"/>
       <c r="P55" s="3" t="n"/>
       <c r="Q55" s="3" t="inlineStr">
         <is>
@@ -3895,16 +3895,16 @@
       <c r="R55" s="3" t="n"/>
       <c r="S55" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T55" s="3" t="n"/>
+      <c r="U55" s="3" t="n"/>
+      <c r="V55" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T55" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U55" s="3" t="n"/>
-      <c r="V55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -3922,30 +3922,30 @@
           <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D56" s="3" t="n"/>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E56" s="3" t="n"/>
       <c r="F56" s="3" t="n"/>
-      <c r="G56" s="3" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G56" s="3" t="n"/>
       <c r="H56" s="3" t="n"/>
-      <c r="I56" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I56" s="3" t="n"/>
       <c r="J56" s="3" t="n"/>
       <c r="K56" s="3" t="n"/>
-      <c r="L56" s="3" t="n"/>
+      <c r="L56" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+        </is>
+      </c>
       <c r="M56" s="3" t="n"/>
-      <c r="N56" s="3" t="n"/>
-      <c r="O56" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
-        </is>
-      </c>
+      <c r="N56" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O56" s="3" t="n"/>
       <c r="P56" s="3" t="n"/>
       <c r="Q56" s="3" t="inlineStr">
         <is>
@@ -3955,16 +3955,16 @@
       <c r="R56" s="3" t="n"/>
       <c r="S56" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T56" s="3" t="n"/>
+      <c r="U56" s="3" t="n"/>
+      <c r="V56" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T56" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U56" s="3" t="n"/>
-      <c r="V56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -3982,30 +3982,30 @@
           <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D57" s="3" t="n"/>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E57" s="3" t="n"/>
       <c r="F57" s="3" t="n"/>
-      <c r="G57" s="3" t="inlineStr">
-        <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G57" s="3" t="n"/>
       <c r="H57" s="3" t="n"/>
-      <c r="I57" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I57" s="3" t="n"/>
       <c r="J57" s="3" t="n"/>
       <c r="K57" s="3" t="n"/>
-      <c r="L57" s="3" t="n"/>
+      <c r="L57" s="3" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="M57" s="3" t="n"/>
-      <c r="N57" s="3" t="n"/>
-      <c r="O57" s="3" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="N57" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O57" s="3" t="n"/>
       <c r="P57" s="3" t="n"/>
       <c r="Q57" s="3" t="inlineStr">
         <is>
@@ -4015,16 +4015,16 @@
       <c r="R57" s="3" t="n"/>
       <c r="S57" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T57" s="3" t="n"/>
+      <c r="U57" s="3" t="n"/>
+      <c r="V57" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T57" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U57" s="3" t="n"/>
-      <c r="V57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
@@ -4042,30 +4042,30 @@
           <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D58" s="3" t="n"/>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E58" s="3" t="n"/>
       <c r="F58" s="3" t="n"/>
-      <c r="G58" s="3" t="inlineStr">
-        <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G58" s="3" t="n"/>
       <c r="H58" s="3" t="n"/>
-      <c r="I58" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I58" s="3" t="n"/>
       <c r="J58" s="3" t="n"/>
       <c r="K58" s="3" t="n"/>
-      <c r="L58" s="3" t="n"/>
+      <c r="L58" s="3" t="inlineStr">
+        <is>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="M58" s="3" t="n"/>
-      <c r="N58" s="3" t="n"/>
-      <c r="O58" s="3" t="inlineStr">
-        <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="N58" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O58" s="3" t="n"/>
       <c r="P58" s="3" t="n"/>
       <c r="Q58" s="3" t="inlineStr">
         <is>
@@ -4075,16 +4075,16 @@
       <c r="R58" s="3" t="n"/>
       <c r="S58" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T58" s="3" t="n"/>
+      <c r="U58" s="3" t="n"/>
+      <c r="V58" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T58" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U58" s="3" t="n"/>
-      <c r="V58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -4102,30 +4102,30 @@
           <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D59" s="3" t="n"/>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E59" s="3" t="n"/>
       <c r="F59" s="3" t="n"/>
-      <c r="G59" s="3" t="inlineStr">
-        <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G59" s="3" t="n"/>
       <c r="H59" s="3" t="n"/>
-      <c r="I59" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I59" s="3" t="n"/>
       <c r="J59" s="3" t="n"/>
       <c r="K59" s="3" t="n"/>
-      <c r="L59" s="3" t="n"/>
+      <c r="L59" s="3" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="M59" s="3" t="n"/>
-      <c r="N59" s="3" t="n"/>
-      <c r="O59" s="3" t="inlineStr">
-        <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="N59" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O59" s="3" t="n"/>
       <c r="P59" s="3" t="n"/>
       <c r="Q59" s="3" t="inlineStr">
         <is>
@@ -4135,16 +4135,16 @@
       <c r="R59" s="3" t="n"/>
       <c r="S59" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T59" s="3" t="n"/>
+      <c r="U59" s="3" t="n"/>
+      <c r="V59" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T59" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U59" s="3" t="n"/>
-      <c r="V59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -4162,30 +4162,30 @@
           <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D60" s="3" t="n"/>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E60" s="3" t="n"/>
       <c r="F60" s="3" t="n"/>
-      <c r="G60" s="3" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="G60" s="3" t="n"/>
       <c r="H60" s="3" t="n"/>
-      <c r="I60" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I60" s="3" t="n"/>
       <c r="J60" s="3" t="n"/>
       <c r="K60" s="3" t="n"/>
-      <c r="L60" s="3" t="n"/>
+      <c r="L60" s="3" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="M60" s="3" t="n"/>
-      <c r="N60" s="3" t="n"/>
-      <c r="O60" s="3" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="N60" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O60" s="3" t="n"/>
       <c r="P60" s="3" t="n"/>
       <c r="Q60" s="3" t="inlineStr">
         <is>
@@ -4195,16 +4195,16 @@
       <c r="R60" s="3" t="n"/>
       <c r="S60" s="3" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T60" s="3" t="n"/>
+      <c r="U60" s="3" t="n"/>
+      <c r="V60" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T60" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U60" s="3" t="n"/>
-      <c r="V60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -4222,33 +4222,33 @@
           <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="F61" s="2" t="n"/>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>participant engagement with intervention</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G61" s="2" t="n"/>
+      <c r="H61" s="2" t="n"/>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>BCI engagement</t>
         </is>
       </c>
       <c r="J61" s="2" t="n"/>
       <c r="K61" s="2" t="n"/>
       <c r="L61" s="2" t="n"/>
-      <c r="M61" s="2" t="inlineStr">
-        <is>
-          <t>BCI engagement</t>
-        </is>
-      </c>
-      <c r="N61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O61" s="2" t="n"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
@@ -4263,16 +4263,16 @@
       <c r="R61" s="2" t="n"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="n"/>
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="inlineStr">
+        <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
-      <c r="T61" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U61" s="2" t="n"/>
-      <c r="V61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -4287,32 +4287,32 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>An individual human activity that is performed by someone in an intervention population, prompted by this intervention and influences the effects of the intervention on its outcome.</t>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
       <c r="H62" s="2" t="n"/>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I62" s="2" t="n"/>
       <c r="J62" s="2" t="n"/>
       <c r="K62" s="2" t="n"/>
       <c r="L62" s="2" t="n"/>
       <c r="M62" s="2" t="n"/>
-      <c r="N62" s="2" t="n"/>
+      <c r="N62" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O62" s="2" t="n"/>
       <c r="P62" s="2" t="n"/>
       <c r="Q62" s="2" t="n">
@@ -4321,16 +4321,16 @@
       <c r="R62" s="2" t="n"/>
       <c r="S62" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T62" s="2" t="n"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T62" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U62" s="2" t="n"/>
-      <c r="V62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -4348,29 +4348,29 @@
           <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n"/>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="G63" s="2" t="n"/>
       <c r="H63" s="2" t="n"/>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="J63" s="2" t="n"/>
       <c r="K63" s="2" t="n"/>
       <c r="L63" s="2" t="n"/>
-      <c r="M63" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
-      <c r="N63" s="2" t="n"/>
+      <c r="M63" s="2" t="n"/>
+      <c r="N63" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O63" s="2" t="n"/>
       <c r="P63" s="2" t="n"/>
       <c r="Q63" s="2" t="inlineStr">
@@ -4381,16 +4381,16 @@
       <c r="R63" s="2" t="n"/>
       <c r="S63" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="n"/>
+      <c r="U63" s="2" t="n"/>
+      <c r="V63" s="2" t="inlineStr">
+        <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T63" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U63" s="2" t="n"/>
-      <c r="V63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -4410,27 +4410,27 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a process.</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>An attribute of a process.</t>
         </is>
       </c>
       <c r="H64" s="2" t="n"/>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I64" s="2" t="n"/>
       <c r="J64" s="2" t="n"/>
       <c r="K64" s="2" t="n"/>
       <c r="L64" s="2" t="n"/>
       <c r="M64" s="2" t="n"/>
-      <c r="N64" s="2" t="n"/>
+      <c r="N64" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O64" s="2" t="n"/>
       <c r="P64" s="2" t="inlineStr">
         <is>
@@ -4445,16 +4445,16 @@
       <c r="R64" s="2" t="n"/>
       <c r="S64" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="n"/>
+      <c r="U64" s="2" t="n"/>
+      <c r="V64" s="2" t="inlineStr">
+        <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T64" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U64" s="2" t="n"/>
-      <c r="V64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -4472,25 +4472,25 @@
           <t>A population whose behaviour is studied in a research study.</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n"/>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>human population</t>
-        </is>
-      </c>
+      <c r="G65" s="2" t="n"/>
       <c r="H65" s="2" t="n"/>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I65" s="2" t="n"/>
       <c r="J65" s="2" t="n"/>
       <c r="K65" s="2" t="n"/>
       <c r="L65" s="2" t="n"/>
       <c r="M65" s="2" t="n"/>
-      <c r="N65" s="2" t="n"/>
+      <c r="N65" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="O65" s="2" t="n"/>
       <c r="P65" s="2" t="n"/>
       <c r="Q65" s="2" t="inlineStr">
@@ -4501,16 +4501,16 @@
       <c r="R65" s="2" t="n"/>
       <c r="S65" s="2" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="n"/>
+      <c r="U65" s="2" t="n"/>
+      <c r="V65" s="2" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T65" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U65" s="2" t="n"/>
-      <c r="V65" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -461,92 +461,92 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Definition source</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Curator note</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has process part'</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'realises'</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>To be reviewed by</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Logical definition</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>BFO entity</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Definition source</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Logical definition</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'has process part'</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'realises'</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Curator note</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Curator</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Fuzzy set</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Why fuzzy</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>To be reviewed by</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer query</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Curator</t>
         </is>
       </c>
     </row>
@@ -573,50 +573,50 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>behaviour change intervention attribute</t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour change intervention.</t>
-        </is>
-      </c>
+      <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention attribute</t>
-        </is>
-      </c>
+      <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P2" s="2" t="n"/>
       <c r="Q2" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>An attribute of a behaviour change intervention.</t>
         </is>
       </c>
       <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="inlineStr">
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -639,48 +639,48 @@
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+      <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>A criterion for selecting people for a BCI population.</t>
-        </is>
-      </c>
+      <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A criterion for selecting people for a BCI population.</t>
         </is>
       </c>
       <c r="R3" s="2" t="n"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="inlineStr">
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr">
         <is>
           <t>RW; JH</t>
         </is>
       </c>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -705,17 +705,13 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>BCI</t>
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
+      <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention content; participant engagement with behaviour change intervention; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
@@ -726,37 +722,41 @@
           <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n"/>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
           <t>Involves use of products, services, activities, rules or environmental objects.</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="inlineStr">
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
         <is>
           <t>JH; BG; PS</t>
         </is>
       </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -781,50 +781,50 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>BCI comparison evaluation study</t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>BCI comparison evaluation study</t>
-        </is>
-      </c>
+      <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
           <t>Comparison involves identifying differences between the entities in the scenarios.</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="n"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="inlineStr">
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -849,50 +849,50 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>BCI content</t>
         </is>
       </c>
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>BCI content</t>
-        </is>
-      </c>
+      <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
         </is>
       </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="inlineStr">
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -917,50 +917,50 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BCI context</t>
-        </is>
-      </c>
+      <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
           <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q7" s="2" t="n"/>
       <c r="R7" s="2" t="n"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="inlineStr">
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -985,46 +985,46 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BCI delivery</t>
-        </is>
-      </c>
+      <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P8" s="2" t="n"/>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="n"/>
-      <c r="U8" s="2" t="n"/>
-      <c r="V8" s="2" t="inlineStr">
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1049,54 +1049,54 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BCI dose</t>
-        </is>
-      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
+          <t>Published</t>
         </is>
       </c>
       <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
         </is>
       </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="n"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="n"/>
-      <c r="V9" s="2" t="inlineStr">
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1121,50 +1121,50 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BCI effect estimate</t>
-        </is>
-      </c>
+      <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
           <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
         </is>
       </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="n"/>
-      <c r="V10" s="2" t="inlineStr">
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
         <is>
           <t>JH; RW; BG</t>
         </is>
       </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1189,46 +1189,46 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>information content entoty</t>
+          <t>BCI evaluation finding</t>
         </is>
       </c>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="n"/>
       <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>BCI evaluation finding</t>
-        </is>
-      </c>
+      <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q11" s="2" t="n"/>
       <c r="R11" s="2" t="n"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="inlineStr">
+          <t>information content entoty</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
         <is>
           <t>JH; RW; BG</t>
         </is>
       </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1253,50 +1253,50 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>generally dependent continuant</t>
+          <t>BCI evaluation report</t>
         </is>
       </c>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>BCI evaluation report</t>
-        </is>
-      </c>
+      <c r="I12" s="2" t="n"/>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
           <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
         </is>
       </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="n"/>
-      <c r="V12" s="2" t="inlineStr">
+          <t>generally dependent continuant</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1321,46 +1321,46 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>BCI evaluation study</t>
         </is>
       </c>
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
       <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>BCI evaluation study</t>
-        </is>
-      </c>
+      <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q13" s="2" t="n"/>
       <c r="R13" s="2" t="n"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="n"/>
-      <c r="V13" s="2" t="inlineStr">
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1385,46 +1385,46 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>BCI evaluation study plan</t>
         </is>
       </c>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>BCI evaluation study plan</t>
-        </is>
-      </c>
+      <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="n"/>
-      <c r="V14" s="2" t="inlineStr">
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1449,46 +1449,46 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="n"/>
       <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>BCI evaluation study risk of bias or error</t>
-        </is>
-      </c>
+      <c r="I15" s="2" t="n"/>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q15" s="2" t="n"/>
       <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="2" t="n"/>
-      <c r="V15" s="2" t="inlineStr">
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1513,46 +1513,46 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
       <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="n"/>
       <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>BCI mechanism of action; MOA; BCI MOA</t>
-        </is>
-      </c>
+      <c r="I16" s="2" t="n"/>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q16" s="2" t="n"/>
       <c r="R16" s="2" t="n"/>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="n"/>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="inlineStr">
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
         <is>
           <t>PS; JH; RW</t>
         </is>
       </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1577,46 +1577,46 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
       <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="n"/>
       <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>BCI mode of delivery; BCI MOD; MOD</t>
-        </is>
-      </c>
+      <c r="I17" s="2" t="n"/>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q17" s="2" t="n"/>
       <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="n"/>
-      <c r="U17" s="2" t="n"/>
-      <c r="V17" s="2" t="inlineStr">
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1646,33 +1646,37 @@
       <c r="I18" s="2" t="n"/>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="n"/>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="inlineStr">
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>'human behaviour' AND 'intervention outcome'</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="n"/>
+      <c r="T18" s="2" t="inlineStr">
         <is>
           <t>JH; BG; PS</t>
         </is>
       </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1697,50 +1701,50 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>information content entoty</t>
+          <t>BCI outcome estimate</t>
         </is>
       </c>
       <c r="F19" s="2" t="n"/>
       <c r="G19" s="2" t="n"/>
       <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>BCI outcome estimate</t>
-        </is>
-      </c>
+      <c r="I19" s="2" t="n"/>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
           <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q19" s="2" t="n"/>
       <c r="R19" s="2" t="n"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="n"/>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="inlineStr">
+          <t>information content entoty</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1763,44 +1767,44 @@
           <t>environmental system</t>
         </is>
       </c>
-      <c r="E20" s="2" t="n"/>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>BCI physical setting</t>
+        </is>
+      </c>
       <c r="F20" s="2" t="n"/>
       <c r="G20" s="2" t="n"/>
       <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>BCI physical setting</t>
-        </is>
-      </c>
+      <c r="I20" s="2" t="n"/>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="inlineStr">
+      <c r="S20" s="2" t="n"/>
+      <c r="T20" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1823,44 +1827,44 @@
           <t>intervention population</t>
         </is>
       </c>
-      <c r="E21" s="2" t="n"/>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>BCI population</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="n"/>
       <c r="G21" s="2" t="n"/>
       <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>BCI population</t>
-        </is>
-      </c>
+      <c r="I21" s="2" t="n"/>
       <c r="J21" s="2" t="n"/>
       <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q21" s="2" t="n"/>
       <c r="R21" s="2" t="n"/>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="n"/>
-      <c r="U21" s="2" t="n"/>
-      <c r="V21" s="2" t="inlineStr">
+      <c r="S21" s="2" t="n"/>
+      <c r="T21" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1883,48 +1887,48 @@
           <t>planned process</t>
         </is>
       </c>
-      <c r="E22" s="2" t="n"/>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>BCI scenario</t>
+        </is>
+      </c>
       <c r="F22" s="2" t="n"/>
       <c r="G22" s="2" t="n"/>
       <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>BCI scenario</t>
-        </is>
-      </c>
+      <c r="I22" s="2" t="n"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention outcome behaviour</t>
         </is>
       </c>
       <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q22" s="2" t="n"/>
       <c r="R22" s="2" t="n"/>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="n"/>
-      <c r="U22" s="2" t="n"/>
-      <c r="V22" s="2" t="inlineStr">
+      <c r="S22" s="2" t="n"/>
+      <c r="T22" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1947,44 +1951,44 @@
           <t>plan</t>
         </is>
       </c>
-      <c r="E23" s="2" t="n"/>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>BCI scenario plan</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="n"/>
       <c r="G23" s="2" t="n"/>
       <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>BCI scenario plan</t>
-        </is>
-      </c>
+      <c r="I23" s="2" t="n"/>
       <c r="J23" s="2" t="n"/>
       <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P23" s="2" t="n"/>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q23" s="2" t="n"/>
       <c r="R23" s="2" t="n"/>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="n"/>
-      <c r="U23" s="2" t="n"/>
-      <c r="V23" s="2" t="inlineStr">
+      <c r="S23" s="2" t="n"/>
+      <c r="T23" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -2007,44 +2011,44 @@
           <t>report</t>
         </is>
       </c>
-      <c r="E24" s="2" t="n"/>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>BCI scenario report</t>
+        </is>
+      </c>
       <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="n"/>
       <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>BCI scenario report</t>
-        </is>
-      </c>
+      <c r="I24" s="2" t="n"/>
       <c r="J24" s="2" t="n"/>
       <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P24" s="2" t="n"/>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q24" s="2" t="n"/>
       <c r="R24" s="2" t="n"/>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="n"/>
-      <c r="U24" s="2" t="n"/>
-      <c r="V24" s="2" t="inlineStr">
+      <c r="S24" s="2" t="n"/>
+      <c r="T24" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -2067,48 +2071,48 @@
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="E25" s="2" t="n"/>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="n"/>
       <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
+      <c r="I25" s="2" t="n"/>
       <c r="J25" s="2" t="n"/>
       <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
           <t>Includes the start and end of the BCI and its parts.</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q25" s="2" t="n"/>
       <c r="R25" s="2" t="n"/>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="n"/>
-      <c r="U25" s="2" t="n"/>
-      <c r="V25" s="2" t="inlineStr">
+      <c r="S25" s="2" t="n"/>
+      <c r="T25" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -2131,48 +2135,48 @@
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E26" s="2" t="n"/>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>BCI setting</t>
+        </is>
+      </c>
       <c r="F26" s="2" t="n"/>
       <c r="G26" s="2" t="n"/>
       <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>BCI setting</t>
-        </is>
-      </c>
+      <c r="I26" s="2" t="n"/>
       <c r="J26" s="2" t="n"/>
       <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="n"/>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M26" s="2" t="n"/>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
           <t>Includes as parts social setting and physical setting.</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q26" s="2" t="n"/>
       <c r="R26" s="2" t="n"/>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="n"/>
-      <c r="U26" s="2" t="n"/>
-      <c r="V26" s="2" t="inlineStr">
+      <c r="S26" s="2" t="n"/>
+      <c r="T26" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2195,44 +2199,44 @@
           <t>human population</t>
         </is>
       </c>
-      <c r="E27" s="2" t="n"/>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>BCI social setting</t>
+        </is>
+      </c>
       <c r="F27" s="2" t="n"/>
       <c r="G27" s="2" t="n"/>
       <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>BCI social setting</t>
-        </is>
-      </c>
+      <c r="I27" s="2" t="n"/>
       <c r="J27" s="2" t="n"/>
       <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q27" s="2" t="n"/>
       <c r="R27" s="2" t="n"/>
-      <c r="S27" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="n"/>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="inlineStr">
+      <c r="S27" s="2" t="n"/>
+      <c r="T27" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2255,48 +2259,48 @@
           <t>role</t>
         </is>
       </c>
-      <c r="E28" s="2" t="n"/>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>BCI source</t>
+        </is>
+      </c>
       <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="n"/>
       <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>BCI source</t>
-        </is>
-      </c>
+      <c r="I28" s="2" t="n"/>
       <c r="J28" s="2" t="n"/>
       <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
           <t>This includes individual people, groups of people, and organisations.</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q28" s="2" t="n"/>
       <c r="R28" s="2" t="n"/>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="n"/>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="inlineStr">
+      <c r="S28" s="2" t="n"/>
+      <c r="T28" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2319,48 +2323,48 @@
           <t>role</t>
         </is>
       </c>
-      <c r="E29" s="2" t="n"/>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>BCI study investigator</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="n"/>
       <c r="G29" s="2" t="n"/>
       <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>BCI study investigator</t>
-        </is>
-      </c>
+      <c r="I29" s="2" t="n"/>
       <c r="J29" s="2" t="n"/>
       <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
         </is>
       </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q29" s="2" t="n"/>
       <c r="R29" s="2" t="n"/>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="n"/>
-      <c r="U29" s="2" t="n"/>
-      <c r="V29" s="2" t="inlineStr">
+      <c r="S29" s="2" t="n"/>
+      <c r="T29" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2383,44 +2387,44 @@
           <t>research study sample</t>
         </is>
       </c>
-      <c r="E30" s="2" t="n"/>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>BCI study sample</t>
+        </is>
+      </c>
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="n"/>
       <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>BCI study sample</t>
-        </is>
-      </c>
+      <c r="I30" s="2" t="n"/>
       <c r="J30" s="2" t="n"/>
       <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q30" s="2" t="n"/>
       <c r="R30" s="2" t="n"/>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="n"/>
-      <c r="U30" s="2" t="n"/>
-      <c r="V30" s="2" t="inlineStr">
+      <c r="S30" s="2" t="n"/>
+      <c r="T30" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2443,48 +2447,48 @@
           <t>communication style</t>
         </is>
       </c>
-      <c r="E31" s="2" t="n"/>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>BCI style of delivery</t>
+        </is>
+      </c>
       <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="n"/>
       <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>BCI style of delivery</t>
-        </is>
-      </c>
+      <c r="I31" s="2" t="n"/>
       <c r="J31" s="2" t="n"/>
       <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M31" s="2" t="n"/>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
           <t>An example is cold and distant vs. warm and accepting.</t>
         </is>
       </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q31" s="2" t="n"/>
       <c r="R31" s="2" t="n"/>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T31" s="2" t="n"/>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="inlineStr">
+      <c r="S31" s="2" t="n"/>
+      <c r="T31" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2507,33 +2511,33 @@
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="E32" s="2" t="n"/>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>BCI tailoring</t>
+        </is>
+      </c>
       <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>BCI tailoring</t>
-        </is>
-      </c>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="n"/>
       <c r="J32" s="2" t="n"/>
       <c r="K32" s="2" t="n"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="M32" s="2" t="n"/>
-      <c r="N32" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
           <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
@@ -2541,22 +2545,22 @@
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
         </is>
       </c>
       <c r="R32" s="2" t="n"/>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="n"/>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="inlineStr">
+      <c r="S32" s="2" t="n"/>
+      <c r="T32" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2579,44 +2583,44 @@
           <t>process</t>
         </is>
       </c>
-      <c r="E33" s="2" t="n"/>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal context</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="n"/>
       <c r="G33" s="2" t="n"/>
       <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>BCI temporal context</t>
-        </is>
-      </c>
+      <c r="I33" s="2" t="n"/>
       <c r="J33" s="2" t="n"/>
       <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P33" s="2" t="n"/>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q33" s="2" t="n"/>
       <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T33" s="2" t="n"/>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="inlineStr">
+      <c r="S33" s="2" t="n"/>
+      <c r="T33" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2639,44 +2643,44 @@
           <t>behaviour change intervention temporal context</t>
         </is>
       </c>
-      <c r="E34" s="2" t="n"/>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal context event</t>
+        </is>
+      </c>
       <c r="F34" s="2" t="n"/>
       <c r="G34" s="2" t="n"/>
       <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>BCI temporal context event</t>
-        </is>
-      </c>
+      <c r="I34" s="2" t="n"/>
       <c r="J34" s="2" t="n"/>
       <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q34" s="2" t="n"/>
       <c r="R34" s="2" t="n"/>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="n"/>
-      <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="inlineStr">
+      <c r="S34" s="2" t="n"/>
+      <c r="T34" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2699,44 +2703,44 @@
           <t>planned process</t>
         </is>
       </c>
-      <c r="E35" s="2" t="n"/>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
       <c r="F35" s="2" t="n"/>
       <c r="G35" s="2" t="n"/>
       <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>BCT</t>
-        </is>
-      </c>
+      <c r="I35" s="2" t="n"/>
       <c r="J35" s="2" t="n"/>
       <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P35" s="2" t="n"/>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q35" s="2" t="n"/>
       <c r="R35" s="2" t="n"/>
-      <c r="S35" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T35" s="2" t="n"/>
-      <c r="U35" s="2" t="n"/>
-      <c r="V35" s="2" t="inlineStr">
+      <c r="S35" s="2" t="n"/>
+      <c r="T35" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2766,33 +2770,33 @@
       <c r="I36" s="2" t="n"/>
       <c r="J36" s="2" t="n"/>
       <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="n"/>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q36" s="2" t="n"/>
       <c r="R36" s="2" t="n"/>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="n"/>
-      <c r="U36" s="2" t="n"/>
-      <c r="V36" s="2" t="inlineStr">
+      <c r="S36" s="2" t="n"/>
+      <c r="T36" s="2" t="inlineStr">
         <is>
           <t>JH; PS</t>
         </is>
       </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2822,33 +2826,33 @@
       <c r="I37" s="2" t="n"/>
       <c r="J37" s="2" t="n"/>
       <c r="K37" s="2" t="n"/>
-      <c r="L37" s="2" t="n"/>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P37" s="2" t="n"/>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q37" s="2" t="n"/>
       <c r="R37" s="2" t="n"/>
-      <c r="S37" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T37" s="2" t="n"/>
-      <c r="U37" s="2" t="n"/>
-      <c r="V37" s="2" t="inlineStr">
+      <c r="S37" s="2" t="n"/>
+      <c r="T37" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2878,33 +2882,33 @@
       <c r="I38" s="2" t="n"/>
       <c r="J38" s="2" t="n"/>
       <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P38" s="2" t="n"/>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q38" s="2" t="n"/>
       <c r="R38" s="2" t="n"/>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="n"/>
-      <c r="U38" s="2" t="n"/>
-      <c r="V38" s="2" t="inlineStr">
+      <c r="S38" s="2" t="n"/>
+      <c r="T38" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -2930,41 +2934,41 @@
       <c r="E39" s="3" t="n"/>
       <c r="F39" s="3" t="n"/>
       <c r="G39" s="3" t="n"/>
-      <c r="H39" s="3" t="n"/>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="I39" s="3" t="n"/>
       <c r="J39" s="3" t="n"/>
       <c r="K39" s="3" t="n"/>
       <c r="L39" s="3" t="inlineStr">
         <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M39" s="3" t="n"/>
-      <c r="N39" s="3" t="inlineStr">
+      <c r="N39" s="3" t="n"/>
+      <c r="O39" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O39" s="3" t="n"/>
       <c r="P39" s="3" t="n"/>
-      <c r="Q39" s="3" t="inlineStr">
+      <c r="Q39" s="3" t="n"/>
+      <c r="R39" s="3" t="n"/>
+      <c r="S39" s="3" t="n"/>
+      <c r="T39" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U39" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R39" s="3" t="n"/>
-      <c r="S39" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T39" s="3" t="n"/>
-      <c r="U39" s="3" t="n"/>
-      <c r="V39" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -2990,41 +2994,41 @@
       <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="n"/>
-      <c r="H40" s="3" t="n"/>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="I40" s="3" t="n"/>
       <c r="J40" s="3" t="n"/>
       <c r="K40" s="3" t="n"/>
       <c r="L40" s="3" t="inlineStr">
         <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M40" s="3" t="n"/>
-      <c r="N40" s="3" t="inlineStr">
+      <c r="N40" s="3" t="n"/>
+      <c r="O40" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O40" s="3" t="n"/>
       <c r="P40" s="3" t="n"/>
-      <c r="Q40" s="3" t="inlineStr">
+      <c r="Q40" s="3" t="n"/>
+      <c r="R40" s="3" t="n"/>
+      <c r="S40" s="3" t="n"/>
+      <c r="T40" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U40" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R40" s="3" t="n"/>
-      <c r="S40" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T40" s="3" t="n"/>
-      <c r="U40" s="3" t="n"/>
-      <c r="V40" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -3050,41 +3054,41 @@
       <c r="E41" s="3" t="n"/>
       <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="n"/>
-      <c r="H41" s="3" t="n"/>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="I41" s="3" t="n"/>
       <c r="J41" s="3" t="n"/>
       <c r="K41" s="3" t="n"/>
       <c r="L41" s="3" t="inlineStr">
         <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M41" s="3" t="n"/>
-      <c r="N41" s="3" t="inlineStr">
+      <c r="N41" s="3" t="n"/>
+      <c r="O41" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O41" s="3" t="n"/>
       <c r="P41" s="3" t="n"/>
-      <c r="Q41" s="3" t="inlineStr">
+      <c r="Q41" s="3" t="n"/>
+      <c r="R41" s="3" t="n"/>
+      <c r="S41" s="3" t="n"/>
+      <c r="T41" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U41" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R41" s="3" t="n"/>
-      <c r="S41" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T41" s="3" t="n"/>
-      <c r="U41" s="3" t="n"/>
-      <c r="V41" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -3110,41 +3114,41 @@
       <c r="E42" s="3" t="n"/>
       <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="n"/>
-      <c r="H42" s="3" t="n"/>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="I42" s="3" t="n"/>
       <c r="J42" s="3" t="n"/>
       <c r="K42" s="3" t="n"/>
       <c r="L42" s="3" t="inlineStr">
         <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M42" s="3" t="n"/>
-      <c r="N42" s="3" t="inlineStr">
+      <c r="N42" s="3" t="n"/>
+      <c r="O42" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O42" s="3" t="n"/>
       <c r="P42" s="3" t="n"/>
-      <c r="Q42" s="3" t="inlineStr">
+      <c r="Q42" s="3" t="n"/>
+      <c r="R42" s="3" t="n"/>
+      <c r="S42" s="3" t="n"/>
+      <c r="T42" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U42" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R42" s="3" t="n"/>
-      <c r="S42" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T42" s="3" t="n"/>
-      <c r="U42" s="3" t="n"/>
-      <c r="V42" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -3170,41 +3174,41 @@
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
       <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>"individual human behaviour" OR "population behaviour"</t>
-        </is>
-      </c>
+      <c r="H43" s="2" t="n"/>
       <c r="I43" s="2" t="n"/>
       <c r="J43" s="2" t="n"/>
       <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R43" s="2" t="n"/>
-      <c r="S43" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T43" s="2" t="n"/>
-      <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="inlineStr">
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>"individual human behaviour" OR "population behaviour"</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="n"/>
+      <c r="T43" s="2" t="inlineStr">
         <is>
           <t>BG; PS</t>
         </is>
       </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -3234,33 +3238,33 @@
       <c r="I44" s="2" t="n"/>
       <c r="J44" s="2" t="n"/>
       <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="n"/>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P44" s="2" t="n"/>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q44" s="2" t="n"/>
       <c r="R44" s="2" t="n"/>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="n"/>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="inlineStr">
+      <c r="S44" s="2" t="n"/>
+      <c r="T44" s="2" t="inlineStr">
         <is>
           <t>JH; AW</t>
         </is>
       </c>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3290,33 +3294,33 @@
       <c r="I45" s="2" t="n"/>
       <c r="J45" s="2" t="n"/>
       <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q45" s="2" t="n"/>
       <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T45" s="2" t="n"/>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="inlineStr">
+      <c r="S45" s="2" t="n"/>
+      <c r="T45" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -3339,48 +3343,48 @@
           <t>bodily process</t>
         </is>
       </c>
-      <c r="E46" s="2" t="n"/>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="F46" s="2" t="n"/>
       <c r="G46" s="2" t="n"/>
       <c r="H46" s="2" t="n"/>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+      <c r="I46" s="2" t="n"/>
       <c r="J46" s="2" t="n"/>
       <c r="K46" s="2" t="n"/>
-      <c r="L46" s="2" t="n"/>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M46" s="2" t="n"/>
-      <c r="N46" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
           <t>Also referred to in definitions as human behaviour or just behaviour.</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q46" s="2" t="n"/>
       <c r="R46" s="2" t="n"/>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="n"/>
-      <c r="U46" s="2" t="n"/>
-      <c r="V46" s="2" t="inlineStr">
+      <c r="S46" s="2" t="n"/>
+      <c r="T46" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3410,37 +3414,37 @@
       <c r="I47" s="2" t="n"/>
       <c r="J47" s="2" t="n"/>
       <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="n"/>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
           <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
         </is>
       </c>
-      <c r="Q47" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q47" s="2" t="n"/>
       <c r="R47" s="2" t="n"/>
-      <c r="S47" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T47" s="2" t="n"/>
-      <c r="U47" s="2" t="n"/>
-      <c r="V47" s="2" t="inlineStr">
+      <c r="S47" s="2" t="n"/>
+      <c r="T47" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3470,33 +3474,33 @@
       <c r="I48" s="2" t="n"/>
       <c r="J48" s="2" t="n"/>
       <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P48" s="2" t="n"/>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q48" s="2" t="n"/>
       <c r="R48" s="2" t="n"/>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T48" s="2" t="n"/>
-      <c r="U48" s="2" t="n"/>
-      <c r="V48" s="2" t="inlineStr">
+      <c r="S48" s="2" t="n"/>
+      <c r="T48" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
+      <c r="U48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3526,33 +3530,33 @@
       <c r="I49" s="2" t="n"/>
       <c r="J49" s="2" t="n"/>
       <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P49" s="2" t="n"/>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q49" s="2" t="n"/>
       <c r="R49" s="2" t="n"/>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T49" s="2" t="n"/>
-      <c r="U49" s="2" t="n"/>
-      <c r="V49" s="2" t="inlineStr">
+      <c r="S49" s="2" t="n"/>
+      <c r="T49" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
+      <c r="U49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3582,33 +3586,33 @@
       <c r="I50" s="2" t="n"/>
       <c r="J50" s="2" t="n"/>
       <c r="K50" s="2" t="n"/>
-      <c r="L50" s="2" t="n"/>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M50" s="2" t="n"/>
-      <c r="N50" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P50" s="2" t="n"/>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q50" s="2" t="n"/>
       <c r="R50" s="2" t="n"/>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T50" s="2" t="n"/>
-      <c r="U50" s="2" t="n"/>
-      <c r="V50" s="2" t="inlineStr">
+      <c r="S50" s="2" t="n"/>
+      <c r="T50" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
+      <c r="U50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3638,37 +3642,37 @@
       <c r="I51" s="2" t="n"/>
       <c r="J51" s="2" t="n"/>
       <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="n"/>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
         </is>
       </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q51" s="2" t="n"/>
       <c r="R51" s="2" t="n"/>
-      <c r="S51" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T51" s="2" t="n"/>
-      <c r="U51" s="2" t="n"/>
-      <c r="V51" s="2" t="inlineStr">
+      <c r="S51" s="2" t="n"/>
+      <c r="T51" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
+      <c r="U51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3698,33 +3702,33 @@
       <c r="I52" s="2" t="n"/>
       <c r="J52" s="2" t="n"/>
       <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="n"/>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P52" s="2" t="n"/>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q52" s="2" t="n"/>
       <c r="R52" s="2" t="n"/>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T52" s="2" t="n"/>
-      <c r="U52" s="2" t="n"/>
-      <c r="V52" s="2" t="inlineStr">
+      <c r="S52" s="2" t="n"/>
+      <c r="T52" s="2" t="inlineStr">
         <is>
           <t>AW; PS</t>
         </is>
       </c>
+      <c r="U52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -3750,41 +3754,41 @@
       <c r="E53" s="3" t="n"/>
       <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="n"/>
-      <c r="H53" s="3" t="n"/>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="I53" s="3" t="n"/>
       <c r="J53" s="3" t="n"/>
       <c r="K53" s="3" t="n"/>
       <c r="L53" s="3" t="inlineStr">
         <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M53" s="3" t="n"/>
-      <c r="N53" s="3" t="inlineStr">
+      <c r="N53" s="3" t="n"/>
+      <c r="O53" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O53" s="3" t="n"/>
       <c r="P53" s="3" t="n"/>
-      <c r="Q53" s="3" t="inlineStr">
+      <c r="Q53" s="3" t="n"/>
+      <c r="R53" s="3" t="n"/>
+      <c r="S53" s="3" t="n"/>
+      <c r="T53" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U53" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R53" s="3" t="n"/>
-      <c r="S53" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T53" s="3" t="n"/>
-      <c r="U53" s="3" t="n"/>
-      <c r="V53" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -3810,41 +3814,41 @@
       <c r="E54" s="3" t="n"/>
       <c r="F54" s="3" t="n"/>
       <c r="G54" s="3" t="n"/>
-      <c r="H54" s="3" t="n"/>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="I54" s="3" t="n"/>
       <c r="J54" s="3" t="n"/>
       <c r="K54" s="3" t="n"/>
       <c r="L54" s="3" t="inlineStr">
         <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M54" s="3" t="n"/>
-      <c r="N54" s="3" t="inlineStr">
+      <c r="N54" s="3" t="n"/>
+      <c r="O54" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O54" s="3" t="n"/>
       <c r="P54" s="3" t="n"/>
-      <c r="Q54" s="3" t="inlineStr">
+      <c r="Q54" s="3" t="n"/>
+      <c r="R54" s="3" t="n"/>
+      <c r="S54" s="3" t="n"/>
+      <c r="T54" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U54" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R54" s="3" t="n"/>
-      <c r="S54" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T54" s="3" t="n"/>
-      <c r="U54" s="3" t="n"/>
-      <c r="V54" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -3870,41 +3874,41 @@
       <c r="E55" s="3" t="n"/>
       <c r="F55" s="3" t="n"/>
       <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="I55" s="3" t="n"/>
       <c r="J55" s="3" t="n"/>
       <c r="K55" s="3" t="n"/>
       <c r="L55" s="3" t="inlineStr">
         <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M55" s="3" t="n"/>
-      <c r="N55" s="3" t="inlineStr">
+      <c r="N55" s="3" t="n"/>
+      <c r="O55" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O55" s="3" t="n"/>
       <c r="P55" s="3" t="n"/>
-      <c r="Q55" s="3" t="inlineStr">
+      <c r="Q55" s="3" t="n"/>
+      <c r="R55" s="3" t="n"/>
+      <c r="S55" s="3" t="n"/>
+      <c r="T55" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U55" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R55" s="3" t="n"/>
-      <c r="S55" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T55" s="3" t="n"/>
-      <c r="U55" s="3" t="n"/>
-      <c r="V55" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -3930,41 +3934,41 @@
       <c r="E56" s="3" t="n"/>
       <c r="F56" s="3" t="n"/>
       <c r="G56" s="3" t="n"/>
-      <c r="H56" s="3" t="n"/>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+        </is>
+      </c>
       <c r="I56" s="3" t="n"/>
       <c r="J56" s="3" t="n"/>
       <c r="K56" s="3" t="n"/>
       <c r="L56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M56" s="3" t="n"/>
-      <c r="N56" s="3" t="inlineStr">
+      <c r="N56" s="3" t="n"/>
+      <c r="O56" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O56" s="3" t="n"/>
       <c r="P56" s="3" t="n"/>
-      <c r="Q56" s="3" t="inlineStr">
+      <c r="Q56" s="3" t="n"/>
+      <c r="R56" s="3" t="n"/>
+      <c r="S56" s="3" t="n"/>
+      <c r="T56" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U56" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R56" s="3" t="n"/>
-      <c r="S56" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T56" s="3" t="n"/>
-      <c r="U56" s="3" t="n"/>
-      <c r="V56" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -3990,41 +3994,41 @@
       <c r="E57" s="3" t="n"/>
       <c r="F57" s="3" t="n"/>
       <c r="G57" s="3" t="n"/>
-      <c r="H57" s="3" t="n"/>
+      <c r="H57" s="3" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="I57" s="3" t="n"/>
       <c r="J57" s="3" t="n"/>
       <c r="K57" s="3" t="n"/>
       <c r="L57" s="3" t="inlineStr">
         <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M57" s="3" t="n"/>
-      <c r="N57" s="3" t="inlineStr">
+      <c r="N57" s="3" t="n"/>
+      <c r="O57" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O57" s="3" t="n"/>
       <c r="P57" s="3" t="n"/>
-      <c r="Q57" s="3" t="inlineStr">
+      <c r="Q57" s="3" t="n"/>
+      <c r="R57" s="3" t="n"/>
+      <c r="S57" s="3" t="n"/>
+      <c r="T57" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U57" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R57" s="3" t="n"/>
-      <c r="S57" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T57" s="3" t="n"/>
-      <c r="U57" s="3" t="n"/>
-      <c r="V57" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
@@ -4050,41 +4054,41 @@
       <c r="E58" s="3" t="n"/>
       <c r="F58" s="3" t="n"/>
       <c r="G58" s="3" t="n"/>
-      <c r="H58" s="3" t="n"/>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="I58" s="3" t="n"/>
       <c r="J58" s="3" t="n"/>
       <c r="K58" s="3" t="n"/>
       <c r="L58" s="3" t="inlineStr">
         <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M58" s="3" t="n"/>
-      <c r="N58" s="3" t="inlineStr">
+      <c r="N58" s="3" t="n"/>
+      <c r="O58" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O58" s="3" t="n"/>
       <c r="P58" s="3" t="n"/>
-      <c r="Q58" s="3" t="inlineStr">
+      <c r="Q58" s="3" t="n"/>
+      <c r="R58" s="3" t="n"/>
+      <c r="S58" s="3" t="n"/>
+      <c r="T58" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U58" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R58" s="3" t="n"/>
-      <c r="S58" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T58" s="3" t="n"/>
-      <c r="U58" s="3" t="n"/>
-      <c r="V58" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -4110,41 +4114,41 @@
       <c r="E59" s="3" t="n"/>
       <c r="F59" s="3" t="n"/>
       <c r="G59" s="3" t="n"/>
-      <c r="H59" s="3" t="n"/>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="I59" s="3" t="n"/>
       <c r="J59" s="3" t="n"/>
       <c r="K59" s="3" t="n"/>
       <c r="L59" s="3" t="inlineStr">
         <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M59" s="3" t="n"/>
-      <c r="N59" s="3" t="inlineStr">
+      <c r="N59" s="3" t="n"/>
+      <c r="O59" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O59" s="3" t="n"/>
       <c r="P59" s="3" t="n"/>
-      <c r="Q59" s="3" t="inlineStr">
+      <c r="Q59" s="3" t="n"/>
+      <c r="R59" s="3" t="n"/>
+      <c r="S59" s="3" t="n"/>
+      <c r="T59" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U59" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R59" s="3" t="n"/>
-      <c r="S59" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T59" s="3" t="n"/>
-      <c r="U59" s="3" t="n"/>
-      <c r="V59" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -4170,41 +4174,41 @@
       <c r="E60" s="3" t="n"/>
       <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="n"/>
-      <c r="H60" s="3" t="n"/>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="I60" s="3" t="n"/>
       <c r="J60" s="3" t="n"/>
       <c r="K60" s="3" t="n"/>
       <c r="L60" s="3" t="inlineStr">
         <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="M60" s="3" t="n"/>
-      <c r="N60" s="3" t="inlineStr">
+      <c r="N60" s="3" t="n"/>
+      <c r="O60" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O60" s="3" t="n"/>
       <c r="P60" s="3" t="n"/>
-      <c r="Q60" s="3" t="inlineStr">
+      <c r="Q60" s="3" t="n"/>
+      <c r="R60" s="3" t="n"/>
+      <c r="S60" s="3" t="n"/>
+      <c r="T60" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U60" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R60" s="3" t="n"/>
-      <c r="S60" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T60" s="3" t="n"/>
-      <c r="U60" s="3" t="n"/>
-      <c r="V60" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -4229,50 +4233,50 @@
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>BCI engagement</t>
         </is>
       </c>
       <c r="F61" s="2" t="n"/>
       <c r="G61" s="2" t="n"/>
       <c r="H61" s="2" t="n"/>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>BCI engagement</t>
-        </is>
-      </c>
+      <c r="I61" s="2" t="n"/>
       <c r="J61" s="2" t="n"/>
       <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M61" s="2" t="n"/>
-      <c r="N61" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
           <t>Includes mental activities and behaviours.</t>
         </is>
       </c>
-      <c r="Q61" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q61" s="2" t="n"/>
       <c r="R61" s="2" t="n"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T61" s="2" t="n"/>
-      <c r="U61" s="2" t="n"/>
-      <c r="V61" s="2" t="inlineStr">
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
+      <c r="U61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -4297,40 +4301,40 @@
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
-        </is>
-      </c>
+      <c r="G62" s="2" t="n"/>
       <c r="H62" s="2" t="n"/>
       <c r="I62" s="2" t="n"/>
       <c r="J62" s="2" t="n"/>
       <c r="K62" s="2" t="n"/>
-      <c r="L62" s="2" t="n"/>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M62" s="2" t="n"/>
-      <c r="N62" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P62" s="2" t="n"/>
-      <c r="Q62" s="2" t="n">
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+        </is>
+      </c>
+      <c r="R62" s="2" t="n"/>
+      <c r="S62" s="2" t="n"/>
+      <c r="T62" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U62" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R62" s="2" t="n"/>
-      <c r="S62" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T62" s="2" t="n"/>
-      <c r="U62" s="2" t="n"/>
-      <c r="V62" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -4353,44 +4357,44 @@
           <t>process</t>
         </is>
       </c>
-      <c r="E63" s="2" t="n"/>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="F63" s="2" t="n"/>
       <c r="G63" s="2" t="n"/>
       <c r="H63" s="2" t="n"/>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+      <c r="I63" s="2" t="n"/>
       <c r="J63" s="2" t="n"/>
       <c r="K63" s="2" t="n"/>
-      <c r="L63" s="2" t="n"/>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M63" s="2" t="n"/>
-      <c r="N63" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O63" s="2" t="n"/>
+      <c r="N63" s="2" t="n"/>
+      <c r="O63" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P63" s="2" t="n"/>
-      <c r="Q63" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q63" s="2" t="n"/>
       <c r="R63" s="2" t="n"/>
-      <c r="S63" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T63" s="2" t="n"/>
-      <c r="U63" s="2" t="n"/>
-      <c r="V63" s="2" t="inlineStr">
+      <c r="S63" s="2" t="n"/>
+      <c r="T63" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
+      <c r="U63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -4415,23 +4419,23 @@
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a process.</t>
-        </is>
-      </c>
+      <c r="G64" s="2" t="n"/>
       <c r="H64" s="2" t="n"/>
       <c r="I64" s="2" t="n"/>
       <c r="J64" s="2" t="n"/>
       <c r="K64" s="2" t="n"/>
-      <c r="L64" s="2" t="n"/>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M64" s="2" t="n"/>
-      <c r="N64" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
+      <c r="O64" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
           <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
@@ -4439,22 +4443,22 @@
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>An attribute of a process.</t>
         </is>
       </c>
       <c r="R64" s="2" t="n"/>
-      <c r="S64" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T64" s="2" t="n"/>
-      <c r="U64" s="2" t="n"/>
-      <c r="V64" s="2" t="inlineStr">
+      <c r="S64" s="2" t="n"/>
+      <c r="T64" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
+      <c r="U64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -4484,33 +4488,33 @@
       <c r="I65" s="2" t="n"/>
       <c r="J65" s="2" t="n"/>
       <c r="K65" s="2" t="n"/>
-      <c r="L65" s="2" t="n"/>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="M65" s="2" t="n"/>
-      <c r="N65" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="O65" s="2" t="n"/>
+      <c r="N65" s="2" t="n"/>
+      <c r="O65" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="P65" s="2" t="n"/>
-      <c r="Q65" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q65" s="2" t="n"/>
       <c r="R65" s="2" t="n"/>
-      <c r="S65" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T65" s="2" t="n"/>
-      <c r="U65" s="2" t="n"/>
-      <c r="V65" s="2" t="inlineStr">
+      <c r="S65" s="2" t="n"/>
+      <c r="T65" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
+      <c r="U65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V65" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -3627,12 +3627,12 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>An entity that is influenced by an intervention</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="E51" s="2" t="n"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2575,12 +2575,12 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
+          <t>The intervention temporal context where the process is the behaviour change intervention</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>intervention temporal context</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -3731,84 +3731,62 @@
       <c r="V52" s="2" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050466</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="n"/>
-      <c r="F53" s="3" t="n"/>
-      <c r="G53" s="3" t="n"/>
-      <c r="H53" s="3" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="I53" s="3" t="n"/>
-      <c r="J53" s="3" t="n"/>
-      <c r="K53" s="3" t="n"/>
-      <c r="L53" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="M53" s="3" t="n"/>
-      <c r="N53" s="3" t="n"/>
-      <c r="O53" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P53" s="3" t="n"/>
-      <c r="Q53" s="3" t="n"/>
-      <c r="R53" s="3" t="n"/>
-      <c r="S53" s="3" t="n"/>
-      <c r="T53" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="U53" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="V53" s="3" t="n"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>GMHO:0000254</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>intervention temporal context</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>low emotional management exertion expended on a behaviour</t>
+          <t>low cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E54" s="3" t="n"/>
@@ -3816,7 +3794,7 @@
       <c r="G54" s="3" t="n"/>
       <c r="H54" s="3" t="inlineStr">
         <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I54" s="3" t="n"/>
@@ -3853,22 +3831,22 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>low mental exertion expended on a behaviour</t>
+          <t>low emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E55" s="3" t="n"/>
@@ -3876,7 +3854,7 @@
       <c r="G55" s="3" t="n"/>
       <c r="H55" s="3" t="inlineStr">
         <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I55" s="3" t="n"/>
@@ -3913,22 +3891,22 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>low physical exertion expended on behaviour</t>
+          <t>low mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E56" s="3" t="n"/>
@@ -3936,7 +3914,7 @@
       <c r="G56" s="3" t="n"/>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I56" s="3" t="n"/>
@@ -3973,22 +3951,22 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
+          <t>low physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E57" s="3" t="n"/>
@@ -3996,7 +3974,7 @@
       <c r="G57" s="3" t="n"/>
       <c r="H57" s="3" t="inlineStr">
         <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
       <c r="I57" s="3" t="n"/>
@@ -4033,22 +4011,22 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
+          <t>moderate cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E58" s="3" t="n"/>
@@ -4056,7 +4034,7 @@
       <c r="G58" s="3" t="n"/>
       <c r="H58" s="3" t="inlineStr">
         <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I58" s="3" t="n"/>
@@ -4093,22 +4071,22 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>moderate mental exertion expended on a behaviour</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E59" s="3" t="n"/>
@@ -4116,7 +4094,7 @@
       <c r="G59" s="3" t="n"/>
       <c r="H59" s="3" t="inlineStr">
         <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I59" s="3" t="n"/>
@@ -4153,22 +4131,22 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>moderate physical exertion expended on behaviour</t>
+          <t>moderate mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E60" s="3" t="n"/>
@@ -4176,7 +4154,7 @@
       <c r="G60" s="3" t="n"/>
       <c r="H60" s="3" t="inlineStr">
         <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I60" s="3" t="n"/>
@@ -4211,95 +4189,91 @@
       <c r="V60" s="3" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013000</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>participant engagement with behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>participant engagement with intervention</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>BCI engagement</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="n"/>
-      <c r="G61" s="2" t="n"/>
-      <c r="H61" s="2" t="n"/>
-      <c r="I61" s="2" t="n"/>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M61" s="2" t="n"/>
-      <c r="N61" s="2" t="n"/>
-      <c r="O61" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P61" s="2" t="inlineStr">
-        <is>
-          <t>Includes mental activities and behaviours.</t>
-        </is>
-      </c>
-      <c r="Q61" s="2" t="n"/>
-      <c r="R61" s="2" t="n"/>
-      <c r="S61" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="T61" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW; PS</t>
-        </is>
-      </c>
-      <c r="U61" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V61" s="2" t="n"/>
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050473</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
+      <c r="L61" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="M61" s="3" t="n"/>
+      <c r="N61" s="3" t="n"/>
+      <c r="O61" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P61" s="3" t="n"/>
+      <c r="Q61" s="3" t="n"/>
+      <c r="R61" s="3" t="n"/>
+      <c r="S61" s="3" t="n"/>
+      <c r="T61" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U61" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="V61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050916</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
+          <t>participant engagement with behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
           <t>participant engagement with intervention</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="n"/>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>BCI engagement</t>
+        </is>
+      </c>
       <c r="F62" s="2" t="n"/>
       <c r="G62" s="2" t="n"/>
       <c r="H62" s="2" t="n"/>
@@ -4318,50 +4292,52 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="P62" s="2" t="n"/>
-      <c r="Q62" s="2" t="inlineStr">
-        <is>
-          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
-        </is>
-      </c>
+      <c r="P62" s="2" t="inlineStr">
+        <is>
+          <t>Includes mental activities and behaviours.</t>
+        </is>
+      </c>
+      <c r="Q62" s="2" t="n"/>
       <c r="R62" s="2" t="n"/>
-      <c r="S62" s="2" t="n"/>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="T62" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="U62" s="2" t="n">
-        <v>0</v>
+          <t>JH; RW; PS</t>
+        </is>
+      </c>
+      <c r="U62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050916</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>participant engagement with intervention</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
       <c r="G63" s="2" t="n"/>
       <c r="H63" s="2" t="n"/>
@@ -4381,43 +4357,49 @@
         </is>
       </c>
       <c r="P63" s="2" t="n"/>
-      <c r="Q63" s="2" t="n"/>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+        </is>
+      </c>
       <c r="R63" s="2" t="n"/>
       <c r="S63" s="2" t="n"/>
       <c r="T63" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="U63" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U63" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>A process profile that is an attribute of a process.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="n"/>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="F64" s="2" t="n"/>
       <c r="G64" s="2" t="n"/>
       <c r="H64" s="2" t="n"/>
@@ -4436,16 +4418,8 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="P64" s="2" t="inlineStr">
-        <is>
-          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
-        </is>
-      </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a process.</t>
-        </is>
-      </c>
+      <c r="P64" s="2" t="n"/>
+      <c r="Q64" s="2" t="n"/>
       <c r="R64" s="2" t="n"/>
       <c r="S64" s="2" t="n"/>
       <c r="T64" s="2" t="inlineStr">
@@ -4463,22 +4437,22 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050551</t>
+          <t>BCIO:043000</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>A population whose behaviour is studied in a research study.</t>
+          <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="E65" s="2" t="n"/>
@@ -4500,21 +4474,85 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="P65" s="2" t="n"/>
-      <c r="Q65" s="2" t="n"/>
+      <c r="P65" s="2" t="inlineStr">
+        <is>
+          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
+        </is>
+      </c>
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a process.</t>
+        </is>
+      </c>
       <c r="R65" s="2" t="n"/>
       <c r="S65" s="2" t="n"/>
       <c r="T65" s="2" t="inlineStr">
         <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="U65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V65" s="2" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050551</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>research study sample</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>A population whose behaviour is studied in a research study.</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="n"/>
+      <c r="G66" s="2" t="n"/>
+      <c r="H66" s="2" t="n"/>
+      <c r="I66" s="2" t="n"/>
+      <c r="J66" s="2" t="n"/>
+      <c r="K66" s="2" t="n"/>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M66" s="2" t="n"/>
+      <c r="N66" s="2" t="n"/>
+      <c r="O66" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="P66" s="2" t="n"/>
+      <c r="Q66" s="2" t="n"/>
+      <c r="R66" s="2" t="n"/>
+      <c r="S66" s="2" t="n"/>
+      <c r="T66" s="2" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="U65" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V65" s="2" t="n"/>
+      <c r="U66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V66" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,12 +907,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
+          <t>An intervention context in which the process is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>intervention context</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -3503,80 +3503,62 @@
       <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:045000</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>A planned process by which intervention content is delivered.</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
-      <c r="G49" s="2" t="n"/>
-      <c r="H49" s="2" t="n"/>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P49" s="2" t="n"/>
-      <c r="Q49" s="2" t="n"/>
-      <c r="R49" s="2" t="n"/>
-      <c r="S49" s="2" t="n"/>
-      <c r="T49" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V49" s="2" t="n"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>GMHO:0000253</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>intervention context</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>intervention evaluation study</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E50" s="2" t="n"/>
@@ -3604,7 +3586,7 @@
       <c r="S50" s="2" t="n"/>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -3617,22 +3599,22 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention evaluation study</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>An entity that is influenced by an intervention</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="E51" s="2" t="n"/>
@@ -3654,17 +3636,13 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="P51" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
-        </is>
-      </c>
+      <c r="P51" s="2" t="n"/>
       <c r="Q51" s="2" t="n"/>
       <c r="R51" s="2" t="n"/>
       <c r="S51" s="2" t="n"/>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -3677,22 +3655,22 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015095</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>intervention population</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A human population who are exposed to an intervention.</t>
+          <t>An entity that is influenced by an intervention</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="E52" s="2" t="n"/>
@@ -3714,139 +3692,126 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="P52" s="2" t="n"/>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
       <c r="Q52" s="2" t="n"/>
       <c r="R52" s="2" t="n"/>
       <c r="S52" s="2" t="n"/>
       <c r="T52" s="2" t="inlineStr">
         <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="U52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015095</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>intervention population</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>A human population who are exposed to an intervention.</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="2" t="n"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="n"/>
+      <c r="Q53" s="2" t="n"/>
+      <c r="R53" s="2" t="n"/>
+      <c r="S53" s="2" t="n"/>
+      <c r="T53" s="2" t="inlineStr">
+        <is>
           <t>AW; PS</t>
         </is>
       </c>
-      <c r="U52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V52" s="2" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="U53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>GMHO:0000254</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>intervention temporal context</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>intervention context</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="n">
+      <c r="U54" t="n">
         <v>0</v>
       </c>
-      <c r="V53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050466</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="n"/>
-      <c r="F54" s="3" t="n"/>
-      <c r="G54" s="3" t="n"/>
-      <c r="H54" s="3" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="I54" s="3" t="n"/>
-      <c r="J54" s="3" t="n"/>
-      <c r="K54" s="3" t="n"/>
-      <c r="L54" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="M54" s="3" t="n"/>
-      <c r="N54" s="3" t="n"/>
-      <c r="O54" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P54" s="3" t="n"/>
-      <c r="Q54" s="3" t="n"/>
-      <c r="R54" s="3" t="n"/>
-      <c r="S54" s="3" t="n"/>
-      <c r="T54" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="U54" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="V54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>low emotional management exertion expended on a behaviour</t>
+          <t>low cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E55" s="3" t="n"/>
@@ -3854,7 +3819,7 @@
       <c r="G55" s="3" t="n"/>
       <c r="H55" s="3" t="inlineStr">
         <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I55" s="3" t="n"/>
@@ -3891,22 +3856,22 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>low mental exertion expended on a behaviour</t>
+          <t>low emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E56" s="3" t="n"/>
@@ -3914,7 +3879,7 @@
       <c r="G56" s="3" t="n"/>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I56" s="3" t="n"/>
@@ -3951,22 +3916,22 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>low physical exertion expended on behaviour</t>
+          <t>low mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E57" s="3" t="n"/>
@@ -3974,7 +3939,7 @@
       <c r="G57" s="3" t="n"/>
       <c r="H57" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I57" s="3" t="n"/>
@@ -4011,22 +3976,22 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
+          <t>low physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E58" s="3" t="n"/>
@@ -4034,7 +3999,7 @@
       <c r="G58" s="3" t="n"/>
       <c r="H58" s="3" t="inlineStr">
         <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
       <c r="I58" s="3" t="n"/>
@@ -4071,22 +4036,22 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
+          <t>moderate cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E59" s="3" t="n"/>
@@ -4094,7 +4059,7 @@
       <c r="G59" s="3" t="n"/>
       <c r="H59" s="3" t="inlineStr">
         <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I59" s="3" t="n"/>
@@ -4131,22 +4096,22 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>moderate mental exertion expended on a behaviour</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E60" s="3" t="n"/>
@@ -4154,7 +4119,7 @@
       <c r="G60" s="3" t="n"/>
       <c r="H60" s="3" t="inlineStr">
         <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I60" s="3" t="n"/>
@@ -4191,22 +4156,22 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>moderate physical exertion expended on behaviour</t>
+          <t>moderate mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E61" s="3" t="n"/>
@@ -4214,7 +4179,7 @@
       <c r="G61" s="3" t="n"/>
       <c r="H61" s="3" t="inlineStr">
         <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="I61" s="3" t="n"/>
@@ -4249,95 +4214,91 @@
       <c r="V61" s="3" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013000</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>participant engagement with behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>participant engagement with intervention</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>BCI engagement</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="n"/>
-      <c r="G62" s="2" t="n"/>
-      <c r="H62" s="2" t="n"/>
-      <c r="I62" s="2" t="n"/>
-      <c r="J62" s="2" t="n"/>
-      <c r="K62" s="2" t="n"/>
-      <c r="L62" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M62" s="2" t="n"/>
-      <c r="N62" s="2" t="n"/>
-      <c r="O62" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P62" s="2" t="inlineStr">
-        <is>
-          <t>Includes mental activities and behaviours.</t>
-        </is>
-      </c>
-      <c r="Q62" s="2" t="n"/>
-      <c r="R62" s="2" t="n"/>
-      <c r="S62" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="T62" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW; PS</t>
-        </is>
-      </c>
-      <c r="U62" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V62" s="2" t="n"/>
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050473</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="n"/>
+      <c r="F62" s="3" t="n"/>
+      <c r="G62" s="3" t="n"/>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="I62" s="3" t="n"/>
+      <c r="J62" s="3" t="n"/>
+      <c r="K62" s="3" t="n"/>
+      <c r="L62" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="M62" s="3" t="n"/>
+      <c r="N62" s="3" t="n"/>
+      <c r="O62" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P62" s="3" t="n"/>
+      <c r="Q62" s="3" t="n"/>
+      <c r="R62" s="3" t="n"/>
+      <c r="S62" s="3" t="n"/>
+      <c r="T62" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U62" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="V62" s="3" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050916</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
+          <t>participant engagement with behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
           <t>participant engagement with intervention</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="n"/>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>BCI engagement</t>
+        </is>
+      </c>
       <c r="F63" s="2" t="n"/>
       <c r="G63" s="2" t="n"/>
       <c r="H63" s="2" t="n"/>
@@ -4356,50 +4317,52 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="P63" s="2" t="n"/>
-      <c r="Q63" s="2" t="inlineStr">
-        <is>
-          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
-        </is>
-      </c>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>Includes mental activities and behaviours.</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="n"/>
       <c r="R63" s="2" t="n"/>
-      <c r="S63" s="2" t="n"/>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="T63" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="U63" s="2" t="n">
-        <v>0</v>
+          <t>JH; RW; PS</t>
+        </is>
+      </c>
+      <c r="U63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050916</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>participant engagement with intervention</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
       <c r="G64" s="2" t="n"/>
       <c r="H64" s="2" t="n"/>
@@ -4419,43 +4382,49 @@
         </is>
       </c>
       <c r="P64" s="2" t="n"/>
-      <c r="Q64" s="2" t="n"/>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+        </is>
+      </c>
       <c r="R64" s="2" t="n"/>
       <c r="S64" s="2" t="n"/>
       <c r="T64" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="U64" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U64" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>A process profile that is an attribute of a process.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="n"/>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="F65" s="2" t="n"/>
       <c r="G65" s="2" t="n"/>
       <c r="H65" s="2" t="n"/>
@@ -4474,16 +4443,8 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="P65" s="2" t="inlineStr">
-        <is>
-          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
-        </is>
-      </c>
-      <c r="Q65" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a process.</t>
-        </is>
-      </c>
+      <c r="P65" s="2" t="n"/>
+      <c r="Q65" s="2" t="n"/>
       <c r="R65" s="2" t="n"/>
       <c r="S65" s="2" t="n"/>
       <c r="T65" s="2" t="inlineStr">
@@ -4501,22 +4462,22 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050551</t>
+          <t>BCIO:043000</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>A population whose behaviour is studied in a research study.</t>
+          <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="E66" s="2" t="n"/>
@@ -4538,21 +4499,85 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="P66" s="2" t="n"/>
-      <c r="Q66" s="2" t="n"/>
+      <c r="P66" s="2" t="inlineStr">
+        <is>
+          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
+        </is>
+      </c>
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a process.</t>
+        </is>
+      </c>
       <c r="R66" s="2" t="n"/>
       <c r="S66" s="2" t="n"/>
       <c r="T66" s="2" t="inlineStr">
         <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="U66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050551</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>research study sample</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>A population whose behaviour is studied in a research study.</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n"/>
+      <c r="F67" s="2" t="n"/>
+      <c r="G67" s="2" t="n"/>
+      <c r="H67" s="2" t="n"/>
+      <c r="I67" s="2" t="n"/>
+      <c r="J67" s="2" t="n"/>
+      <c r="K67" s="2" t="n"/>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M67" s="2" t="n"/>
+      <c r="N67" s="2" t="n"/>
+      <c r="O67" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="P67" s="2" t="n"/>
+      <c r="Q67" s="2" t="n"/>
+      <c r="R67" s="2" t="n"/>
+      <c r="S67" s="2" t="n"/>
+      <c r="T67" s="2" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="U66" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V66" s="2" t="n"/>
+      <c r="U67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V67" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3513,32 +3513,19 @@
           <t>intervention context</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>process context</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
         <v>0</v>
       </c>
-      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -4524,60 +4511,102 @@
       <c r="V66" s="2" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GMHO:0000268</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>process context</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>BCIO:050551</t>
         </is>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>research study sample</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>A population whose behaviour is studied in a research study.</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E67" s="2" t="n"/>
-      <c r="F67" s="2" t="n"/>
-      <c r="G67" s="2" t="n"/>
-      <c r="H67" s="2" t="n"/>
-      <c r="I67" s="2" t="n"/>
-      <c r="J67" s="2" t="n"/>
-      <c r="K67" s="2" t="n"/>
-      <c r="L67" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M67" s="2" t="n"/>
-      <c r="N67" s="2" t="n"/>
-      <c r="O67" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P67" s="2" t="n"/>
-      <c r="Q67" s="2" t="n"/>
-      <c r="R67" s="2" t="n"/>
-      <c r="S67" s="2" t="n"/>
-      <c r="T67" s="2" t="inlineStr">
+      <c r="E68" s="2" t="n"/>
+      <c r="F68" s="2" t="n"/>
+      <c r="G68" s="2" t="n"/>
+      <c r="H68" s="2" t="n"/>
+      <c r="I68" s="2" t="n"/>
+      <c r="J68" s="2" t="n"/>
+      <c r="K68" s="2" t="n"/>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M68" s="2" t="n"/>
+      <c r="N68" s="2" t="n"/>
+      <c r="O68" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="P68" s="2" t="n"/>
+      <c r="Q68" s="2" t="n"/>
+      <c r="R68" s="2" t="n"/>
+      <c r="S68" s="2" t="n"/>
+      <c r="T68" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="U67" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V67" s="2" t="n"/>
+      <c r="U68" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V68" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -4521,36 +4521,19 @@
           <t>process context</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>entity</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
         <v>0</v>
       </c>
-      <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -4565,7 +4548,7 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>A population whose behaviour is studied in a research study.</t>
+          <t>A population that is studied in a research study.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -2384,7 +2384,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>research study participants</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>research study participants</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -456,82 +456,82 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Logical definition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Parent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>BFO entity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has process part'</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'realises'</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Definition source</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Curator note</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'has process part'</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'realises'</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Curation status</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>To be reviewed by</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Reviewer query</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Logical definition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>BFO entity</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -568,44 +568,44 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
+          <t>An attribute of a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention attribute</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="n"/>
       <c r="Q2" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a behaviour change intervention.</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="S2" s="2" t="n"/>
       <c r="T2" s="2" t="inlineStr">
         <is>
           <t>RW</t>
@@ -636,40 +636,40 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
+          <t>A criterion for selecting people for a BCI population.</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="inlineStr">
         <is>
-          <t>A criterion for selecting people for a BCI population.</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+      <c r="S3" s="2" t="n"/>
       <c r="T3" s="2" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -698,20 +698,28 @@
           <t>An intervention that has the aim of influencing human behaviour.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>BCI</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Involves use of products, services, activities, rules or environmental objects.</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention content; participant engagement with behaviour change intervention; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
@@ -722,30 +730,22 @@
           <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>Involves use of products, services, activities, rules or environmental objects.</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="S4" s="2" t="n"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
           <t>JH; BG; PS</t>
@@ -774,46 +774,46 @@
           <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>BCI comparison evaluation study</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
+        </is>
+      </c>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="S5" s="2" t="n"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -842,46 +842,46 @@
           <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>BCI content</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
+        </is>
+      </c>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="S6" s="2" t="n"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
           <t>RW</t>
@@ -910,46 +910,46 @@
           <t>An intervention context in which the process is a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>intervention context</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
+        </is>
+      </c>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
+      <c r="S7" s="2" t="n"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -978,42 +978,42 @@
           <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>intervention delivery</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="n"/>
-      <c r="Q8" s="2" t="n"/>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="S8" s="2" t="n"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1042,50 +1042,50 @@
           <t>A BCI content attribute that is its amount.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="n"/>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
+        </is>
+      </c>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n"/>
+          <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="S9" s="2" t="n"/>
       <c r="T9" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1114,46 +1114,46 @@
           <t xml:space="preserve">A behaviour change intervention evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
+        </is>
+      </c>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+      <c r="S10" s="2" t="n"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
           <t>JH; RW; BG</t>
@@ -1182,42 +1182,42 @@
           <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>evaluation finding</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation finding</t>
         </is>
       </c>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>information content entoty</t>
+        </is>
+      </c>
       <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>information content entoty</t>
-        </is>
-      </c>
+      <c r="S11" s="2" t="n"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>JH; RW; BG</t>
@@ -1246,46 +1246,46 @@
           <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation report</t>
         </is>
       </c>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>generally dependent continuant</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
+        </is>
+      </c>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>generally dependent continuant</t>
-        </is>
-      </c>
+      <c r="S12" s="2" t="n"/>
       <c r="T12" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1314,42 +1314,42 @@
           <t>An intervention evaluation study of a BCI scenario.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>intervention evaluation study</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study</t>
         </is>
       </c>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="S13" s="2" t="n"/>
       <c r="T13" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1378,42 +1378,42 @@
           <t>A plan for a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study plan</t>
         </is>
       </c>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
       <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="n"/>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+      <c r="S14" s="2" t="n"/>
       <c r="T14" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1442,42 +1442,42 @@
           <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
       <c r="I15" s="2" t="n"/>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="n"/>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R15" s="2" t="n"/>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+      <c r="S15" s="2" t="n"/>
       <c r="T15" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1506,42 +1506,42 @@
           <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I16" s="2" t="n"/>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O16" s="2" t="n"/>
       <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="n"/>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="S16" s="2" t="n"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>PS; JH; RW</t>
@@ -1570,42 +1570,42 @@
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I17" s="2" t="n"/>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="n"/>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R17" s="2" t="n"/>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="S17" s="2" t="n"/>
       <c r="T17" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1634,37 +1634,37 @@
           <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>'individual human behaviour' AND 'intervention outcome'</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="n"/>
       <c r="H18" s="2" t="n"/>
       <c r="I18" s="2" t="n"/>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>'human behaviour' AND 'intervention outcome'</t>
-        </is>
-      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="n"/>
       <c r="S18" s="2" t="n"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
@@ -1694,46 +1694,46 @@
           <t>A BCI evaluation finding that is about an outcome behaviour.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>BCI outcome estimate</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>information content entoty</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R19" s="2" t="n"/>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>information content entoty</t>
-        </is>
-      </c>
+      <c r="S19" s="2" t="n"/>
       <c r="T19" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1762,36 +1762,36 @@
           <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>BCI physical setting</t>
         </is>
       </c>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
       <c r="H20" s="2" t="n"/>
       <c r="I20" s="2" t="n"/>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="n"/>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R20" s="2" t="n"/>
       <c r="S20" s="2" t="n"/>
       <c r="T20" s="2" t="inlineStr">
@@ -1822,36 +1822,36 @@
           <t>An intervention population who are exposed to a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>intervention population</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>BCI population</t>
         </is>
       </c>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
       <c r="H21" s="2" t="n"/>
       <c r="I21" s="2" t="n"/>
       <c r="J21" s="2" t="n"/>
       <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O21" s="2" t="n"/>
       <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="n"/>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R21" s="2" t="n"/>
       <c r="S21" s="2" t="n"/>
       <c r="T21" s="2" t="inlineStr">
@@ -1882,18 +1882,18 @@
           <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>BCI scenario</t>
         </is>
       </c>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
       <c r="H22" s="2" t="n"/>
       <c r="I22" s="2" t="n"/>
       <c r="J22" s="2" t="inlineStr">
@@ -1902,20 +1902,20 @@
         </is>
       </c>
       <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N22" s="2" t="n"/>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O22" s="2" t="n"/>
       <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="n"/>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R22" s="2" t="n"/>
       <c r="S22" s="2" t="n"/>
       <c r="T22" s="2" t="inlineStr">
@@ -1946,36 +1946,36 @@
           <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>BCI scenario plan</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
       <c r="H23" s="2" t="n"/>
       <c r="I23" s="2" t="n"/>
       <c r="J23" s="2" t="n"/>
       <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O23" s="2" t="n"/>
       <c r="P23" s="2" t="n"/>
-      <c r="Q23" s="2" t="n"/>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R23" s="2" t="n"/>
       <c r="S23" s="2" t="n"/>
       <c r="T23" s="2" t="inlineStr">
@@ -2006,36 +2006,36 @@
           <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>BCI scenario report</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
       <c r="H24" s="2" t="n"/>
       <c r="I24" s="2" t="n"/>
       <c r="J24" s="2" t="n"/>
       <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O24" s="2" t="n"/>
       <c r="P24" s="2" t="n"/>
-      <c r="Q24" s="2" t="n"/>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R24" s="2" t="n"/>
       <c r="S24" s="2" t="n"/>
       <c r="T24" s="2" t="inlineStr">
@@ -2066,40 +2066,40 @@
           <t>A BCI attribute that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
       <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Includes the start and end of the BCI and its parts.</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="n"/>
       <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>Includes the start and end of the BCI and its parts.</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R25" s="2" t="n"/>
       <c r="S25" s="2" t="n"/>
       <c r="T25" s="2" t="inlineStr">
@@ -2130,40 +2130,40 @@
           <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>BCI setting</t>
         </is>
       </c>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
       <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n"/>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>Includes as parts social setting and physical setting.</t>
+        </is>
+      </c>
       <c r="J26" s="2" t="n"/>
       <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N26" s="2" t="n"/>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>Includes as parts social setting and physical setting.</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R26" s="2" t="n"/>
       <c r="S26" s="2" t="n"/>
       <c r="T26" s="2" t="inlineStr">
@@ -2194,36 +2194,36 @@
           <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>BCI social setting</t>
         </is>
       </c>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
       <c r="H27" s="2" t="n"/>
       <c r="I27" s="2" t="n"/>
       <c r="J27" s="2" t="n"/>
       <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O27" s="2" t="n"/>
       <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="2" t="n"/>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R27" s="2" t="n"/>
       <c r="S27" s="2" t="n"/>
       <c r="T27" s="2" t="inlineStr">
@@ -2254,40 +2254,40 @@
           <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
       <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>This includes individual people, groups of people, and organisations.</t>
+        </is>
+      </c>
       <c r="J28" s="2" t="n"/>
       <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>This includes individual people, groups of people, and organisations.</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R28" s="2" t="n"/>
       <c r="S28" s="2" t="n"/>
       <c r="T28" s="2" t="inlineStr">
@@ -2318,40 +2318,40 @@
           <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>BCI study investigator</t>
         </is>
       </c>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
       <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
+        </is>
+      </c>
       <c r="J29" s="2" t="n"/>
       <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R29" s="2" t="n"/>
       <c r="S29" s="2" t="n"/>
       <c r="T29" s="2" t="inlineStr">
@@ -2382,36 +2382,36 @@
           <t>A research study sample whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>research study participants</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>BCI study sample</t>
         </is>
       </c>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
       <c r="H30" s="2" t="n"/>
       <c r="I30" s="2" t="n"/>
       <c r="J30" s="2" t="n"/>
       <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O30" s="2" t="n"/>
       <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="n"/>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R30" s="2" t="n"/>
       <c r="S30" s="2" t="n"/>
       <c r="T30" s="2" t="inlineStr">
@@ -2442,40 +2442,40 @@
           <t>A communication style that is an attribute of a BCI content communication process.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>communication style</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>BCI style of delivery</t>
         </is>
       </c>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
       <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>An example is cold and distant vs. warm and accepting.</t>
+        </is>
+      </c>
       <c r="J31" s="2" t="n"/>
       <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P31" s="2" t="inlineStr">
-        <is>
-          <t>An example is cold and distant vs. warm and accepting.</t>
-        </is>
-      </c>
-      <c r="Q31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R31" s="2" t="n"/>
       <c r="S31" s="2" t="n"/>
       <c r="T31" s="2" t="inlineStr">
@@ -2508,44 +2508,44 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
+          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>BCI tailoring</t>
         </is>
       </c>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
+        </is>
+      </c>
       <c r="J32" s="2" t="n"/>
       <c r="K32" s="2" t="n"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="n"/>
+          <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
-        </is>
-      </c>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="R32" s="2" t="n"/>
@@ -2578,36 +2578,36 @@
           <t>The intervention temporal context where the process is the behaviour change intervention</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="inlineStr">
         <is>
           <t>intervention temporal context</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>BCI temporal context</t>
         </is>
       </c>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
       <c r="H33" s="2" t="n"/>
       <c r="I33" s="2" t="n"/>
       <c r="J33" s="2" t="n"/>
       <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="n"/>
-      <c r="Q33" s="2" t="n"/>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R33" s="2" t="n"/>
       <c r="S33" s="2" t="n"/>
       <c r="T33" s="2" t="inlineStr">
@@ -2638,36 +2638,36 @@
           <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>BCI temporal context event</t>
         </is>
       </c>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
       <c r="H34" s="2" t="n"/>
       <c r="I34" s="2" t="n"/>
       <c r="J34" s="2" t="n"/>
       <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="n"/>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R34" s="2" t="n"/>
       <c r="S34" s="2" t="n"/>
       <c r="T34" s="2" t="inlineStr">
@@ -2698,36 +2698,36 @@
           <t>A &lt;planned process&gt; that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>BCT</t>
         </is>
       </c>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
       <c r="H35" s="2" t="n"/>
       <c r="I35" s="2" t="n"/>
       <c r="J35" s="2" t="n"/>
       <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="n"/>
-      <c r="Q35" s="2" t="n"/>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R35" s="2" t="n"/>
       <c r="S35" s="2" t="n"/>
       <c r="T35" s="2" t="inlineStr">
@@ -2758,32 +2758,32 @@
           <t>An attribute of a communication process.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
       <c r="G36" s="2" t="n"/>
       <c r="H36" s="2" t="n"/>
       <c r="I36" s="2" t="n"/>
       <c r="J36" s="2" t="n"/>
       <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O36" s="2" t="n"/>
       <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="n"/>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R36" s="2" t="n"/>
       <c r="S36" s="2" t="n"/>
       <c r="T36" s="2" t="inlineStr">
@@ -2814,32 +2814,32 @@
           <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="inlineStr">
         <is>
           <t>communication process attribute</t>
         </is>
       </c>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
       <c r="G37" s="2" t="n"/>
       <c r="H37" s="2" t="n"/>
       <c r="I37" s="2" t="n"/>
       <c r="J37" s="2" t="n"/>
       <c r="K37" s="2" t="n"/>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="n"/>
-      <c r="Q37" s="2" t="n"/>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R37" s="2" t="n"/>
       <c r="S37" s="2" t="n"/>
       <c r="T37" s="2" t="inlineStr">
@@ -2870,32 +2870,32 @@
           <t>A data item that is the output of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="n"/>
       <c r="H38" s="2" t="n"/>
       <c r="I38" s="2" t="n"/>
       <c r="J38" s="2" t="n"/>
       <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O38" s="2" t="n"/>
       <c r="P38" s="2" t="n"/>
-      <c r="Q38" s="2" t="n"/>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R38" s="2" t="n"/>
       <c r="S38" s="2" t="n"/>
       <c r="T38" s="2" t="inlineStr">
@@ -2926,36 +2926,36 @@
           <t>Cognitive exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E39" s="3" t="n"/>
-      <c r="F39" s="3" t="n"/>
       <c r="G39" s="3" t="n"/>
-      <c r="H39" s="3" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="n"/>
       <c r="J39" s="3" t="n"/>
       <c r="K39" s="3" t="n"/>
       <c r="L39" s="3" t="inlineStr">
         <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="M39" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N39" s="3" t="n"/>
+      <c r="O39" s="3" t="n"/>
+      <c r="P39" s="3" t="n"/>
+      <c r="Q39" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M39" s="3" t="n"/>
-      <c r="N39" s="3" t="n"/>
-      <c r="O39" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P39" s="3" t="n"/>
-      <c r="Q39" s="3" t="n"/>
       <c r="R39" s="3" t="n"/>
       <c r="S39" s="3" t="n"/>
       <c r="T39" s="3" t="inlineStr">
@@ -2986,36 +2986,36 @@
           <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D40" s="3" t="n"/>
+      <c r="E40" s="3" t="n"/>
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="n"/>
-      <c r="H40" s="3" t="inlineStr">
-        <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="H40" s="3" t="n"/>
       <c r="I40" s="3" t="n"/>
       <c r="J40" s="3" t="n"/>
       <c r="K40" s="3" t="n"/>
       <c r="L40" s="3" t="inlineStr">
         <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N40" s="3" t="n"/>
+      <c r="O40" s="3" t="n"/>
+      <c r="P40" s="3" t="n"/>
+      <c r="Q40" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M40" s="3" t="n"/>
-      <c r="N40" s="3" t="n"/>
-      <c r="O40" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P40" s="3" t="n"/>
-      <c r="Q40" s="3" t="n"/>
       <c r="R40" s="3" t="n"/>
       <c r="S40" s="3" t="n"/>
       <c r="T40" s="3" t="inlineStr">
@@ -3046,36 +3046,36 @@
           <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E41" s="3" t="n"/>
-      <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="n"/>
-      <c r="H41" s="3" t="inlineStr">
-        <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="H41" s="3" t="n"/>
       <c r="I41" s="3" t="n"/>
       <c r="J41" s="3" t="n"/>
       <c r="K41" s="3" t="n"/>
       <c r="L41" s="3" t="inlineStr">
         <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="M41" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N41" s="3" t="n"/>
+      <c r="O41" s="3" t="n"/>
+      <c r="P41" s="3" t="n"/>
+      <c r="Q41" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M41" s="3" t="n"/>
-      <c r="N41" s="3" t="n"/>
-      <c r="O41" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P41" s="3" t="n"/>
-      <c r="Q41" s="3" t="n"/>
       <c r="R41" s="3" t="n"/>
       <c r="S41" s="3" t="n"/>
       <c r="T41" s="3" t="inlineStr">
@@ -3106,36 +3106,36 @@
           <t>Physical exertion expended on a behaviour that is high</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D42" s="3" t="n"/>
+      <c r="E42" s="3" t="n"/>
+      <c r="F42" s="3" t="inlineStr">
         <is>
           <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E42" s="3" t="n"/>
-      <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="n"/>
-      <c r="H42" s="3" t="inlineStr">
-        <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="H42" s="3" t="n"/>
       <c r="I42" s="3" t="n"/>
       <c r="J42" s="3" t="n"/>
       <c r="K42" s="3" t="n"/>
       <c r="L42" s="3" t="inlineStr">
         <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N42" s="3" t="n"/>
+      <c r="O42" s="3" t="n"/>
+      <c r="P42" s="3" t="n"/>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M42" s="3" t="n"/>
-      <c r="N42" s="3" t="n"/>
-      <c r="O42" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P42" s="3" t="n"/>
-      <c r="Q42" s="3" t="n"/>
       <c r="R42" s="3" t="n"/>
       <c r="S42" s="3" t="n"/>
       <c r="T42" s="3" t="inlineStr">
@@ -3151,64 +3151,64 @@
       <c r="V42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>A process that is an individual human behaviour or a population behaviour.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr">
+      <c r="D43" s="3" t="n"/>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>"individual human behaviour" OR "population behaviour"</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="n"/>
-      <c r="R43" s="2" t="inlineStr">
-        <is>
-          <t>"individual human behaviour" OR "population behaviour"</t>
-        </is>
-      </c>
-      <c r="S43" s="2" t="n"/>
-      <c r="T43" s="2" t="inlineStr">
+      <c r="G43" s="3" t="n"/>
+      <c r="H43" s="3" t="n"/>
+      <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
+      <c r="L43" s="3" t="n"/>
+      <c r="M43" s="3" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="N43" s="3" t="n"/>
+      <c r="O43" s="3" t="n"/>
+      <c r="P43" s="3" t="n"/>
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="R43" s="3" t="n"/>
+      <c r="S43" s="3" t="n"/>
+      <c r="T43" s="3" t="inlineStr">
         <is>
           <t>BG; PS</t>
         </is>
       </c>
-      <c r="U43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V43" s="2" t="n"/>
+      <c r="U43" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -3226,32 +3226,32 @@
           <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
       <c r="G44" s="2" t="n"/>
       <c r="H44" s="2" t="n"/>
       <c r="I44" s="2" t="n"/>
       <c r="J44" s="2" t="n"/>
       <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O44" s="2" t="n"/>
       <c r="P44" s="2" t="n"/>
-      <c r="Q44" s="2" t="n"/>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R44" s="2" t="n"/>
       <c r="S44" s="2" t="n"/>
       <c r="T44" s="2" t="inlineStr">
@@ -3282,32 +3282,32 @@
           <t>A process that is produced by a person.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr">
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="n"/>
       <c r="H45" s="2" t="n"/>
       <c r="I45" s="2" t="n"/>
       <c r="J45" s="2" t="n"/>
       <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O45" s="2" t="n"/>
       <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="n"/>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R45" s="2" t="n"/>
       <c r="S45" s="2" t="n"/>
       <c r="T45" s="2" t="inlineStr">
@@ -3338,40 +3338,40 @@
           <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="n"/>
       <c r="H46" s="2" t="n"/>
-      <c r="I46" s="2" t="n"/>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+        </is>
+      </c>
       <c r="J46" s="2" t="n"/>
       <c r="K46" s="2" t="n"/>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N46" s="2" t="n"/>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R46" s="2" t="n"/>
       <c r="S46" s="2" t="n"/>
       <c r="T46" s="2" t="inlineStr">
@@ -3402,36 +3402,36 @@
           <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr">
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E47" s="2" t="n"/>
-      <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="n"/>
       <c r="H47" s="2" t="n"/>
-      <c r="I47" s="2" t="n"/>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
+        </is>
+      </c>
       <c r="J47" s="2" t="n"/>
       <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N47" s="2" t="n"/>
-      <c r="O47" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P47" s="2" t="inlineStr">
-        <is>
-          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
-        </is>
-      </c>
-      <c r="Q47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R47" s="2" t="n"/>
       <c r="S47" s="2" t="n"/>
       <c r="T47" s="2" t="inlineStr">
@@ -3462,32 +3462,32 @@
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E48" s="2" t="n"/>
-      <c r="F48" s="2" t="n"/>
       <c r="G48" s="2" t="n"/>
       <c r="H48" s="2" t="n"/>
       <c r="I48" s="2" t="n"/>
       <c r="J48" s="2" t="n"/>
       <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="n"/>
-      <c r="Q48" s="2" t="n"/>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R48" s="2" t="n"/>
       <c r="S48" s="2" t="n"/>
       <c r="T48" s="2" t="inlineStr">
@@ -3513,12 +3513,12 @@
           <t>intervention context</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>process context</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -3543,32 +3543,32 @@
           <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
       <c r="G50" s="2" t="n"/>
       <c r="H50" s="2" t="n"/>
       <c r="I50" s="2" t="n"/>
       <c r="J50" s="2" t="n"/>
       <c r="K50" s="2" t="n"/>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N50" s="2" t="n"/>
-      <c r="O50" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O50" s="2" t="n"/>
       <c r="P50" s="2" t="n"/>
-      <c r="Q50" s="2" t="n"/>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R50" s="2" t="n"/>
       <c r="S50" s="2" t="n"/>
       <c r="T50" s="2" t="inlineStr">
@@ -3599,32 +3599,32 @@
           <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr">
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="n"/>
       <c r="G51" s="2" t="n"/>
       <c r="H51" s="2" t="n"/>
       <c r="I51" s="2" t="n"/>
       <c r="J51" s="2" t="n"/>
       <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N51" s="2" t="n"/>
-      <c r="O51" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="n"/>
-      <c r="Q51" s="2" t="n"/>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R51" s="2" t="n"/>
       <c r="S51" s="2" t="n"/>
       <c r="T51" s="2" t="inlineStr">
@@ -3655,36 +3655,36 @@
           <t>An entity that is influenced by an intervention</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="D52" s="2" t="n"/>
+      <c r="E52" s="2" t="n"/>
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>entity</t>
         </is>
       </c>
-      <c r="E52" s="2" t="n"/>
-      <c r="F52" s="2" t="n"/>
       <c r="G52" s="2" t="n"/>
       <c r="H52" s="2" t="n"/>
-      <c r="I52" s="2" t="n"/>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
       <c r="J52" s="2" t="n"/>
       <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N52" s="2" t="n"/>
-      <c r="O52" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P52" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R52" s="2" t="n"/>
       <c r="S52" s="2" t="n"/>
       <c r="T52" s="2" t="inlineStr">
@@ -3715,32 +3715,32 @@
           <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr">
+      <c r="D53" s="2" t="n"/>
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E53" s="2" t="n"/>
-      <c r="F53" s="2" t="n"/>
       <c r="G53" s="2" t="n"/>
       <c r="H53" s="2" t="n"/>
       <c r="I53" s="2" t="n"/>
       <c r="J53" s="2" t="n"/>
       <c r="K53" s="2" t="n"/>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N53" s="2" t="n"/>
-      <c r="O53" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O53" s="2" t="n"/>
       <c r="P53" s="2" t="n"/>
-      <c r="Q53" s="2" t="n"/>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R53" s="2" t="n"/>
       <c r="S53" s="2" t="n"/>
       <c r="T53" s="2" t="inlineStr">
@@ -3766,12 +3766,12 @@
           <t>intervention temporal context</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>intervention context</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -3796,36 +3796,36 @@
           <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E55" s="3" t="n"/>
-      <c r="F55" s="3" t="n"/>
       <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="H55" s="3" t="n"/>
       <c r="I55" s="3" t="n"/>
       <c r="J55" s="3" t="n"/>
       <c r="K55" s="3" t="n"/>
       <c r="L55" s="3" t="inlineStr">
         <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="M55" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N55" s="3" t="n"/>
+      <c r="O55" s="3" t="n"/>
+      <c r="P55" s="3" t="n"/>
+      <c r="Q55" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M55" s="3" t="n"/>
-      <c r="N55" s="3" t="n"/>
-      <c r="O55" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P55" s="3" t="n"/>
-      <c r="Q55" s="3" t="n"/>
       <c r="R55" s="3" t="n"/>
       <c r="S55" s="3" t="n"/>
       <c r="T55" s="3" t="inlineStr">
@@ -3856,36 +3856,36 @@
           <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D56" s="3" t="n"/>
+      <c r="E56" s="3" t="n"/>
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E56" s="3" t="n"/>
-      <c r="F56" s="3" t="n"/>
       <c r="G56" s="3" t="n"/>
-      <c r="H56" s="3" t="inlineStr">
-        <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="H56" s="3" t="n"/>
       <c r="I56" s="3" t="n"/>
       <c r="J56" s="3" t="n"/>
       <c r="K56" s="3" t="n"/>
       <c r="L56" s="3" t="inlineStr">
         <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="M56" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N56" s="3" t="n"/>
+      <c r="O56" s="3" t="n"/>
+      <c r="P56" s="3" t="n"/>
+      <c r="Q56" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M56" s="3" t="n"/>
-      <c r="N56" s="3" t="n"/>
-      <c r="O56" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P56" s="3" t="n"/>
-      <c r="Q56" s="3" t="n"/>
       <c r="R56" s="3" t="n"/>
       <c r="S56" s="3" t="n"/>
       <c r="T56" s="3" t="inlineStr">
@@ -3916,36 +3916,36 @@
           <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="inlineStr">
         <is>
           <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E57" s="3" t="n"/>
-      <c r="F57" s="3" t="n"/>
       <c r="G57" s="3" t="n"/>
-      <c r="H57" s="3" t="inlineStr">
-        <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="H57" s="3" t="n"/>
       <c r="I57" s="3" t="n"/>
       <c r="J57" s="3" t="n"/>
       <c r="K57" s="3" t="n"/>
       <c r="L57" s="3" t="inlineStr">
         <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="M57" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N57" s="3" t="n"/>
+      <c r="O57" s="3" t="n"/>
+      <c r="P57" s="3" t="n"/>
+      <c r="Q57" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M57" s="3" t="n"/>
-      <c r="N57" s="3" t="n"/>
-      <c r="O57" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P57" s="3" t="n"/>
-      <c r="Q57" s="3" t="n"/>
       <c r="R57" s="3" t="n"/>
       <c r="S57" s="3" t="n"/>
       <c r="T57" s="3" t="inlineStr">
@@ -3976,36 +3976,36 @@
           <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D58" s="3" t="n"/>
+      <c r="E58" s="3" t="n"/>
+      <c r="F58" s="3" t="inlineStr">
         <is>
           <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E58" s="3" t="n"/>
-      <c r="F58" s="3" t="n"/>
       <c r="G58" s="3" t="n"/>
-      <c r="H58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
-        </is>
-      </c>
+      <c r="H58" s="3" t="n"/>
       <c r="I58" s="3" t="n"/>
       <c r="J58" s="3" t="n"/>
       <c r="K58" s="3" t="n"/>
       <c r="L58" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+        </is>
+      </c>
+      <c r="M58" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N58" s="3" t="n"/>
+      <c r="O58" s="3" t="n"/>
+      <c r="P58" s="3" t="n"/>
+      <c r="Q58" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M58" s="3" t="n"/>
-      <c r="N58" s="3" t="n"/>
-      <c r="O58" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P58" s="3" t="n"/>
-      <c r="Q58" s="3" t="n"/>
       <c r="R58" s="3" t="n"/>
       <c r="S58" s="3" t="n"/>
       <c r="T58" s="3" t="inlineStr">
@@ -4036,36 +4036,36 @@
           <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="inlineStr">
         <is>
           <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E59" s="3" t="n"/>
-      <c r="F59" s="3" t="n"/>
       <c r="G59" s="3" t="n"/>
-      <c r="H59" s="3" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="H59" s="3" t="n"/>
       <c r="I59" s="3" t="n"/>
       <c r="J59" s="3" t="n"/>
       <c r="K59" s="3" t="n"/>
       <c r="L59" s="3" t="inlineStr">
         <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="M59" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N59" s="3" t="n"/>
+      <c r="O59" s="3" t="n"/>
+      <c r="P59" s="3" t="n"/>
+      <c r="Q59" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M59" s="3" t="n"/>
-      <c r="N59" s="3" t="n"/>
-      <c r="O59" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P59" s="3" t="n"/>
-      <c r="Q59" s="3" t="n"/>
       <c r="R59" s="3" t="n"/>
       <c r="S59" s="3" t="n"/>
       <c r="T59" s="3" t="inlineStr">
@@ -4096,36 +4096,36 @@
           <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="D60" s="3" t="n"/>
+      <c r="E60" s="3" t="n"/>
+      <c r="F60" s="3" t="inlineStr">
         <is>
           <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E60" s="3" t="n"/>
-      <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="n"/>
-      <c r="H60" s="3" t="inlineStr">
-        <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="H60" s="3" t="n"/>
       <c r="I60" s="3" t="n"/>
       <c r="J60" s="3" t="n"/>
       <c r="K60" s="3" t="n"/>
       <c r="L60" s="3" t="inlineStr">
         <is>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="M60" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N60" s="3" t="n"/>
+      <c r="O60" s="3" t="n"/>
+      <c r="P60" s="3" t="n"/>
+      <c r="Q60" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M60" s="3" t="n"/>
-      <c r="N60" s="3" t="n"/>
-      <c r="O60" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P60" s="3" t="n"/>
-      <c r="Q60" s="3" t="n"/>
       <c r="R60" s="3" t="n"/>
       <c r="S60" s="3" t="n"/>
       <c r="T60" s="3" t="inlineStr">
@@ -4156,36 +4156,36 @@
           <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n"/>
-      <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="n"/>
-      <c r="H61" s="3" t="inlineStr">
-        <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="H61" s="3" t="n"/>
       <c r="I61" s="3" t="n"/>
       <c r="J61" s="3" t="n"/>
       <c r="K61" s="3" t="n"/>
       <c r="L61" s="3" t="inlineStr">
         <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="M61" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N61" s="3" t="n"/>
+      <c r="O61" s="3" t="n"/>
+      <c r="P61" s="3" t="n"/>
+      <c r="Q61" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M61" s="3" t="n"/>
-      <c r="N61" s="3" t="n"/>
-      <c r="O61" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P61" s="3" t="n"/>
-      <c r="Q61" s="3" t="n"/>
       <c r="R61" s="3" t="n"/>
       <c r="S61" s="3" t="n"/>
       <c r="T61" s="3" t="inlineStr">
@@ -4216,36 +4216,36 @@
           <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
+      <c r="D62" s="3" t="n"/>
+      <c r="E62" s="3" t="n"/>
+      <c r="F62" s="3" t="inlineStr">
         <is>
           <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="E62" s="3" t="n"/>
-      <c r="F62" s="3" t="n"/>
       <c r="G62" s="3" t="n"/>
-      <c r="H62" s="3" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="H62" s="3" t="n"/>
       <c r="I62" s="3" t="n"/>
       <c r="J62" s="3" t="n"/>
       <c r="K62" s="3" t="n"/>
       <c r="L62" s="3" t="inlineStr">
         <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="M62" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N62" s="3" t="n"/>
+      <c r="O62" s="3" t="n"/>
+      <c r="P62" s="3" t="n"/>
+      <c r="Q62" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M62" s="3" t="n"/>
-      <c r="N62" s="3" t="n"/>
-      <c r="O62" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P62" s="3" t="n"/>
-      <c r="Q62" s="3" t="n"/>
       <c r="R62" s="3" t="n"/>
       <c r="S62" s="3" t="n"/>
       <c r="T62" s="3" t="inlineStr">
@@ -4276,46 +4276,46 @@
           <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr">
+      <c r="D63" s="2" t="n"/>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="inlineStr">
         <is>
           <t>participant engagement with intervention</t>
         </is>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>BCI engagement</t>
         </is>
       </c>
-      <c r="F63" s="2" t="n"/>
-      <c r="G63" s="2" t="n"/>
-      <c r="H63" s="2" t="n"/>
-      <c r="I63" s="2" t="n"/>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>Includes mental activities and behaviours.</t>
+        </is>
+      </c>
       <c r="J63" s="2" t="n"/>
       <c r="K63" s="2" t="n"/>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
+      <c r="M63" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N63" s="2" t="n"/>
-      <c r="O63" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P63" s="2" t="inlineStr">
-        <is>
-          <t>Includes mental activities and behaviours.</t>
-        </is>
-      </c>
-      <c r="Q63" s="2" t="n"/>
+      <c r="O63" s="2" t="n"/>
+      <c r="P63" s="2" t="n"/>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R63" s="2" t="n"/>
-      <c r="S63" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="S63" s="2" t="n"/>
       <c r="T63" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
@@ -4346,32 +4346,32 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
+          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
       <c r="G64" s="2" t="n"/>
       <c r="H64" s="2" t="n"/>
       <c r="I64" s="2" t="n"/>
       <c r="J64" s="2" t="n"/>
       <c r="K64" s="2" t="n"/>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M64" s="2" t="n"/>
+      <c r="L64" s="2" t="n"/>
+      <c r="M64" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N64" s="2" t="n"/>
-      <c r="O64" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O64" s="2" t="n"/>
       <c r="P64" s="2" t="n"/>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="R64" s="2" t="n"/>
@@ -4402,36 +4402,36 @@
           <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr">
+      <c r="D65" s="2" t="n"/>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="F65" s="2" t="n"/>
-      <c r="G65" s="2" t="n"/>
       <c r="H65" s="2" t="n"/>
       <c r="I65" s="2" t="n"/>
       <c r="J65" s="2" t="n"/>
       <c r="K65" s="2" t="n"/>
-      <c r="L65" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M65" s="2" t="n"/>
+      <c r="L65" s="2" t="n"/>
+      <c r="M65" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N65" s="2" t="n"/>
-      <c r="O65" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O65" s="2" t="n"/>
       <c r="P65" s="2" t="n"/>
-      <c r="Q65" s="2" t="n"/>
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R65" s="2" t="n"/>
       <c r="S65" s="2" t="n"/>
       <c r="T65" s="2" t="inlineStr">
@@ -4464,36 +4464,36 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
+          <t>An attribute of a process.</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="E66" s="2" t="n"/>
-      <c r="F66" s="2" t="n"/>
       <c r="G66" s="2" t="n"/>
       <c r="H66" s="2" t="n"/>
-      <c r="I66" s="2" t="n"/>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
+        </is>
+      </c>
       <c r="J66" s="2" t="n"/>
       <c r="K66" s="2" t="n"/>
-      <c r="L66" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M66" s="2" t="n"/>
+      <c r="L66" s="2" t="n"/>
+      <c r="M66" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N66" s="2" t="n"/>
-      <c r="O66" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="P66" s="2" t="inlineStr">
-        <is>
-          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
-        </is>
-      </c>
+      <c r="O66" s="2" t="n"/>
+      <c r="P66" s="2" t="n"/>
       <c r="Q66" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a process.</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="R66" s="2" t="n"/>
@@ -4521,12 +4521,12 @@
           <t>process context</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>entity</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -4551,32 +4551,32 @@
           <t>A population that is studied in a research study.</t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr">
+      <c r="D68" s="2" t="n"/>
+      <c r="E68" s="2" t="n"/>
+      <c r="F68" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E68" s="2" t="n"/>
-      <c r="F68" s="2" t="n"/>
       <c r="G68" s="2" t="n"/>
       <c r="H68" s="2" t="n"/>
       <c r="I68" s="2" t="n"/>
       <c r="J68" s="2" t="n"/>
       <c r="K68" s="2" t="n"/>
-      <c r="L68" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="M68" s="2" t="n"/>
+      <c r="L68" s="2" t="n"/>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
       <c r="N68" s="2" t="n"/>
-      <c r="O68" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="O68" s="2" t="n"/>
       <c r="P68" s="2" t="n"/>
-      <c r="Q68" s="2" t="n"/>
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="R68" s="2" t="n"/>
       <c r="S68" s="2" t="n"/>
       <c r="T68" s="2" t="inlineStr">
